--- a/src/Input/plant.xlsx
+++ b/src/Input/plant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\2023HiMCM\src\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A43765-3805-464F-86C2-F526E7082301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB32C98-0A8C-4515-A014-D390A9E328DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,8 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2357" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2489" uniqueCount="854">
   <si>
     <t>scientificName</t>
   </si>
@@ -2630,7 +2628,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2657,8 +2655,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2701,6 +2707,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -2726,10 +2738,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2759,8 +2772,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3131,7 +3149,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P24" sqref="P24"/>
+      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3148,15 +3166,15 @@
     <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.375" customWidth="1"/>
+    <col min="15" max="15" width="10.375" customWidth="1"/>
     <col min="16" max="16" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.125" customWidth="1"/>
+    <col min="22" max="22" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="14.25">
@@ -3877,19 +3895,19 @@
         <v>821</v>
       </c>
       <c r="M11" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="N11" t="s">
-        <v>853</v>
+        <v>824</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P11" t="s">
         <v>818</v>
       </c>
       <c r="Q11" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="R11" t="s">
         <v>826</v>
@@ -3926,11 +3944,53 @@
       <c r="F12" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="11" t="s">
         <v>38</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="J12" t="s">
+        <v>811</v>
+      </c>
+      <c r="K12" t="s">
+        <v>820</v>
+      </c>
+      <c r="L12" t="s">
+        <v>821</v>
+      </c>
+      <c r="M12" t="s">
+        <v>825</v>
+      </c>
+      <c r="N12" t="s">
+        <v>824</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+      <c r="P12" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>824</v>
+      </c>
+      <c r="R12" t="s">
+        <v>826</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12" t="s">
+        <v>819</v>
+      </c>
+      <c r="U12" t="s">
+        <v>850</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -3952,11 +4012,53 @@
       <c r="F13" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="11" t="s">
         <v>41</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="J13" t="s">
+        <v>816</v>
+      </c>
+      <c r="K13" t="s">
+        <v>820</v>
+      </c>
+      <c r="L13" t="s">
+        <v>821</v>
+      </c>
+      <c r="M13" t="s">
+        <v>823</v>
+      </c>
+      <c r="N13" t="s">
+        <v>825</v>
+      </c>
+      <c r="O13">
+        <v>4</v>
+      </c>
+      <c r="P13" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>825</v>
+      </c>
+      <c r="R13" t="s">
+        <v>819</v>
+      </c>
+      <c r="S13">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s">
+        <v>823</v>
+      </c>
+      <c r="U13" t="s">
+        <v>850</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -3984,6 +4086,48 @@
       <c r="H14" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="I14" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="J14" t="s">
+        <v>815</v>
+      </c>
+      <c r="K14" t="s">
+        <v>820</v>
+      </c>
+      <c r="L14" t="s">
+        <v>821</v>
+      </c>
+      <c r="M14" t="s">
+        <v>823</v>
+      </c>
+      <c r="N14" t="s">
+        <v>825</v>
+      </c>
+      <c r="O14">
+        <v>3</v>
+      </c>
+      <c r="P14" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>825</v>
+      </c>
+      <c r="R14" t="s">
+        <v>826</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s">
+        <v>823</v>
+      </c>
+      <c r="U14" t="s">
+        <v>850</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="1" t="s">
@@ -4004,11 +4148,53 @@
       <c r="F15" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="11" t="s">
         <v>47</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="J15" t="s">
+        <v>816</v>
+      </c>
+      <c r="K15" t="s">
+        <v>819</v>
+      </c>
+      <c r="L15" t="s">
+        <v>822</v>
+      </c>
+      <c r="M15" t="s">
+        <v>824</v>
+      </c>
+      <c r="N15" t="s">
+        <v>825</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
+      </c>
+      <c r="P15" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>824</v>
+      </c>
+      <c r="R15" t="s">
+        <v>826</v>
+      </c>
+      <c r="S15">
+        <v>2</v>
+      </c>
+      <c r="T15" t="s">
+        <v>826</v>
+      </c>
+      <c r="U15" t="s">
+        <v>849</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -4030,14 +4216,56 @@
       <c r="F16" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="11" t="s">
         <v>50</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="J16" t="s">
+        <v>810</v>
+      </c>
+      <c r="K16" t="s">
+        <v>819</v>
+      </c>
+      <c r="L16" t="s">
+        <v>819</v>
+      </c>
+      <c r="M16" t="s">
+        <v>824</v>
+      </c>
+      <c r="N16" t="s">
+        <v>824</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>824</v>
+      </c>
+      <c r="R16" t="s">
+        <v>826</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16" t="s">
+        <v>819</v>
+      </c>
+      <c r="U16" t="s">
+        <v>850</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="1" t="s">
         <v>51</v>
       </c>
@@ -4062,8 +4290,50 @@
       <c r="H17" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="J17" t="s">
+        <v>816</v>
+      </c>
+      <c r="K17" t="s">
+        <v>820</v>
+      </c>
+      <c r="L17" t="s">
+        <v>819</v>
+      </c>
+      <c r="M17" t="s">
+        <v>823</v>
+      </c>
+      <c r="N17" t="s">
+        <v>823</v>
+      </c>
+      <c r="O17">
+        <v>4</v>
+      </c>
+      <c r="P17" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>823</v>
+      </c>
+      <c r="R17" t="s">
+        <v>826</v>
+      </c>
+      <c r="S17">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s">
+        <v>823</v>
+      </c>
+      <c r="U17" t="s">
+        <v>850</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="1" t="s">
         <v>54</v>
       </c>
@@ -4088,8 +4358,50 @@
       <c r="H18" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" t="s">
+        <v>809</v>
+      </c>
+      <c r="J18" t="s">
+        <v>811</v>
+      </c>
+      <c r="K18" t="s">
+        <v>820</v>
+      </c>
+      <c r="L18" t="s">
+        <v>819</v>
+      </c>
+      <c r="M18" t="s">
+        <v>824</v>
+      </c>
+      <c r="N18" t="s">
+        <v>824</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>823</v>
+      </c>
+      <c r="R18" t="s">
+        <v>826</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s">
+        <v>825</v>
+      </c>
+      <c r="U18" t="s">
+        <v>850</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="1" t="s">
         <v>57</v>
       </c>
@@ -4114,8 +4426,50 @@
       <c r="H19" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" t="s">
+        <v>809</v>
+      </c>
+      <c r="J19" t="s">
+        <v>811</v>
+      </c>
+      <c r="K19" t="s">
+        <v>819</v>
+      </c>
+      <c r="L19" t="s">
+        <v>821</v>
+      </c>
+      <c r="M19" t="s">
+        <v>823</v>
+      </c>
+      <c r="N19" t="s">
+        <v>824</v>
+      </c>
+      <c r="O19">
+        <v>2</v>
+      </c>
+      <c r="P19" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>824</v>
+      </c>
+      <c r="R19" t="s">
+        <v>826</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19" t="s">
+        <v>819</v>
+      </c>
+      <c r="U19" t="s">
+        <v>850</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="1" t="s">
         <v>60</v>
       </c>
@@ -4140,8 +4494,50 @@
       <c r="H20" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" t="s">
+        <v>807</v>
+      </c>
+      <c r="J20" t="s">
+        <v>811</v>
+      </c>
+      <c r="K20" t="s">
+        <v>819</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>821</v>
+      </c>
+      <c r="M20" t="s">
+        <v>823</v>
+      </c>
+      <c r="N20" t="s">
+        <v>824</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>824</v>
+      </c>
+      <c r="R20" t="s">
+        <v>826</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20" t="s">
+        <v>819</v>
+      </c>
+      <c r="U20" t="s">
+        <v>850</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="1" t="s">
         <v>63</v>
       </c>
@@ -4160,14 +4556,56 @@
       <c r="F21" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="11" t="s">
         <v>65</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" t="s">
+        <v>809</v>
+      </c>
+      <c r="J21" t="s">
+        <v>811</v>
+      </c>
+      <c r="K21" t="s">
+        <v>820</v>
+      </c>
+      <c r="L21" t="s">
+        <v>822</v>
+      </c>
+      <c r="M21" t="s">
+        <v>825</v>
+      </c>
+      <c r="N21" t="s">
+        <v>825</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>825</v>
+      </c>
+      <c r="R21" t="s">
+        <v>826</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s">
+        <v>825</v>
+      </c>
+      <c r="U21" t="s">
+        <v>850</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="1" t="s">
         <v>66</v>
       </c>
@@ -4186,14 +4624,56 @@
       <c r="F22" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="11" t="s">
         <v>68</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" t="s">
+        <v>809</v>
+      </c>
+      <c r="J22" t="s">
+        <v>810</v>
+      </c>
+      <c r="K22" t="s">
+        <v>820</v>
+      </c>
+      <c r="L22" t="s">
+        <v>821</v>
+      </c>
+      <c r="M22" t="s">
+        <v>823</v>
+      </c>
+      <c r="N22" t="s">
+        <v>826</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q22" s="12" t="s">
+        <v>824</v>
+      </c>
+      <c r="R22" t="s">
+        <v>826</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22" t="s">
+        <v>825</v>
+      </c>
+      <c r="U22" t="s">
+        <v>850</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="1" t="s">
         <v>69</v>
       </c>
@@ -4218,8 +4698,50 @@
       <c r="H23" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" t="s">
+        <v>809</v>
+      </c>
+      <c r="J23" t="s">
+        <v>811</v>
+      </c>
+      <c r="K23" t="s">
+        <v>819</v>
+      </c>
+      <c r="L23" t="s">
+        <v>819</v>
+      </c>
+      <c r="M23" t="s">
+        <v>824</v>
+      </c>
+      <c r="N23" t="s">
+        <v>823</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>823</v>
+      </c>
+      <c r="R23" t="s">
+        <v>826</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s">
+        <v>823</v>
+      </c>
+      <c r="U23" t="s">
+        <v>850</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="1" t="s">
         <v>72</v>
       </c>
@@ -4245,7 +4767,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:22">
       <c r="A25" s="1" t="s">
         <v>75</v>
       </c>
@@ -4271,7 +4793,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:22">
       <c r="A26" s="1" t="s">
         <v>78</v>
       </c>
@@ -4297,7 +4819,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:22">
       <c r="A27" s="1" t="s">
         <v>81</v>
       </c>
@@ -4323,7 +4845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:22">
       <c r="A28" s="1" t="s">
         <v>84</v>
       </c>
@@ -4349,7 +4871,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:22">
       <c r="A29" s="1" t="s">
         <v>87</v>
       </c>
@@ -4375,7 +4897,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:22">
       <c r="A30" s="1" t="s">
         <v>90</v>
       </c>
@@ -4401,7 +4923,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:22">
       <c r="A31" s="1" t="s">
         <v>93</v>
       </c>
@@ -4427,7 +4949,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:22">
       <c r="A32" s="1" t="s">
         <v>96</v>
       </c>
@@ -9568,8 +10090,16 @@
   </sheetData>
   <autoFilter ref="A1:V1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G12" r:id="rId1" xr:uid="{DD8A3281-F6CC-4061-A10C-FDBDD86288CB}"/>
+    <hyperlink ref="G13" r:id="rId2" xr:uid="{3365B512-A117-4295-A12C-33C34EC6E313}"/>
+    <hyperlink ref="G15" r:id="rId3" xr:uid="{2F4966B5-36F9-4BE2-91B9-7FC5D57CB78D}"/>
+    <hyperlink ref="G16" r:id="rId4" xr:uid="{E129CBA0-90B4-4780-9A10-A8082A048C66}"/>
+    <hyperlink ref="G22" r:id="rId5" xr:uid="{E17E1A7B-249D-427F-9255-7866CB7AC921}"/>
+    <hyperlink ref="G21" r:id="rId6" xr:uid="{DE251097-DB35-4E0C-89F7-702935FBD5BC}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="14">
@@ -9671,7 +10201,7 @@
       <selection activeCell="A2" sqref="A2:A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="38.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="38.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="21.375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.375" style="2" bestFit="1" customWidth="1"/>
@@ -9679,13 +10209,13 @@
     <col min="4" max="4" width="11.875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.375" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.375" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21.375" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.875" style="2" bestFit="1" customWidth="1"/>
@@ -10824,7 +11354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332839ED-56B9-4FA1-9A11-3B9815BDFF4B}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
@@ -10835,7 +11365,7 @@
     <col min="3" max="3" width="16.625" customWidth="1"/>
     <col min="5" max="5" width="19.125" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="21.5" customWidth="1"/>
+    <col min="7" max="7" width="21.375" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
     <col min="14" max="14" width="30" customWidth="1"/>
   </cols>

--- a/src/Input/plant.xlsx
+++ b/src/Input/plant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\2023HiMCM\src\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB32C98-0A8C-4515-A014-D390A9E328DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0512BD-6F67-487D-A309-04A22DF98929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2489" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2665" uniqueCount="854">
   <si>
     <t>scientificName</t>
   </si>
@@ -3148,8 +3148,8 @@
   <dimension ref="A1:V227"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4766,6 +4766,48 @@
       <c r="H24" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="I24" t="s">
+        <v>809</v>
+      </c>
+      <c r="J24" t="s">
+        <v>811</v>
+      </c>
+      <c r="K24" t="s">
+        <v>819</v>
+      </c>
+      <c r="L24" t="s">
+        <v>819</v>
+      </c>
+      <c r="M24" t="s">
+        <v>823</v>
+      </c>
+      <c r="N24" t="s">
+        <v>825</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>825</v>
+      </c>
+      <c r="R24" t="s">
+        <v>826</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s">
+        <v>825</v>
+      </c>
+      <c r="U24" t="s">
+        <v>850</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:22">
       <c r="A25" s="1" t="s">
@@ -4792,6 +4834,48 @@
       <c r="H25" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="I25" t="s">
+        <v>809</v>
+      </c>
+      <c r="J25" t="s">
+        <v>811</v>
+      </c>
+      <c r="K25" t="s">
+        <v>820</v>
+      </c>
+      <c r="L25" t="s">
+        <v>819</v>
+      </c>
+      <c r="M25" t="s">
+        <v>824</v>
+      </c>
+      <c r="N25" t="s">
+        <v>826</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>823</v>
+      </c>
+      <c r="R25" t="s">
+        <v>826</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25" t="s">
+        <v>823</v>
+      </c>
+      <c r="U25" t="s">
+        <v>850</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="1" t="s">
@@ -4818,6 +4902,48 @@
       <c r="H26" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="I26" t="s">
+        <v>809</v>
+      </c>
+      <c r="J26" t="s">
+        <v>810</v>
+      </c>
+      <c r="K26" t="s">
+        <v>819</v>
+      </c>
+      <c r="L26" t="s">
+        <v>819</v>
+      </c>
+      <c r="M26" t="s">
+        <v>823</v>
+      </c>
+      <c r="N26" t="s">
+        <v>824</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>824</v>
+      </c>
+      <c r="R26" t="s">
+        <v>837</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s">
+        <v>825</v>
+      </c>
+      <c r="U26" t="s">
+        <v>850</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="1" t="s">
@@ -4844,6 +4970,48 @@
       <c r="H27" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I27" t="s">
+        <v>809</v>
+      </c>
+      <c r="J27" t="s">
+        <v>810</v>
+      </c>
+      <c r="K27" t="s">
+        <v>818</v>
+      </c>
+      <c r="L27" t="s">
+        <v>822</v>
+      </c>
+      <c r="M27" t="s">
+        <v>824</v>
+      </c>
+      <c r="N27" t="s">
+        <v>824</v>
+      </c>
+      <c r="O27">
+        <v>3</v>
+      </c>
+      <c r="P27" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>823</v>
+      </c>
+      <c r="R27" t="s">
+        <v>826</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s">
+        <v>819</v>
+      </c>
+      <c r="U27" t="s">
+        <v>850</v>
+      </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="1" t="s">
@@ -4870,6 +5038,48 @@
       <c r="H28" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="I28" t="s">
+        <v>809</v>
+      </c>
+      <c r="J28" t="s">
+        <v>810</v>
+      </c>
+      <c r="K28" t="s">
+        <v>818</v>
+      </c>
+      <c r="L28" t="s">
+        <v>819</v>
+      </c>
+      <c r="M28" t="s">
+        <v>823</v>
+      </c>
+      <c r="N28" t="s">
+        <v>823</v>
+      </c>
+      <c r="O28">
+        <v>2</v>
+      </c>
+      <c r="P28" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>825</v>
+      </c>
+      <c r="R28" t="s">
+        <v>837</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28" t="s">
+        <v>823</v>
+      </c>
+      <c r="U28" t="s">
+        <v>850</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="1" t="s">
@@ -4896,6 +5106,48 @@
       <c r="H29" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="I29" t="s">
+        <v>807</v>
+      </c>
+      <c r="J29" t="s">
+        <v>811</v>
+      </c>
+      <c r="K29" t="s">
+        <v>820</v>
+      </c>
+      <c r="L29" t="s">
+        <v>821</v>
+      </c>
+      <c r="M29" t="s">
+        <v>823</v>
+      </c>
+      <c r="N29" t="s">
+        <v>825</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>825</v>
+      </c>
+      <c r="R29" t="s">
+        <v>826</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s">
+        <v>825</v>
+      </c>
+      <c r="U29" t="s">
+        <v>850</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="1" t="s">
@@ -4922,6 +5174,48 @@
       <c r="H30" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="I30" t="s">
+        <v>807</v>
+      </c>
+      <c r="J30" t="s">
+        <v>811</v>
+      </c>
+      <c r="K30" t="s">
+        <v>820</v>
+      </c>
+      <c r="L30" t="s">
+        <v>821</v>
+      </c>
+      <c r="M30" t="s">
+        <v>824</v>
+      </c>
+      <c r="N30" t="s">
+        <v>825</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>825</v>
+      </c>
+      <c r="R30" t="s">
+        <v>826</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s">
+        <v>825</v>
+      </c>
+      <c r="U30" t="s">
+        <v>850</v>
+      </c>
+      <c r="V30">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="1" t="s">
@@ -4948,6 +5242,48 @@
       <c r="H31" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I31" t="s">
+        <v>809</v>
+      </c>
+      <c r="J31" t="s">
+        <v>811</v>
+      </c>
+      <c r="K31" t="s">
+        <v>820</v>
+      </c>
+      <c r="L31" t="s">
+        <v>822</v>
+      </c>
+      <c r="M31" t="s">
+        <v>823</v>
+      </c>
+      <c r="N31" t="s">
+        <v>823</v>
+      </c>
+      <c r="O31">
+        <v>4</v>
+      </c>
+      <c r="P31" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>823</v>
+      </c>
+      <c r="R31" t="s">
+        <v>826</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31" t="s">
+        <v>823</v>
+      </c>
+      <c r="U31" t="s">
+        <v>850</v>
+      </c>
+      <c r="V31">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="1" t="s">
@@ -4974,8 +5310,50 @@
       <c r="H32" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32" t="s">
+        <v>807</v>
+      </c>
+      <c r="J32" t="s">
+        <v>810</v>
+      </c>
+      <c r="K32" t="s">
+        <v>820</v>
+      </c>
+      <c r="L32" t="s">
+        <v>821</v>
+      </c>
+      <c r="M32" t="s">
+        <v>823</v>
+      </c>
+      <c r="N32" t="s">
+        <v>823</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>824</v>
+      </c>
+      <c r="R32" t="s">
+        <v>826</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32" t="s">
+        <v>826</v>
+      </c>
+      <c r="U32" t="s">
+        <v>850</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" s="1" t="s">
         <v>99</v>
       </c>
@@ -5000,8 +5378,50 @@
       <c r="H33" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33" t="s">
+        <v>809</v>
+      </c>
+      <c r="J33" t="s">
+        <v>815</v>
+      </c>
+      <c r="K33" t="s">
+        <v>819</v>
+      </c>
+      <c r="L33" t="s">
+        <v>819</v>
+      </c>
+      <c r="M33" t="s">
+        <v>823</v>
+      </c>
+      <c r="N33" t="s">
+        <v>824</v>
+      </c>
+      <c r="O33">
+        <v>5</v>
+      </c>
+      <c r="P33" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>824</v>
+      </c>
+      <c r="R33" t="s">
+        <v>826</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s">
+        <v>823</v>
+      </c>
+      <c r="U33" t="s">
+        <v>849</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" s="1" t="s">
         <v>102</v>
       </c>
@@ -5026,8 +5446,50 @@
       <c r="H34" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34" t="s">
+        <v>809</v>
+      </c>
+      <c r="J34" t="s">
+        <v>815</v>
+      </c>
+      <c r="K34" t="s">
+        <v>819</v>
+      </c>
+      <c r="L34" t="s">
+        <v>819</v>
+      </c>
+      <c r="M34" t="s">
+        <v>823</v>
+      </c>
+      <c r="N34" t="s">
+        <v>825</v>
+      </c>
+      <c r="O34">
+        <v>5</v>
+      </c>
+      <c r="P34" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>824</v>
+      </c>
+      <c r="R34" t="s">
+        <v>826</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s">
+        <v>823</v>
+      </c>
+      <c r="U34" t="s">
+        <v>850</v>
+      </c>
+      <c r="V34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35" s="1" t="s">
         <v>105</v>
       </c>
@@ -5052,8 +5514,50 @@
       <c r="H35" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35" t="s">
+        <v>809</v>
+      </c>
+      <c r="J35" t="s">
+        <v>816</v>
+      </c>
+      <c r="K35" t="s">
+        <v>820</v>
+      </c>
+      <c r="L35" t="s">
+        <v>821</v>
+      </c>
+      <c r="M35" t="s">
+        <v>824</v>
+      </c>
+      <c r="N35" t="s">
+        <v>824</v>
+      </c>
+      <c r="O35">
+        <v>4</v>
+      </c>
+      <c r="P35" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>824</v>
+      </c>
+      <c r="R35" t="s">
+        <v>826</v>
+      </c>
+      <c r="S35">
+        <v>2</v>
+      </c>
+      <c r="T35" t="s">
+        <v>819</v>
+      </c>
+      <c r="U35" t="s">
+        <v>850</v>
+      </c>
+      <c r="V35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" s="1" t="s">
         <v>108</v>
       </c>
@@ -5078,8 +5582,50 @@
       <c r="H36" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36" t="s">
+        <v>809</v>
+      </c>
+      <c r="J36" t="s">
+        <v>811</v>
+      </c>
+      <c r="K36" t="s">
+        <v>820</v>
+      </c>
+      <c r="L36" t="s">
+        <v>819</v>
+      </c>
+      <c r="M36" t="s">
+        <v>825</v>
+      </c>
+      <c r="N36" t="s">
+        <v>823</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>825</v>
+      </c>
+      <c r="R36" t="s">
+        <v>826</v>
+      </c>
+      <c r="S36">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s">
+        <v>823</v>
+      </c>
+      <c r="U36" t="s">
+        <v>850</v>
+      </c>
+      <c r="V36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37" s="1" t="s">
         <v>111</v>
       </c>
@@ -5104,8 +5650,50 @@
       <c r="H37" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37" t="s">
+        <v>809</v>
+      </c>
+      <c r="J37" t="s">
+        <v>811</v>
+      </c>
+      <c r="K37" t="s">
+        <v>820</v>
+      </c>
+      <c r="L37" t="s">
+        <v>819</v>
+      </c>
+      <c r="M37" t="s">
+        <v>823</v>
+      </c>
+      <c r="N37" t="s">
+        <v>824</v>
+      </c>
+      <c r="O37">
+        <v>2</v>
+      </c>
+      <c r="P37" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>824</v>
+      </c>
+      <c r="R37" t="s">
+        <v>826</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s">
+        <v>825</v>
+      </c>
+      <c r="U37" t="s">
+        <v>850</v>
+      </c>
+      <c r="V37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" s="1" t="s">
         <v>114</v>
       </c>
@@ -5130,8 +5718,50 @@
       <c r="H38" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38" t="s">
+        <v>809</v>
+      </c>
+      <c r="J38" t="s">
+        <v>810</v>
+      </c>
+      <c r="K38" t="s">
+        <v>820</v>
+      </c>
+      <c r="L38" t="s">
+        <v>821</v>
+      </c>
+      <c r="M38" t="s">
+        <v>824</v>
+      </c>
+      <c r="N38" t="s">
+        <v>825</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>825</v>
+      </c>
+      <c r="R38" t="s">
+        <v>826</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38" t="s">
+        <v>819</v>
+      </c>
+      <c r="U38" t="s">
+        <v>849</v>
+      </c>
+      <c r="V38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39" s="1" t="s">
         <v>117</v>
       </c>
@@ -5156,8 +5786,50 @@
       <c r="H39" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39" t="s">
+        <v>809</v>
+      </c>
+      <c r="J39" t="s">
+        <v>810</v>
+      </c>
+      <c r="K39" t="s">
+        <v>820</v>
+      </c>
+      <c r="L39" t="s">
+        <v>821</v>
+      </c>
+      <c r="M39" t="s">
+        <v>824</v>
+      </c>
+      <c r="N39" t="s">
+        <v>825</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>825</v>
+      </c>
+      <c r="R39" t="s">
+        <v>826</v>
+      </c>
+      <c r="S39">
+        <v>1</v>
+      </c>
+      <c r="T39" t="s">
+        <v>819</v>
+      </c>
+      <c r="U39" t="s">
+        <v>849</v>
+      </c>
+      <c r="V39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40" s="1" t="s">
         <v>120</v>
       </c>
@@ -5183,7 +5855,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:22">
       <c r="A41" s="1" t="s">
         <v>123</v>
       </c>
@@ -5209,7 +5881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:22">
       <c r="A42" s="1" t="s">
         <v>126</v>
       </c>
@@ -5235,7 +5907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:22">
       <c r="A43" s="1" t="s">
         <v>129</v>
       </c>
@@ -5261,7 +5933,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:22">
       <c r="A44" s="1" t="s">
         <v>132</v>
       </c>
@@ -5287,7 +5959,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:22">
       <c r="A45" s="1" t="s">
         <v>135</v>
       </c>
@@ -5313,7 +5985,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:22">
       <c r="A46" s="1" t="s">
         <v>138</v>
       </c>
@@ -5339,7 +6011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:22">
       <c r="A47" s="1" t="s">
         <v>141</v>
       </c>
@@ -5365,7 +6037,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:22">
       <c r="A48" s="1" t="s">
         <v>144</v>
       </c>

--- a/src/Input/plant.xlsx
+++ b/src/Input/plant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\2023HiMCM\src\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0512BD-6F67-487D-A309-04A22DF98929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BFF1D33-F49C-4356-9678-3272172EBC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2665" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3336" uniqueCount="854">
   <si>
     <t>scientificName</t>
   </si>
@@ -3148,8 +3148,8 @@
   <dimension ref="A1:V227"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I39" sqref="I39"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5787,7 +5787,7 @@
         <v>16</v>
       </c>
       <c r="I39" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="J39" t="s">
         <v>810</v>
@@ -5854,6 +5854,48 @@
       <c r="H40" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="I40" t="s">
+        <v>808</v>
+      </c>
+      <c r="J40" t="s">
+        <v>810</v>
+      </c>
+      <c r="K40" t="s">
+        <v>820</v>
+      </c>
+      <c r="L40" t="s">
+        <v>821</v>
+      </c>
+      <c r="M40" t="s">
+        <v>825</v>
+      </c>
+      <c r="N40" t="s">
+        <v>825</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>825</v>
+      </c>
+      <c r="R40" t="s">
+        <v>826</v>
+      </c>
+      <c r="S40">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s">
+        <v>819</v>
+      </c>
+      <c r="U40" t="s">
+        <v>849</v>
+      </c>
+      <c r="V40">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:22">
       <c r="A41" s="1" t="s">
@@ -5880,6 +5922,48 @@
       <c r="H41" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I41" t="s">
+        <v>807</v>
+      </c>
+      <c r="J41" t="s">
+        <v>811</v>
+      </c>
+      <c r="K41" t="s">
+        <v>820</v>
+      </c>
+      <c r="L41" t="s">
+        <v>821</v>
+      </c>
+      <c r="M41" t="s">
+        <v>823</v>
+      </c>
+      <c r="N41" t="s">
+        <v>824</v>
+      </c>
+      <c r="O41">
+        <v>2</v>
+      </c>
+      <c r="P41" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>825</v>
+      </c>
+      <c r="R41" t="s">
+        <v>826</v>
+      </c>
+      <c r="S41">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s">
+        <v>825</v>
+      </c>
+      <c r="U41" t="s">
+        <v>850</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:22">
       <c r="A42" s="1" t="s">
@@ -5906,6 +5990,48 @@
       <c r="H42" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I42" t="s">
+        <v>809</v>
+      </c>
+      <c r="J42" t="s">
+        <v>810</v>
+      </c>
+      <c r="K42" t="s">
+        <v>819</v>
+      </c>
+      <c r="L42" t="s">
+        <v>821</v>
+      </c>
+      <c r="M42" t="s">
+        <v>824</v>
+      </c>
+      <c r="N42" t="s">
+        <v>824</v>
+      </c>
+      <c r="O42">
+        <v>3</v>
+      </c>
+      <c r="P42" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>824</v>
+      </c>
+      <c r="R42" t="s">
+        <v>837</v>
+      </c>
+      <c r="S42">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s">
+        <v>819</v>
+      </c>
+      <c r="U42" t="s">
+        <v>849</v>
+      </c>
+      <c r="V42">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:22">
       <c r="A43" s="1" t="s">
@@ -5932,6 +6058,48 @@
       <c r="H43" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="I43" t="s">
+        <v>807</v>
+      </c>
+      <c r="J43" t="s">
+        <v>811</v>
+      </c>
+      <c r="K43" t="s">
+        <v>820</v>
+      </c>
+      <c r="L43" t="s">
+        <v>821</v>
+      </c>
+      <c r="M43" t="s">
+        <v>824</v>
+      </c>
+      <c r="N43" t="s">
+        <v>825</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>825</v>
+      </c>
+      <c r="R43" t="s">
+        <v>826</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43" t="s">
+        <v>823</v>
+      </c>
+      <c r="U43" t="s">
+        <v>850</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:22">
       <c r="A44" s="1" t="s">
@@ -5958,6 +6126,48 @@
       <c r="H44" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I44" t="s">
+        <v>807</v>
+      </c>
+      <c r="J44" t="s">
+        <v>811</v>
+      </c>
+      <c r="K44" t="s">
+        <v>820</v>
+      </c>
+      <c r="L44" t="s">
+        <v>821</v>
+      </c>
+      <c r="M44" t="s">
+        <v>824</v>
+      </c>
+      <c r="N44" t="s">
+        <v>824</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>825</v>
+      </c>
+      <c r="R44" t="s">
+        <v>826</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44" t="s">
+        <v>823</v>
+      </c>
+      <c r="U44" t="s">
+        <v>850</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:22">
       <c r="A45" s="1" t="s">
@@ -5984,6 +6194,48 @@
       <c r="H45" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="I45" t="s">
+        <v>809</v>
+      </c>
+      <c r="J45" t="s">
+        <v>811</v>
+      </c>
+      <c r="K45" t="s">
+        <v>820</v>
+      </c>
+      <c r="L45" t="s">
+        <v>821</v>
+      </c>
+      <c r="M45" t="s">
+        <v>825</v>
+      </c>
+      <c r="N45" t="s">
+        <v>825</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>825</v>
+      </c>
+      <c r="R45" t="s">
+        <v>826</v>
+      </c>
+      <c r="S45">
+        <v>1</v>
+      </c>
+      <c r="T45" t="s">
+        <v>825</v>
+      </c>
+      <c r="U45" t="s">
+        <v>850</v>
+      </c>
+      <c r="V45">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:22">
       <c r="A46" s="1" t="s">
@@ -6010,6 +6262,48 @@
       <c r="H46" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I46" t="s">
+        <v>807</v>
+      </c>
+      <c r="J46" t="s">
+        <v>811</v>
+      </c>
+      <c r="K46" t="s">
+        <v>820</v>
+      </c>
+      <c r="L46" t="s">
+        <v>821</v>
+      </c>
+      <c r="M46" t="s">
+        <v>823</v>
+      </c>
+      <c r="N46" t="s">
+        <v>825</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>825</v>
+      </c>
+      <c r="R46" t="s">
+        <v>826</v>
+      </c>
+      <c r="S46">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s">
+        <v>825</v>
+      </c>
+      <c r="U46" t="s">
+        <v>850</v>
+      </c>
+      <c r="V46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:22">
       <c r="A47" s="1" t="s">
@@ -6036,6 +6330,48 @@
       <c r="H47" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="I47" t="s">
+        <v>807</v>
+      </c>
+      <c r="J47" t="s">
+        <v>811</v>
+      </c>
+      <c r="K47" t="s">
+        <v>820</v>
+      </c>
+      <c r="L47" t="s">
+        <v>821</v>
+      </c>
+      <c r="M47" t="s">
+        <v>823</v>
+      </c>
+      <c r="N47" t="s">
+        <v>825</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>825</v>
+      </c>
+      <c r="R47" t="s">
+        <v>826</v>
+      </c>
+      <c r="S47">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s">
+        <v>823</v>
+      </c>
+      <c r="U47" t="s">
+        <v>850</v>
+      </c>
+      <c r="V47">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:22">
       <c r="A48" s="1" t="s">
@@ -6062,8 +6398,50 @@
       <c r="H48" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="I48" t="s">
+        <v>809</v>
+      </c>
+      <c r="J48" t="s">
+        <v>810</v>
+      </c>
+      <c r="K48" t="s">
+        <v>819</v>
+      </c>
+      <c r="L48" t="s">
+        <v>821</v>
+      </c>
+      <c r="M48" t="s">
+        <v>824</v>
+      </c>
+      <c r="N48" t="s">
+        <v>824</v>
+      </c>
+      <c r="O48">
+        <v>2</v>
+      </c>
+      <c r="P48" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>824</v>
+      </c>
+      <c r="R48" t="s">
+        <v>826</v>
+      </c>
+      <c r="S48">
+        <v>2</v>
+      </c>
+      <c r="T48" t="s">
+        <v>825</v>
+      </c>
+      <c r="U48" t="s">
+        <v>849</v>
+      </c>
+      <c r="V48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
       <c r="A49" s="1" t="s">
         <v>147</v>
       </c>
@@ -6088,8 +6466,50 @@
       <c r="H49" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="I49" t="s">
+        <v>809</v>
+      </c>
+      <c r="J49" t="s">
+        <v>810</v>
+      </c>
+      <c r="K49" t="s">
+        <v>820</v>
+      </c>
+      <c r="L49" t="s">
+        <v>819</v>
+      </c>
+      <c r="M49" t="s">
+        <v>823</v>
+      </c>
+      <c r="N49" t="s">
+        <v>825</v>
+      </c>
+      <c r="O49">
+        <v>3</v>
+      </c>
+      <c r="P49" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>824</v>
+      </c>
+      <c r="R49" t="s">
+        <v>826</v>
+      </c>
+      <c r="S49">
+        <v>1</v>
+      </c>
+      <c r="T49" t="s">
+        <v>823</v>
+      </c>
+      <c r="U49" t="s">
+        <v>850</v>
+      </c>
+      <c r="V49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
       <c r="A50" s="1" t="s">
         <v>150</v>
       </c>
@@ -6114,8 +6534,50 @@
       <c r="H50" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50" t="s">
+        <v>809</v>
+      </c>
+      <c r="J50" t="s">
+        <v>811</v>
+      </c>
+      <c r="K50" t="s">
+        <v>818</v>
+      </c>
+      <c r="L50" t="s">
+        <v>819</v>
+      </c>
+      <c r="M50" t="s">
+        <v>823</v>
+      </c>
+      <c r="N50" t="s">
+        <v>823</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+      <c r="P50" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>823</v>
+      </c>
+      <c r="R50" t="s">
+        <v>826</v>
+      </c>
+      <c r="S50">
+        <v>1</v>
+      </c>
+      <c r="T50" t="s">
+        <v>823</v>
+      </c>
+      <c r="U50" t="s">
+        <v>850</v>
+      </c>
+      <c r="V50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
       <c r="A51" s="1" t="s">
         <v>153</v>
       </c>
@@ -6140,8 +6602,50 @@
       <c r="H51" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="I51" t="s">
+        <v>809</v>
+      </c>
+      <c r="J51" t="s">
+        <v>810</v>
+      </c>
+      <c r="K51" t="s">
+        <v>820</v>
+      </c>
+      <c r="L51" t="s">
+        <v>821</v>
+      </c>
+      <c r="M51" t="s">
+        <v>825</v>
+      </c>
+      <c r="N51" t="s">
+        <v>825</v>
+      </c>
+      <c r="O51">
+        <v>2</v>
+      </c>
+      <c r="P51" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>823</v>
+      </c>
+      <c r="R51" t="s">
+        <v>826</v>
+      </c>
+      <c r="S51">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s">
+        <v>826</v>
+      </c>
+      <c r="U51" t="s">
+        <v>850</v>
+      </c>
+      <c r="V51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
       <c r="A52" s="1" t="s">
         <v>156</v>
       </c>
@@ -6166,8 +6670,50 @@
       <c r="H52" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52" t="s">
+        <v>809</v>
+      </c>
+      <c r="J52" t="s">
+        <v>816</v>
+      </c>
+      <c r="K52" t="s">
+        <v>820</v>
+      </c>
+      <c r="L52" t="s">
+        <v>821</v>
+      </c>
+      <c r="M52" t="s">
+        <v>823</v>
+      </c>
+      <c r="N52" t="s">
+        <v>825</v>
+      </c>
+      <c r="O52">
+        <v>4</v>
+      </c>
+      <c r="P52" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>825</v>
+      </c>
+      <c r="R52" t="s">
+        <v>826</v>
+      </c>
+      <c r="S52">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s">
+        <v>826</v>
+      </c>
+      <c r="U52" t="s">
+        <v>850</v>
+      </c>
+      <c r="V52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
       <c r="A53" s="1" t="s">
         <v>159</v>
       </c>
@@ -6192,8 +6738,50 @@
       <c r="H53" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="I53" t="s">
+        <v>809</v>
+      </c>
+      <c r="J53" t="s">
+        <v>816</v>
+      </c>
+      <c r="K53" t="s">
+        <v>820</v>
+      </c>
+      <c r="L53" t="s">
+        <v>821</v>
+      </c>
+      <c r="M53" t="s">
+        <v>823</v>
+      </c>
+      <c r="N53" t="s">
+        <v>825</v>
+      </c>
+      <c r="O53">
+        <v>4</v>
+      </c>
+      <c r="P53" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>825</v>
+      </c>
+      <c r="R53" t="s">
+        <v>826</v>
+      </c>
+      <c r="S53">
+        <v>1</v>
+      </c>
+      <c r="T53" t="s">
+        <v>826</v>
+      </c>
+      <c r="U53" t="s">
+        <v>850</v>
+      </c>
+      <c r="V53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
       <c r="A54" s="1" t="s">
         <v>162</v>
       </c>
@@ -6218,8 +6806,50 @@
       <c r="H54" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="I54" t="s">
+        <v>809</v>
+      </c>
+      <c r="J54" t="s">
+        <v>816</v>
+      </c>
+      <c r="K54" t="s">
+        <v>820</v>
+      </c>
+      <c r="L54" t="s">
+        <v>821</v>
+      </c>
+      <c r="M54" t="s">
+        <v>823</v>
+      </c>
+      <c r="N54" t="s">
+        <v>825</v>
+      </c>
+      <c r="O54">
+        <v>4</v>
+      </c>
+      <c r="P54" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>825</v>
+      </c>
+      <c r="R54" t="s">
+        <v>826</v>
+      </c>
+      <c r="S54">
+        <v>1</v>
+      </c>
+      <c r="T54" t="s">
+        <v>826</v>
+      </c>
+      <c r="U54" t="s">
+        <v>850</v>
+      </c>
+      <c r="V54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
       <c r="A55" s="1" t="s">
         <v>165</v>
       </c>
@@ -6244,8 +6874,50 @@
       <c r="H55" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="I55" t="s">
+        <v>809</v>
+      </c>
+      <c r="J55" t="s">
+        <v>817</v>
+      </c>
+      <c r="K55" t="s">
+        <v>820</v>
+      </c>
+      <c r="L55" t="s">
+        <v>819</v>
+      </c>
+      <c r="M55" t="s">
+        <v>824</v>
+      </c>
+      <c r="N55" t="s">
+        <v>825</v>
+      </c>
+      <c r="O55">
+        <v>3</v>
+      </c>
+      <c r="P55" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>824</v>
+      </c>
+      <c r="R55" t="s">
+        <v>826</v>
+      </c>
+      <c r="S55">
+        <v>1</v>
+      </c>
+      <c r="T55" t="s">
+        <v>823</v>
+      </c>
+      <c r="U55" t="s">
+        <v>850</v>
+      </c>
+      <c r="V55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
       <c r="A56" s="1" t="s">
         <v>168</v>
       </c>
@@ -6270,8 +6942,50 @@
       <c r="H56" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="I56" t="s">
+        <v>809</v>
+      </c>
+      <c r="J56" t="s">
+        <v>811</v>
+      </c>
+      <c r="K56" t="s">
+        <v>820</v>
+      </c>
+      <c r="L56" t="s">
+        <v>821</v>
+      </c>
+      <c r="M56" t="s">
+        <v>823</v>
+      </c>
+      <c r="N56" t="s">
+        <v>825</v>
+      </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
+      <c r="P56" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>825</v>
+      </c>
+      <c r="R56" t="s">
+        <v>826</v>
+      </c>
+      <c r="S56">
+        <v>1</v>
+      </c>
+      <c r="T56" t="s">
+        <v>825</v>
+      </c>
+      <c r="U56" t="s">
+        <v>850</v>
+      </c>
+      <c r="V56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
       <c r="A57" s="1" t="s">
         <v>171</v>
       </c>
@@ -6296,8 +7010,50 @@
       <c r="H57" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57" t="s">
+        <v>809</v>
+      </c>
+      <c r="J57" t="s">
+        <v>811</v>
+      </c>
+      <c r="K57" t="s">
+        <v>820</v>
+      </c>
+      <c r="L57" t="s">
+        <v>822</v>
+      </c>
+      <c r="M57" t="s">
+        <v>823</v>
+      </c>
+      <c r="N57" t="s">
+        <v>825</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="P57" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>825</v>
+      </c>
+      <c r="R57" t="s">
+        <v>826</v>
+      </c>
+      <c r="S57">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s">
+        <v>825</v>
+      </c>
+      <c r="U57" t="s">
+        <v>850</v>
+      </c>
+      <c r="V57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
       <c r="A58" s="1" t="s">
         <v>174</v>
       </c>
@@ -6322,8 +7078,50 @@
       <c r="H58" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="I58" t="s">
+        <v>809</v>
+      </c>
+      <c r="J58" t="s">
+        <v>811</v>
+      </c>
+      <c r="K58" t="s">
+        <v>820</v>
+      </c>
+      <c r="L58" t="s">
+        <v>822</v>
+      </c>
+      <c r="M58" t="s">
+        <v>825</v>
+      </c>
+      <c r="N58" t="s">
+        <v>823</v>
+      </c>
+      <c r="O58">
+        <v>3</v>
+      </c>
+      <c r="P58" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>823</v>
+      </c>
+      <c r="R58" t="s">
+        <v>826</v>
+      </c>
+      <c r="S58">
+        <v>1</v>
+      </c>
+      <c r="T58" t="s">
+        <v>819</v>
+      </c>
+      <c r="U58" t="s">
+        <v>850</v>
+      </c>
+      <c r="V58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
       <c r="A59" s="1" t="s">
         <v>177</v>
       </c>
@@ -6348,8 +7146,50 @@
       <c r="H59" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="I59" t="s">
+        <v>809</v>
+      </c>
+      <c r="J59" t="s">
+        <v>811</v>
+      </c>
+      <c r="K59" t="s">
+        <v>819</v>
+      </c>
+      <c r="L59" t="s">
+        <v>819</v>
+      </c>
+      <c r="M59" t="s">
+        <v>824</v>
+      </c>
+      <c r="N59" t="s">
+        <v>824</v>
+      </c>
+      <c r="O59">
+        <v>3</v>
+      </c>
+      <c r="P59" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>824</v>
+      </c>
+      <c r="R59" t="s">
+        <v>826</v>
+      </c>
+      <c r="S59">
+        <v>2</v>
+      </c>
+      <c r="T59" t="s">
+        <v>819</v>
+      </c>
+      <c r="U59" t="s">
+        <v>850</v>
+      </c>
+      <c r="V59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
       <c r="A60" s="1" t="s">
         <v>180</v>
       </c>
@@ -6374,8 +7214,50 @@
       <c r="H60" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="I60" t="s">
+        <v>809</v>
+      </c>
+      <c r="J60" t="s">
+        <v>811</v>
+      </c>
+      <c r="K60" t="s">
+        <v>819</v>
+      </c>
+      <c r="L60" t="s">
+        <v>819</v>
+      </c>
+      <c r="M60" t="s">
+        <v>823</v>
+      </c>
+      <c r="N60" t="s">
+        <v>825</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+      <c r="P60" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>825</v>
+      </c>
+      <c r="R60" t="s">
+        <v>826</v>
+      </c>
+      <c r="S60">
+        <v>1</v>
+      </c>
+      <c r="T60" t="s">
+        <v>819</v>
+      </c>
+      <c r="U60" t="s">
+        <v>850</v>
+      </c>
+      <c r="V60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
       <c r="A61" s="1" t="s">
         <v>183</v>
       </c>
@@ -6400,8 +7282,50 @@
       <c r="H61" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="I61" t="s">
+        <v>809</v>
+      </c>
+      <c r="J61" t="s">
+        <v>811</v>
+      </c>
+      <c r="K61" t="s">
+        <v>820</v>
+      </c>
+      <c r="L61" t="s">
+        <v>822</v>
+      </c>
+      <c r="M61" t="s">
+        <v>823</v>
+      </c>
+      <c r="N61" t="s">
+        <v>825</v>
+      </c>
+      <c r="O61">
+        <v>4</v>
+      </c>
+      <c r="P61" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>823</v>
+      </c>
+      <c r="R61" t="s">
+        <v>826</v>
+      </c>
+      <c r="S61">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s">
+        <v>823</v>
+      </c>
+      <c r="U61" t="s">
+        <v>850</v>
+      </c>
+      <c r="V61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22">
       <c r="A62" s="1" t="s">
         <v>186</v>
       </c>
@@ -6426,8 +7350,50 @@
       <c r="H62" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="I62" t="s">
+        <v>809</v>
+      </c>
+      <c r="J62" t="s">
+        <v>810</v>
+      </c>
+      <c r="K62" t="s">
+        <v>820</v>
+      </c>
+      <c r="L62" t="s">
+        <v>821</v>
+      </c>
+      <c r="M62" t="s">
+        <v>825</v>
+      </c>
+      <c r="N62" t="s">
+        <v>824</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="P62" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>825</v>
+      </c>
+      <c r="R62" t="s">
+        <v>826</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62" t="s">
+        <v>823</v>
+      </c>
+      <c r="U62" t="s">
+        <v>850</v>
+      </c>
+      <c r="V62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
       <c r="A63" s="1" t="s">
         <v>189</v>
       </c>
@@ -6452,8 +7418,50 @@
       <c r="H63" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="I63" t="s">
+        <v>809</v>
+      </c>
+      <c r="J63" t="s">
+        <v>811</v>
+      </c>
+      <c r="K63" t="s">
+        <v>820</v>
+      </c>
+      <c r="L63" t="s">
+        <v>819</v>
+      </c>
+      <c r="M63" t="s">
+        <v>823</v>
+      </c>
+      <c r="N63" t="s">
+        <v>823</v>
+      </c>
+      <c r="O63">
+        <v>4</v>
+      </c>
+      <c r="P63" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>823</v>
+      </c>
+      <c r="R63" t="s">
+        <v>826</v>
+      </c>
+      <c r="S63">
+        <v>1</v>
+      </c>
+      <c r="T63" t="s">
+        <v>823</v>
+      </c>
+      <c r="U63" t="s">
+        <v>850</v>
+      </c>
+      <c r="V63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
       <c r="A64" s="1" t="s">
         <v>192</v>
       </c>
@@ -6478,8 +7486,50 @@
       <c r="H64" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="I64" t="s">
+        <v>809</v>
+      </c>
+      <c r="J64" t="s">
+        <v>815</v>
+      </c>
+      <c r="K64" t="s">
+        <v>820</v>
+      </c>
+      <c r="L64" t="s">
+        <v>819</v>
+      </c>
+      <c r="M64" t="s">
+        <v>824</v>
+      </c>
+      <c r="N64" t="s">
+        <v>824</v>
+      </c>
+      <c r="O64">
+        <v>4</v>
+      </c>
+      <c r="P64" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>824</v>
+      </c>
+      <c r="R64" t="s">
+        <v>826</v>
+      </c>
+      <c r="S64">
+        <v>1</v>
+      </c>
+      <c r="T64" t="s">
+        <v>823</v>
+      </c>
+      <c r="U64" t="s">
+        <v>850</v>
+      </c>
+      <c r="V64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
       <c r="A65" s="1" t="s">
         <v>195</v>
       </c>
@@ -6504,8 +7554,50 @@
       <c r="H65" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="I65" t="s">
+        <v>809</v>
+      </c>
+      <c r="J65" t="s">
+        <v>815</v>
+      </c>
+      <c r="K65" t="s">
+        <v>818</v>
+      </c>
+      <c r="L65" t="s">
+        <v>819</v>
+      </c>
+      <c r="M65" t="s">
+        <v>824</v>
+      </c>
+      <c r="N65" t="s">
+        <v>825</v>
+      </c>
+      <c r="O65">
+        <v>4</v>
+      </c>
+      <c r="P65" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>823</v>
+      </c>
+      <c r="R65" t="s">
+        <v>826</v>
+      </c>
+      <c r="S65">
+        <v>2</v>
+      </c>
+      <c r="T65" t="s">
+        <v>819</v>
+      </c>
+      <c r="U65" t="s">
+        <v>850</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
       <c r="A66" s="1" t="s">
         <v>198</v>
       </c>
@@ -6530,8 +7622,50 @@
       <c r="H66" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="I66" t="s">
+        <v>807</v>
+      </c>
+      <c r="J66" t="s">
+        <v>810</v>
+      </c>
+      <c r="K66" t="s">
+        <v>820</v>
+      </c>
+      <c r="L66" t="s">
+        <v>821</v>
+      </c>
+      <c r="M66" t="s">
+        <v>823</v>
+      </c>
+      <c r="N66" t="s">
+        <v>825</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="P66" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>825</v>
+      </c>
+      <c r="R66" t="s">
+        <v>826</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66" t="s">
+        <v>819</v>
+      </c>
+      <c r="U66" t="s">
+        <v>850</v>
+      </c>
+      <c r="V66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22">
       <c r="A67" s="1" t="s">
         <v>201</v>
       </c>
@@ -6556,8 +7690,50 @@
       <c r="H67" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="I67" t="s">
+        <v>807</v>
+      </c>
+      <c r="J67" t="s">
+        <v>810</v>
+      </c>
+      <c r="K67" t="s">
+        <v>820</v>
+      </c>
+      <c r="L67" t="s">
+        <v>821</v>
+      </c>
+      <c r="M67" t="s">
+        <v>824</v>
+      </c>
+      <c r="N67" t="s">
+        <v>825</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
+      <c r="P67" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>825</v>
+      </c>
+      <c r="R67" t="s">
+        <v>819</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67" t="s">
+        <v>823</v>
+      </c>
+      <c r="U67" t="s">
+        <v>850</v>
+      </c>
+      <c r="V67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22">
       <c r="A68" s="1" t="s">
         <v>204</v>
       </c>
@@ -6582,8 +7758,50 @@
       <c r="H68" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="I68" t="s">
+        <v>809</v>
+      </c>
+      <c r="J68" t="s">
+        <v>816</v>
+      </c>
+      <c r="K68" t="s">
+        <v>820</v>
+      </c>
+      <c r="L68" t="s">
+        <v>819</v>
+      </c>
+      <c r="M68" t="s">
+        <v>824</v>
+      </c>
+      <c r="N68" t="s">
+        <v>824</v>
+      </c>
+      <c r="O68">
+        <v>4</v>
+      </c>
+      <c r="P68" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>823</v>
+      </c>
+      <c r="R68" t="s">
+        <v>826</v>
+      </c>
+      <c r="S68">
+        <v>3</v>
+      </c>
+      <c r="T68" t="s">
+        <v>826</v>
+      </c>
+      <c r="U68" t="s">
+        <v>850</v>
+      </c>
+      <c r="V68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22">
       <c r="A69" s="1" t="s">
         <v>207</v>
       </c>
@@ -6608,8 +7826,50 @@
       <c r="H69" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="I69" t="s">
+        <v>809</v>
+      </c>
+      <c r="J69" t="s">
+        <v>811</v>
+      </c>
+      <c r="K69" t="s">
+        <v>820</v>
+      </c>
+      <c r="L69" t="s">
+        <v>822</v>
+      </c>
+      <c r="M69" t="s">
+        <v>825</v>
+      </c>
+      <c r="N69" t="s">
+        <v>824</v>
+      </c>
+      <c r="O69">
+        <v>4</v>
+      </c>
+      <c r="P69" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>823</v>
+      </c>
+      <c r="R69" t="s">
+        <v>826</v>
+      </c>
+      <c r="S69">
+        <v>3</v>
+      </c>
+      <c r="T69" t="s">
+        <v>826</v>
+      </c>
+      <c r="U69" t="s">
+        <v>850</v>
+      </c>
+      <c r="V69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22">
       <c r="A70" s="1" t="s">
         <v>210</v>
       </c>
@@ -6634,8 +7894,50 @@
       <c r="H70" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="I70" t="s">
+        <v>809</v>
+      </c>
+      <c r="J70" t="s">
+        <v>815</v>
+      </c>
+      <c r="K70" t="s">
+        <v>820</v>
+      </c>
+      <c r="L70" t="s">
+        <v>819</v>
+      </c>
+      <c r="M70" t="s">
+        <v>824</v>
+      </c>
+      <c r="N70" t="s">
+        <v>825</v>
+      </c>
+      <c r="O70">
+        <v>3</v>
+      </c>
+      <c r="P70" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>825</v>
+      </c>
+      <c r="R70" t="s">
+        <v>826</v>
+      </c>
+      <c r="S70">
+        <v>1</v>
+      </c>
+      <c r="T70" t="s">
+        <v>823</v>
+      </c>
+      <c r="U70" t="s">
+        <v>850</v>
+      </c>
+      <c r="V70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22">
       <c r="A71" s="1" t="s">
         <v>213</v>
       </c>
@@ -6660,8 +7962,50 @@
       <c r="H71" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="I71" t="s">
+        <v>809</v>
+      </c>
+      <c r="J71" t="s">
+        <v>811</v>
+      </c>
+      <c r="K71" t="s">
+        <v>819</v>
+      </c>
+      <c r="L71" t="s">
+        <v>819</v>
+      </c>
+      <c r="M71" t="s">
+        <v>824</v>
+      </c>
+      <c r="N71" t="s">
+        <v>825</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="P71" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>825</v>
+      </c>
+      <c r="R71" t="s">
+        <v>826</v>
+      </c>
+      <c r="S71">
+        <v>1</v>
+      </c>
+      <c r="T71" t="s">
+        <v>825</v>
+      </c>
+      <c r="U71" t="s">
+        <v>850</v>
+      </c>
+      <c r="V71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22">
       <c r="A72" s="1" t="s">
         <v>216</v>
       </c>
@@ -6686,8 +8030,50 @@
       <c r="H72" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="I72" t="s">
+        <v>809</v>
+      </c>
+      <c r="J72" t="s">
+        <v>816</v>
+      </c>
+      <c r="K72" t="s">
+        <v>819</v>
+      </c>
+      <c r="L72" t="s">
+        <v>819</v>
+      </c>
+      <c r="M72" t="s">
+        <v>823</v>
+      </c>
+      <c r="N72" t="s">
+        <v>825</v>
+      </c>
+      <c r="O72">
+        <v>2</v>
+      </c>
+      <c r="P72" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>823</v>
+      </c>
+      <c r="R72" t="s">
+        <v>826</v>
+      </c>
+      <c r="S72">
+        <v>1</v>
+      </c>
+      <c r="T72" t="s">
+        <v>826</v>
+      </c>
+      <c r="U72" t="s">
+        <v>850</v>
+      </c>
+      <c r="V72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22">
       <c r="A73" s="1" t="s">
         <v>219</v>
       </c>
@@ -6712,8 +8098,50 @@
       <c r="H73" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="I73" t="s">
+        <v>809</v>
+      </c>
+      <c r="J73" t="s">
+        <v>810</v>
+      </c>
+      <c r="K73" t="s">
+        <v>819</v>
+      </c>
+      <c r="L73" t="s">
+        <v>821</v>
+      </c>
+      <c r="M73" t="s">
+        <v>823</v>
+      </c>
+      <c r="N73" t="s">
+        <v>825</v>
+      </c>
+      <c r="O73">
+        <v>4</v>
+      </c>
+      <c r="P73" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>825</v>
+      </c>
+      <c r="R73" t="s">
+        <v>837</v>
+      </c>
+      <c r="S73">
+        <v>2</v>
+      </c>
+      <c r="T73" t="s">
+        <v>825</v>
+      </c>
+      <c r="U73" t="s">
+        <v>850</v>
+      </c>
+      <c r="V73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22">
       <c r="A74" s="1" t="s">
         <v>222</v>
       </c>
@@ -6738,8 +8166,50 @@
       <c r="H74" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="I74" t="s">
+        <v>809</v>
+      </c>
+      <c r="J74" t="s">
+        <v>810</v>
+      </c>
+      <c r="K74" t="s">
+        <v>819</v>
+      </c>
+      <c r="L74" t="s">
+        <v>822</v>
+      </c>
+      <c r="M74" t="s">
+        <v>824</v>
+      </c>
+      <c r="N74" t="s">
+        <v>824</v>
+      </c>
+      <c r="O74">
+        <v>4</v>
+      </c>
+      <c r="P74" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>824</v>
+      </c>
+      <c r="R74" t="s">
+        <v>826</v>
+      </c>
+      <c r="S74">
+        <v>1</v>
+      </c>
+      <c r="T74" t="s">
+        <v>825</v>
+      </c>
+      <c r="U74" t="s">
+        <v>850</v>
+      </c>
+      <c r="V74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22">
       <c r="A75" s="1" t="s">
         <v>225</v>
       </c>
@@ -6764,8 +8234,50 @@
       <c r="H75" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="I75" t="s">
+        <v>809</v>
+      </c>
+      <c r="J75" t="s">
+        <v>810</v>
+      </c>
+      <c r="K75" t="s">
+        <v>818</v>
+      </c>
+      <c r="L75" t="s">
+        <v>821</v>
+      </c>
+      <c r="M75" t="s">
+        <v>824</v>
+      </c>
+      <c r="N75" t="s">
+        <v>826</v>
+      </c>
+      <c r="O75">
+        <v>1</v>
+      </c>
+      <c r="P75" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>825</v>
+      </c>
+      <c r="R75" t="s">
+        <v>837</v>
+      </c>
+      <c r="S75">
+        <v>1</v>
+      </c>
+      <c r="T75" t="s">
+        <v>823</v>
+      </c>
+      <c r="U75" t="s">
+        <v>849</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22">
       <c r="A76" s="1" t="s">
         <v>228</v>
       </c>
@@ -6790,8 +8302,50 @@
       <c r="H76" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="1:8">
+      <c r="I76" t="s">
+        <v>809</v>
+      </c>
+      <c r="J76" t="s">
+        <v>811</v>
+      </c>
+      <c r="K76" t="s">
+        <v>820</v>
+      </c>
+      <c r="L76" t="s">
+        <v>819</v>
+      </c>
+      <c r="M76" t="s">
+        <v>825</v>
+      </c>
+      <c r="N76" t="s">
+        <v>825</v>
+      </c>
+      <c r="O76">
+        <v>1</v>
+      </c>
+      <c r="P76" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>825</v>
+      </c>
+      <c r="R76" t="s">
+        <v>826</v>
+      </c>
+      <c r="S76">
+        <v>1</v>
+      </c>
+      <c r="T76" t="s">
+        <v>819</v>
+      </c>
+      <c r="U76" t="s">
+        <v>850</v>
+      </c>
+      <c r="V76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22">
       <c r="A77" s="1" t="s">
         <v>231</v>
       </c>
@@ -6816,8 +8370,50 @@
       <c r="H77" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="I77" t="s">
+        <v>809</v>
+      </c>
+      <c r="J77" t="s">
+        <v>811</v>
+      </c>
+      <c r="K77" t="s">
+        <v>820</v>
+      </c>
+      <c r="L77" t="s">
+        <v>819</v>
+      </c>
+      <c r="M77" t="s">
+        <v>825</v>
+      </c>
+      <c r="N77" t="s">
+        <v>825</v>
+      </c>
+      <c r="O77">
+        <v>1</v>
+      </c>
+      <c r="P77" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>825</v>
+      </c>
+      <c r="R77" t="s">
+        <v>826</v>
+      </c>
+      <c r="S77">
+        <v>1</v>
+      </c>
+      <c r="T77" t="s">
+        <v>819</v>
+      </c>
+      <c r="U77" t="s">
+        <v>850</v>
+      </c>
+      <c r="V77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22">
       <c r="A78" s="1" t="s">
         <v>234</v>
       </c>
@@ -6842,8 +8438,50 @@
       <c r="H78" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="I78" t="s">
+        <v>808</v>
+      </c>
+      <c r="J78" t="s">
+        <v>810</v>
+      </c>
+      <c r="K78" t="s">
+        <v>819</v>
+      </c>
+      <c r="L78" t="s">
+        <v>821</v>
+      </c>
+      <c r="M78" t="s">
+        <v>824</v>
+      </c>
+      <c r="N78" t="s">
+        <v>825</v>
+      </c>
+      <c r="O78">
+        <v>1</v>
+      </c>
+      <c r="P78" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>824</v>
+      </c>
+      <c r="R78" t="s">
+        <v>819</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78" t="s">
+        <v>823</v>
+      </c>
+      <c r="U78" t="s">
+        <v>850</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22">
       <c r="A79" s="1" t="s">
         <v>237</v>
       </c>
@@ -6868,8 +8506,50 @@
       <c r="H79" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="I79" t="s">
+        <v>809</v>
+      </c>
+      <c r="J79" t="s">
+        <v>811</v>
+      </c>
+      <c r="K79" t="s">
+        <v>819</v>
+      </c>
+      <c r="L79" t="s">
+        <v>819</v>
+      </c>
+      <c r="M79" t="s">
+        <v>823</v>
+      </c>
+      <c r="N79" t="s">
+        <v>825</v>
+      </c>
+      <c r="O79">
+        <v>1</v>
+      </c>
+      <c r="P79" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>823</v>
+      </c>
+      <c r="R79" t="s">
+        <v>826</v>
+      </c>
+      <c r="S79">
+        <v>1</v>
+      </c>
+      <c r="T79" t="s">
+        <v>825</v>
+      </c>
+      <c r="U79" t="s">
+        <v>850</v>
+      </c>
+      <c r="V79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22">
       <c r="A80" s="1" t="s">
         <v>240</v>
       </c>
@@ -6894,8 +8574,50 @@
       <c r="H80" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="I80" t="s">
+        <v>807</v>
+      </c>
+      <c r="J80" t="s">
+        <v>811</v>
+      </c>
+      <c r="K80" t="s">
+        <v>819</v>
+      </c>
+      <c r="L80" t="s">
+        <v>821</v>
+      </c>
+      <c r="M80" t="s">
+        <v>824</v>
+      </c>
+      <c r="N80" t="s">
+        <v>824</v>
+      </c>
+      <c r="O80">
+        <v>1</v>
+      </c>
+      <c r="P80" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>825</v>
+      </c>
+      <c r="R80" t="s">
+        <v>826</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80" t="s">
+        <v>819</v>
+      </c>
+      <c r="U80" t="s">
+        <v>850</v>
+      </c>
+      <c r="V80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22">
       <c r="A81" s="1" t="s">
         <v>243</v>
       </c>
@@ -6920,8 +8642,50 @@
       <c r="H81" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="I81" t="s">
+        <v>809</v>
+      </c>
+      <c r="J81" t="s">
+        <v>811</v>
+      </c>
+      <c r="K81" t="s">
+        <v>820</v>
+      </c>
+      <c r="L81" t="s">
+        <v>821</v>
+      </c>
+      <c r="M81" t="s">
+        <v>824</v>
+      </c>
+      <c r="N81" t="s">
+        <v>824</v>
+      </c>
+      <c r="O81">
+        <v>1</v>
+      </c>
+      <c r="P81" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>824</v>
+      </c>
+      <c r="R81" t="s">
+        <v>826</v>
+      </c>
+      <c r="S81">
+        <v>1</v>
+      </c>
+      <c r="T81" t="s">
+        <v>823</v>
+      </c>
+      <c r="U81" t="s">
+        <v>850</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22">
       <c r="A82" s="1" t="s">
         <v>246</v>
       </c>
@@ -6946,8 +8710,50 @@
       <c r="H82" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="83" spans="1:8">
+      <c r="I82" t="s">
+        <v>809</v>
+      </c>
+      <c r="J82" t="s">
+        <v>815</v>
+      </c>
+      <c r="K82" t="s">
+        <v>820</v>
+      </c>
+      <c r="L82" t="s">
+        <v>822</v>
+      </c>
+      <c r="M82" t="s">
+        <v>824</v>
+      </c>
+      <c r="N82" t="s">
+        <v>825</v>
+      </c>
+      <c r="O82">
+        <v>2</v>
+      </c>
+      <c r="P82" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>825</v>
+      </c>
+      <c r="R82" t="s">
+        <v>826</v>
+      </c>
+      <c r="S82">
+        <v>1</v>
+      </c>
+      <c r="T82" t="s">
+        <v>823</v>
+      </c>
+      <c r="U82" t="s">
+        <v>849</v>
+      </c>
+      <c r="V82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22">
       <c r="A83" s="1" t="s">
         <v>249</v>
       </c>
@@ -6972,8 +8778,50 @@
       <c r="H83" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="1:8">
+      <c r="I83" t="s">
+        <v>809</v>
+      </c>
+      <c r="J83" t="s">
+        <v>815</v>
+      </c>
+      <c r="K83" t="s">
+        <v>820</v>
+      </c>
+      <c r="L83" t="s">
+        <v>821</v>
+      </c>
+      <c r="M83" t="s">
+        <v>823</v>
+      </c>
+      <c r="N83" t="s">
+        <v>825</v>
+      </c>
+      <c r="O83">
+        <v>3</v>
+      </c>
+      <c r="P83" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>825</v>
+      </c>
+      <c r="R83" t="s">
+        <v>826</v>
+      </c>
+      <c r="S83">
+        <v>1</v>
+      </c>
+      <c r="T83" t="s">
+        <v>819</v>
+      </c>
+      <c r="U83" t="s">
+        <v>849</v>
+      </c>
+      <c r="V83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22">
       <c r="A84" s="1" t="s">
         <v>252</v>
       </c>
@@ -6998,8 +8846,50 @@
       <c r="H84" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="85" spans="1:8">
+      <c r="I84" t="s">
+        <v>809</v>
+      </c>
+      <c r="J84" t="s">
+        <v>811</v>
+      </c>
+      <c r="K84" t="s">
+        <v>820</v>
+      </c>
+      <c r="L84" t="s">
+        <v>819</v>
+      </c>
+      <c r="M84" t="s">
+        <v>824</v>
+      </c>
+      <c r="N84" t="s">
+        <v>823</v>
+      </c>
+      <c r="O84">
+        <v>1</v>
+      </c>
+      <c r="P84" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>824</v>
+      </c>
+      <c r="R84" t="s">
+        <v>826</v>
+      </c>
+      <c r="S84">
+        <v>1</v>
+      </c>
+      <c r="T84" t="s">
+        <v>825</v>
+      </c>
+      <c r="U84" t="s">
+        <v>850</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22">
       <c r="A85" s="1" t="s">
         <v>255</v>
       </c>
@@ -7024,8 +8914,50 @@
       <c r="H85" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="I85" t="s">
+        <v>809</v>
+      </c>
+      <c r="J85" t="s">
+        <v>811</v>
+      </c>
+      <c r="K85" t="s">
+        <v>820</v>
+      </c>
+      <c r="L85" t="s">
+        <v>821</v>
+      </c>
+      <c r="M85" t="s">
+        <v>824</v>
+      </c>
+      <c r="N85" t="s">
+        <v>825</v>
+      </c>
+      <c r="O85">
+        <v>1</v>
+      </c>
+      <c r="P85" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>825</v>
+      </c>
+      <c r="R85" t="s">
+        <v>826</v>
+      </c>
+      <c r="S85">
+        <v>1</v>
+      </c>
+      <c r="T85" t="s">
+        <v>825</v>
+      </c>
+      <c r="U85" t="s">
+        <v>850</v>
+      </c>
+      <c r="V85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22">
       <c r="A86" s="1" t="s">
         <v>258</v>
       </c>
@@ -7050,8 +8982,50 @@
       <c r="H86" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="I86" t="s">
+        <v>809</v>
+      </c>
+      <c r="J86" t="s">
+        <v>811</v>
+      </c>
+      <c r="K86" t="s">
+        <v>820</v>
+      </c>
+      <c r="L86" t="s">
+        <v>821</v>
+      </c>
+      <c r="M86" t="s">
+        <v>824</v>
+      </c>
+      <c r="N86" t="s">
+        <v>825</v>
+      </c>
+      <c r="O86">
+        <v>1</v>
+      </c>
+      <c r="P86" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>824</v>
+      </c>
+      <c r="R86" t="s">
+        <v>826</v>
+      </c>
+      <c r="S86">
+        <v>1</v>
+      </c>
+      <c r="T86" t="s">
+        <v>819</v>
+      </c>
+      <c r="U86" t="s">
+        <v>850</v>
+      </c>
+      <c r="V86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22">
       <c r="A87" s="1" t="s">
         <v>261</v>
       </c>
@@ -7076,8 +9050,50 @@
       <c r="H87" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="I87" t="s">
+        <v>809</v>
+      </c>
+      <c r="J87" t="s">
+        <v>811</v>
+      </c>
+      <c r="K87" t="s">
+        <v>820</v>
+      </c>
+      <c r="L87" t="s">
+        <v>821</v>
+      </c>
+      <c r="M87" t="s">
+        <v>823</v>
+      </c>
+      <c r="N87" t="s">
+        <v>825</v>
+      </c>
+      <c r="O87">
+        <v>1</v>
+      </c>
+      <c r="P87" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>825</v>
+      </c>
+      <c r="R87" t="s">
+        <v>826</v>
+      </c>
+      <c r="S87">
+        <v>1</v>
+      </c>
+      <c r="T87" t="s">
+        <v>825</v>
+      </c>
+      <c r="U87" t="s">
+        <v>850</v>
+      </c>
+      <c r="V87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22">
       <c r="A88" s="1" t="s">
         <v>264</v>
       </c>
@@ -7102,8 +9118,50 @@
       <c r="H88" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="I88" t="s">
+        <v>809</v>
+      </c>
+      <c r="J88" t="s">
+        <v>811</v>
+      </c>
+      <c r="K88" t="s">
+        <v>820</v>
+      </c>
+      <c r="L88" t="s">
+        <v>822</v>
+      </c>
+      <c r="M88" t="s">
+        <v>825</v>
+      </c>
+      <c r="N88" t="s">
+        <v>825</v>
+      </c>
+      <c r="O88">
+        <v>2</v>
+      </c>
+      <c r="P88" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>823</v>
+      </c>
+      <c r="R88" t="s">
+        <v>826</v>
+      </c>
+      <c r="S88">
+        <v>0</v>
+      </c>
+      <c r="T88" t="s">
+        <v>823</v>
+      </c>
+      <c r="U88" t="s">
+        <v>850</v>
+      </c>
+      <c r="V88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22">
       <c r="A89" s="1" t="s">
         <v>267</v>
       </c>
@@ -7128,8 +9186,50 @@
       <c r="H89" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="90" spans="1:8">
+      <c r="I89" t="s">
+        <v>808</v>
+      </c>
+      <c r="J89" t="s">
+        <v>810</v>
+      </c>
+      <c r="K89" t="s">
+        <v>820</v>
+      </c>
+      <c r="L89" t="s">
+        <v>821</v>
+      </c>
+      <c r="M89" t="s">
+        <v>824</v>
+      </c>
+      <c r="N89" t="s">
+        <v>825</v>
+      </c>
+      <c r="O89">
+        <v>1</v>
+      </c>
+      <c r="P89" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>825</v>
+      </c>
+      <c r="R89" t="s">
+        <v>826</v>
+      </c>
+      <c r="S89">
+        <v>1</v>
+      </c>
+      <c r="T89" t="s">
+        <v>825</v>
+      </c>
+      <c r="U89" t="s">
+        <v>850</v>
+      </c>
+      <c r="V89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22">
       <c r="A90" s="1" t="s">
         <v>270</v>
       </c>
@@ -7154,8 +9254,50 @@
       <c r="H90" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="I90" t="s">
+        <v>808</v>
+      </c>
+      <c r="J90" t="s">
+        <v>810</v>
+      </c>
+      <c r="K90" t="s">
+        <v>820</v>
+      </c>
+      <c r="L90" t="s">
+        <v>821</v>
+      </c>
+      <c r="M90" t="s">
+        <v>824</v>
+      </c>
+      <c r="N90" t="s">
+        <v>825</v>
+      </c>
+      <c r="O90">
+        <v>1</v>
+      </c>
+      <c r="P90" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>825</v>
+      </c>
+      <c r="R90" t="s">
+        <v>826</v>
+      </c>
+      <c r="S90">
+        <v>1</v>
+      </c>
+      <c r="T90" t="s">
+        <v>825</v>
+      </c>
+      <c r="U90" t="s">
+        <v>850</v>
+      </c>
+      <c r="V90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22">
       <c r="A91" s="1" t="s">
         <v>273</v>
       </c>
@@ -7180,8 +9322,50 @@
       <c r="H91" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="92" spans="1:8">
+      <c r="I91" t="s">
+        <v>809</v>
+      </c>
+      <c r="J91" t="s">
+        <v>816</v>
+      </c>
+      <c r="K91" t="s">
+        <v>820</v>
+      </c>
+      <c r="L91" t="s">
+        <v>822</v>
+      </c>
+      <c r="M91" t="s">
+        <v>824</v>
+      </c>
+      <c r="N91" t="s">
+        <v>825</v>
+      </c>
+      <c r="O91">
+        <v>3</v>
+      </c>
+      <c r="P91" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>825</v>
+      </c>
+      <c r="R91" t="s">
+        <v>826</v>
+      </c>
+      <c r="S91">
+        <v>1</v>
+      </c>
+      <c r="T91" t="s">
+        <v>823</v>
+      </c>
+      <c r="U91" t="s">
+        <v>850</v>
+      </c>
+      <c r="V91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22">
       <c r="A92" s="1" t="s">
         <v>276</v>
       </c>
@@ -7206,8 +9390,50 @@
       <c r="H92" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="93" spans="1:8">
+      <c r="I92" t="s">
+        <v>809</v>
+      </c>
+      <c r="J92" t="s">
+        <v>816</v>
+      </c>
+      <c r="K92" t="s">
+        <v>820</v>
+      </c>
+      <c r="L92" t="s">
+        <v>822</v>
+      </c>
+      <c r="M92" t="s">
+        <v>824</v>
+      </c>
+      <c r="N92" t="s">
+        <v>824</v>
+      </c>
+      <c r="O92">
+        <v>3</v>
+      </c>
+      <c r="P92" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>825</v>
+      </c>
+      <c r="R92" t="s">
+        <v>826</v>
+      </c>
+      <c r="S92">
+        <v>1</v>
+      </c>
+      <c r="T92" t="s">
+        <v>823</v>
+      </c>
+      <c r="U92" t="s">
+        <v>850</v>
+      </c>
+      <c r="V92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22">
       <c r="A93" s="1" t="s">
         <v>279</v>
       </c>
@@ -7232,8 +9458,50 @@
       <c r="H93" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="94" spans="1:8">
+      <c r="I93" t="s">
+        <v>809</v>
+      </c>
+      <c r="J93" t="s">
+        <v>816</v>
+      </c>
+      <c r="K93" t="s">
+        <v>820</v>
+      </c>
+      <c r="L93" t="s">
+        <v>822</v>
+      </c>
+      <c r="M93" t="s">
+        <v>824</v>
+      </c>
+      <c r="N93" t="s">
+        <v>824</v>
+      </c>
+      <c r="O93">
+        <v>3</v>
+      </c>
+      <c r="P93" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>825</v>
+      </c>
+      <c r="R93" t="s">
+        <v>826</v>
+      </c>
+      <c r="S93">
+        <v>1</v>
+      </c>
+      <c r="T93" t="s">
+        <v>823</v>
+      </c>
+      <c r="U93" t="s">
+        <v>850</v>
+      </c>
+      <c r="V93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22">
       <c r="A94" s="1" t="s">
         <v>282</v>
       </c>
@@ -7258,8 +9526,50 @@
       <c r="H94" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="1:8">
+      <c r="I94" t="s">
+        <v>809</v>
+      </c>
+      <c r="J94" t="s">
+        <v>815</v>
+      </c>
+      <c r="K94" t="s">
+        <v>820</v>
+      </c>
+      <c r="L94" t="s">
+        <v>819</v>
+      </c>
+      <c r="M94" t="s">
+        <v>824</v>
+      </c>
+      <c r="N94" t="s">
+        <v>826</v>
+      </c>
+      <c r="O94">
+        <v>2</v>
+      </c>
+      <c r="P94" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>823</v>
+      </c>
+      <c r="R94" t="s">
+        <v>826</v>
+      </c>
+      <c r="S94">
+        <v>1</v>
+      </c>
+      <c r="T94" t="s">
+        <v>823</v>
+      </c>
+      <c r="U94" t="s">
+        <v>850</v>
+      </c>
+      <c r="V94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22">
       <c r="A95" s="1" t="s">
         <v>285</v>
       </c>
@@ -7284,8 +9594,50 @@
       <c r="H95" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="96" spans="1:8">
+      <c r="I95" t="s">
+        <v>807</v>
+      </c>
+      <c r="J95" t="s">
+        <v>810</v>
+      </c>
+      <c r="K95" t="s">
+        <v>820</v>
+      </c>
+      <c r="L95" t="s">
+        <v>821</v>
+      </c>
+      <c r="M95" t="s">
+        <v>824</v>
+      </c>
+      <c r="N95" t="s">
+        <v>826</v>
+      </c>
+      <c r="O95">
+        <v>1</v>
+      </c>
+      <c r="P95" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>823</v>
+      </c>
+      <c r="R95" t="s">
+        <v>838</v>
+      </c>
+      <c r="S95">
+        <v>1</v>
+      </c>
+      <c r="T95" t="s">
+        <v>819</v>
+      </c>
+      <c r="U95" t="s">
+        <v>850</v>
+      </c>
+      <c r="V95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22">
       <c r="A96" s="1" t="s">
         <v>288</v>
       </c>
@@ -7310,8 +9662,50 @@
       <c r="H96" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="I96" t="s">
+        <v>809</v>
+      </c>
+      <c r="J96" t="s">
+        <v>815</v>
+      </c>
+      <c r="K96" t="s">
+        <v>820</v>
+      </c>
+      <c r="L96" t="s">
+        <v>819</v>
+      </c>
+      <c r="M96" t="s">
+        <v>824</v>
+      </c>
+      <c r="N96" t="s">
+        <v>823</v>
+      </c>
+      <c r="O96">
+        <v>2</v>
+      </c>
+      <c r="P96" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>824</v>
+      </c>
+      <c r="R96" t="s">
+        <v>826</v>
+      </c>
+      <c r="S96">
+        <v>0</v>
+      </c>
+      <c r="T96" t="s">
+        <v>819</v>
+      </c>
+      <c r="U96" t="s">
+        <v>850</v>
+      </c>
+      <c r="V96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22">
       <c r="A97" s="1" t="s">
         <v>291</v>
       </c>
@@ -7336,8 +9730,50 @@
       <c r="H97" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="98" spans="1:8">
+      <c r="I97" t="s">
+        <v>809</v>
+      </c>
+      <c r="J97" t="s">
+        <v>816</v>
+      </c>
+      <c r="K97" t="s">
+        <v>820</v>
+      </c>
+      <c r="L97" t="s">
+        <v>822</v>
+      </c>
+      <c r="M97" t="s">
+        <v>823</v>
+      </c>
+      <c r="N97" t="s">
+        <v>823</v>
+      </c>
+      <c r="O97">
+        <v>2</v>
+      </c>
+      <c r="P97" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>823</v>
+      </c>
+      <c r="R97" t="s">
+        <v>819</v>
+      </c>
+      <c r="S97">
+        <v>2</v>
+      </c>
+      <c r="T97" t="s">
+        <v>825</v>
+      </c>
+      <c r="U97" t="s">
+        <v>850</v>
+      </c>
+      <c r="V97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22">
       <c r="A98" s="1" t="s">
         <v>294</v>
       </c>
@@ -7362,8 +9798,50 @@
       <c r="H98" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="99" spans="1:8">
+      <c r="I98" t="s">
+        <v>809</v>
+      </c>
+      <c r="J98" t="s">
+        <v>816</v>
+      </c>
+      <c r="K98" t="s">
+        <v>820</v>
+      </c>
+      <c r="L98" t="s">
+        <v>819</v>
+      </c>
+      <c r="M98" t="s">
+        <v>824</v>
+      </c>
+      <c r="N98" t="s">
+        <v>823</v>
+      </c>
+      <c r="O98">
+        <v>2</v>
+      </c>
+      <c r="P98" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>825</v>
+      </c>
+      <c r="R98" t="s">
+        <v>837</v>
+      </c>
+      <c r="S98">
+        <v>2</v>
+      </c>
+      <c r="T98" t="s">
+        <v>826</v>
+      </c>
+      <c r="U98" t="s">
+        <v>850</v>
+      </c>
+      <c r="V98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22">
       <c r="A99" s="1" t="s">
         <v>297</v>
       </c>
@@ -7388,8 +9866,50 @@
       <c r="H99" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="100" spans="1:8">
+      <c r="I99" t="s">
+        <v>809</v>
+      </c>
+      <c r="J99" t="s">
+        <v>817</v>
+      </c>
+      <c r="K99" t="s">
+        <v>819</v>
+      </c>
+      <c r="L99" t="s">
+        <v>822</v>
+      </c>
+      <c r="M99" t="s">
+        <v>824</v>
+      </c>
+      <c r="N99" t="s">
+        <v>826</v>
+      </c>
+      <c r="O99">
+        <v>2</v>
+      </c>
+      <c r="P99" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>823</v>
+      </c>
+      <c r="R99" t="s">
+        <v>826</v>
+      </c>
+      <c r="S99">
+        <v>1</v>
+      </c>
+      <c r="T99" t="s">
+        <v>823</v>
+      </c>
+      <c r="U99" t="s">
+        <v>850</v>
+      </c>
+      <c r="V99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22">
       <c r="A100" s="1" t="s">
         <v>300</v>
       </c>
@@ -7414,8 +9934,50 @@
       <c r="H100" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100" t="s">
+        <v>809</v>
+      </c>
+      <c r="J100" t="s">
+        <v>811</v>
+      </c>
+      <c r="K100" t="s">
+        <v>819</v>
+      </c>
+      <c r="L100" t="s">
+        <v>819</v>
+      </c>
+      <c r="M100" t="s">
+        <v>825</v>
+      </c>
+      <c r="N100" t="s">
+        <v>826</v>
+      </c>
+      <c r="O100">
+        <v>1</v>
+      </c>
+      <c r="P100" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>823</v>
+      </c>
+      <c r="R100" t="s">
+        <v>826</v>
+      </c>
+      <c r="S100">
+        <v>0</v>
+      </c>
+      <c r="T100" t="s">
+        <v>819</v>
+      </c>
+      <c r="U100" t="s">
+        <v>850</v>
+      </c>
+      <c r="V100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22">
       <c r="A101" s="1" t="s">
         <v>303</v>
       </c>
@@ -7441,7 +10003,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:22">
       <c r="A102" s="1" t="s">
         <v>306</v>
       </c>
@@ -7467,7 +10029,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:22">
       <c r="A103" s="1" t="s">
         <v>309</v>
       </c>
@@ -7493,7 +10055,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:22">
       <c r="A104" s="1" t="s">
         <v>312</v>
       </c>
@@ -7519,7 +10081,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:22">
       <c r="A105" s="1" t="s">
         <v>315</v>
       </c>
@@ -7545,7 +10107,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:22">
       <c r="A106" s="1" t="s">
         <v>318</v>
       </c>
@@ -7571,7 +10133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:22">
       <c r="A107" s="1" t="s">
         <v>321</v>
       </c>
@@ -7597,7 +10159,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:22">
       <c r="A108" s="1" t="s">
         <v>324</v>
       </c>
@@ -7623,7 +10185,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:22">
       <c r="A109" s="1" t="s">
         <v>327</v>
       </c>
@@ -7649,7 +10211,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:22">
       <c r="A110" s="1" t="s">
         <v>330</v>
       </c>
@@ -7675,7 +10237,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:22">
       <c r="A111" s="1" t="s">
         <v>333</v>
       </c>
@@ -7701,7 +10263,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:22">
       <c r="A112" s="1" t="s">
         <v>336</v>
       </c>

--- a/src/Input/plant.xlsx
+++ b/src/Input/plant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\2023HiMCM\src\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BFF1D33-F49C-4356-9678-3272172EBC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949D9F73-A066-431E-AB71-52C31BC08B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3336" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4722" uniqueCount="854">
   <si>
     <t>scientificName</t>
   </si>
@@ -2742,7 +2742,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2776,6 +2776,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3148,8 +3151,8 @@
   <dimension ref="A1:V227"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I100" sqref="I100"/>
+      <pane ySplit="1" topLeftCell="A201" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H241" sqref="H241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3174,7 +3177,7 @@
     <col min="19" max="19" width="13.125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="17.375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.125" customWidth="1"/>
-    <col min="22" max="22" width="16.5" customWidth="1"/>
+    <col min="22" max="22" width="23.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="14.25">
@@ -10002,6 +10005,48 @@
       <c r="H101" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="I101" t="s">
+        <v>809</v>
+      </c>
+      <c r="J101" t="s">
+        <v>810</v>
+      </c>
+      <c r="K101" t="s">
+        <v>820</v>
+      </c>
+      <c r="L101" t="s">
+        <v>821</v>
+      </c>
+      <c r="M101" t="s">
+        <v>824</v>
+      </c>
+      <c r="N101" t="s">
+        <v>824</v>
+      </c>
+      <c r="O101">
+        <v>2</v>
+      </c>
+      <c r="P101" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>824</v>
+      </c>
+      <c r="R101" t="s">
+        <v>826</v>
+      </c>
+      <c r="S101">
+        <v>1</v>
+      </c>
+      <c r="T101" t="s">
+        <v>823</v>
+      </c>
+      <c r="U101" t="s">
+        <v>850</v>
+      </c>
+      <c r="V101">
+        <v>0</v>
+      </c>
     </row>
     <row r="102" spans="1:22">
       <c r="A102" s="1" t="s">
@@ -10028,6 +10073,48 @@
       <c r="H102" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="I102" t="s">
+        <v>809</v>
+      </c>
+      <c r="J102" t="s">
+        <v>811</v>
+      </c>
+      <c r="K102" t="s">
+        <v>819</v>
+      </c>
+      <c r="L102" t="s">
+        <v>821</v>
+      </c>
+      <c r="M102" t="s">
+        <v>823</v>
+      </c>
+      <c r="N102" t="s">
+        <v>824</v>
+      </c>
+      <c r="O102">
+        <v>1</v>
+      </c>
+      <c r="P102" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>824</v>
+      </c>
+      <c r="R102" t="s">
+        <v>826</v>
+      </c>
+      <c r="S102">
+        <v>0</v>
+      </c>
+      <c r="T102" t="s">
+        <v>823</v>
+      </c>
+      <c r="U102" t="s">
+        <v>850</v>
+      </c>
+      <c r="V102">
+        <v>1</v>
+      </c>
     </row>
     <row r="103" spans="1:22">
       <c r="A103" s="1" t="s">
@@ -10054,6 +10141,48 @@
       <c r="H103" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="I103" t="s">
+        <v>807</v>
+      </c>
+      <c r="J103" t="s">
+        <v>811</v>
+      </c>
+      <c r="K103" t="s">
+        <v>820</v>
+      </c>
+      <c r="L103" t="s">
+        <v>821</v>
+      </c>
+      <c r="M103" t="s">
+        <v>824</v>
+      </c>
+      <c r="N103" t="s">
+        <v>825</v>
+      </c>
+      <c r="O103">
+        <v>1</v>
+      </c>
+      <c r="P103" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>825</v>
+      </c>
+      <c r="R103" t="s">
+        <v>826</v>
+      </c>
+      <c r="S103">
+        <v>1</v>
+      </c>
+      <c r="T103" t="s">
+        <v>825</v>
+      </c>
+      <c r="U103" t="s">
+        <v>849</v>
+      </c>
+      <c r="V103">
+        <v>1</v>
+      </c>
     </row>
     <row r="104" spans="1:22">
       <c r="A104" s="1" t="s">
@@ -10080,6 +10209,48 @@
       <c r="H104" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="I104" t="s">
+        <v>809</v>
+      </c>
+      <c r="J104" t="s">
+        <v>816</v>
+      </c>
+      <c r="K104" t="s">
+        <v>820</v>
+      </c>
+      <c r="L104" t="s">
+        <v>819</v>
+      </c>
+      <c r="M104" t="s">
+        <v>824</v>
+      </c>
+      <c r="N104" t="s">
+        <v>825</v>
+      </c>
+      <c r="O104">
+        <v>3</v>
+      </c>
+      <c r="P104" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>825</v>
+      </c>
+      <c r="R104" t="s">
+        <v>826</v>
+      </c>
+      <c r="S104">
+        <v>3</v>
+      </c>
+      <c r="T104" t="s">
+        <v>823</v>
+      </c>
+      <c r="U104" t="s">
+        <v>849</v>
+      </c>
+      <c r="V104">
+        <v>1</v>
+      </c>
     </row>
     <row r="105" spans="1:22">
       <c r="A105" s="1" t="s">
@@ -10106,6 +10277,48 @@
       <c r="H105" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="I105" t="s">
+        <v>809</v>
+      </c>
+      <c r="J105" t="s">
+        <v>816</v>
+      </c>
+      <c r="K105" t="s">
+        <v>818</v>
+      </c>
+      <c r="L105" t="s">
+        <v>819</v>
+      </c>
+      <c r="M105" t="s">
+        <v>823</v>
+      </c>
+      <c r="N105" t="s">
+        <v>825</v>
+      </c>
+      <c r="O105">
+        <v>3</v>
+      </c>
+      <c r="P105" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>825</v>
+      </c>
+      <c r="R105" t="s">
+        <v>826</v>
+      </c>
+      <c r="S105">
+        <v>2</v>
+      </c>
+      <c r="T105" t="s">
+        <v>826</v>
+      </c>
+      <c r="U105" t="s">
+        <v>850</v>
+      </c>
+      <c r="V105">
+        <v>1</v>
+      </c>
     </row>
     <row r="106" spans="1:22">
       <c r="A106" s="1" t="s">
@@ -10132,6 +10345,48 @@
       <c r="H106" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="I106" t="s">
+        <v>807</v>
+      </c>
+      <c r="J106" t="s">
+        <v>810</v>
+      </c>
+      <c r="K106" t="s">
+        <v>820</v>
+      </c>
+      <c r="L106" t="s">
+        <v>821</v>
+      </c>
+      <c r="M106" t="s">
+        <v>823</v>
+      </c>
+      <c r="N106" t="s">
+        <v>825</v>
+      </c>
+      <c r="O106">
+        <v>1</v>
+      </c>
+      <c r="P106" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>825</v>
+      </c>
+      <c r="R106" t="s">
+        <v>826</v>
+      </c>
+      <c r="S106">
+        <v>1</v>
+      </c>
+      <c r="T106" t="s">
+        <v>825</v>
+      </c>
+      <c r="U106" t="s">
+        <v>850</v>
+      </c>
+      <c r="V106">
+        <v>1</v>
+      </c>
     </row>
     <row r="107" spans="1:22">
       <c r="A107" s="1" t="s">
@@ -10158,6 +10413,48 @@
       <c r="H107" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="I107" t="s">
+        <v>809</v>
+      </c>
+      <c r="J107" t="s">
+        <v>810</v>
+      </c>
+      <c r="K107" t="s">
+        <v>820</v>
+      </c>
+      <c r="L107" t="s">
+        <v>821</v>
+      </c>
+      <c r="M107" t="s">
+        <v>824</v>
+      </c>
+      <c r="N107" t="s">
+        <v>824</v>
+      </c>
+      <c r="O107">
+        <v>2</v>
+      </c>
+      <c r="P107" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>824</v>
+      </c>
+      <c r="R107" t="s">
+        <v>826</v>
+      </c>
+      <c r="S107">
+        <v>2</v>
+      </c>
+      <c r="T107" t="s">
+        <v>825</v>
+      </c>
+      <c r="U107" t="s">
+        <v>849</v>
+      </c>
+      <c r="V107">
+        <v>1</v>
+      </c>
     </row>
     <row r="108" spans="1:22">
       <c r="A108" s="1" t="s">
@@ -10184,6 +10481,48 @@
       <c r="H108" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="I108" t="s">
+        <v>809</v>
+      </c>
+      <c r="J108" t="s">
+        <v>810</v>
+      </c>
+      <c r="K108" t="s">
+        <v>819</v>
+      </c>
+      <c r="L108" t="s">
+        <v>819</v>
+      </c>
+      <c r="M108" t="s">
+        <v>823</v>
+      </c>
+      <c r="N108" t="s">
+        <v>823</v>
+      </c>
+      <c r="O108">
+        <v>3</v>
+      </c>
+      <c r="P108" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>823</v>
+      </c>
+      <c r="R108" t="s">
+        <v>826</v>
+      </c>
+      <c r="S108">
+        <v>1</v>
+      </c>
+      <c r="T108" t="s">
+        <v>823</v>
+      </c>
+      <c r="U108" t="s">
+        <v>850</v>
+      </c>
+      <c r="V108">
+        <v>1</v>
+      </c>
     </row>
     <row r="109" spans="1:22">
       <c r="A109" s="1" t="s">
@@ -10210,6 +10549,48 @@
       <c r="H109" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="I109" t="s">
+        <v>809</v>
+      </c>
+      <c r="J109" t="s">
+        <v>816</v>
+      </c>
+      <c r="K109" t="s">
+        <v>819</v>
+      </c>
+      <c r="L109" t="s">
+        <v>822</v>
+      </c>
+      <c r="M109" t="s">
+        <v>823</v>
+      </c>
+      <c r="N109" t="s">
+        <v>823</v>
+      </c>
+      <c r="O109">
+        <v>3</v>
+      </c>
+      <c r="P109" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>824</v>
+      </c>
+      <c r="R109" t="s">
+        <v>826</v>
+      </c>
+      <c r="S109">
+        <v>3</v>
+      </c>
+      <c r="T109" t="s">
+        <v>823</v>
+      </c>
+      <c r="U109" t="s">
+        <v>850</v>
+      </c>
+      <c r="V109">
+        <v>1</v>
+      </c>
     </row>
     <row r="110" spans="1:22">
       <c r="A110" s="1" t="s">
@@ -10236,6 +10617,48 @@
       <c r="H110" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="I110" t="s">
+        <v>809</v>
+      </c>
+      <c r="J110" t="s">
+        <v>810</v>
+      </c>
+      <c r="K110" t="s">
+        <v>819</v>
+      </c>
+      <c r="L110" t="s">
+        <v>822</v>
+      </c>
+      <c r="M110" t="s">
+        <v>824</v>
+      </c>
+      <c r="N110" t="s">
+        <v>823</v>
+      </c>
+      <c r="O110">
+        <v>1</v>
+      </c>
+      <c r="P110" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>823</v>
+      </c>
+      <c r="R110" t="s">
+        <v>826</v>
+      </c>
+      <c r="S110">
+        <v>0</v>
+      </c>
+      <c r="T110" t="s">
+        <v>823</v>
+      </c>
+      <c r="U110" t="s">
+        <v>850</v>
+      </c>
+      <c r="V110">
+        <v>1</v>
+      </c>
     </row>
     <row r="111" spans="1:22">
       <c r="A111" s="1" t="s">
@@ -10262,6 +10685,48 @@
       <c r="H111" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="I111" t="s">
+        <v>809</v>
+      </c>
+      <c r="J111" t="s">
+        <v>810</v>
+      </c>
+      <c r="K111" t="s">
+        <v>820</v>
+      </c>
+      <c r="L111" t="s">
+        <v>821</v>
+      </c>
+      <c r="M111" t="s">
+        <v>824</v>
+      </c>
+      <c r="N111" t="s">
+        <v>825</v>
+      </c>
+      <c r="O111">
+        <v>2</v>
+      </c>
+      <c r="P111" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>825</v>
+      </c>
+      <c r="R111" t="s">
+        <v>826</v>
+      </c>
+      <c r="S111">
+        <v>0</v>
+      </c>
+      <c r="T111" t="s">
+        <v>819</v>
+      </c>
+      <c r="U111" t="s">
+        <v>850</v>
+      </c>
+      <c r="V111">
+        <v>1</v>
+      </c>
     </row>
     <row r="112" spans="1:22">
       <c r="A112" s="1" t="s">
@@ -10288,8 +10753,50 @@
       <c r="H112" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="113" spans="1:8">
+      <c r="I112" t="s">
+        <v>809</v>
+      </c>
+      <c r="J112" t="s">
+        <v>815</v>
+      </c>
+      <c r="K112" t="s">
+        <v>820</v>
+      </c>
+      <c r="L112" t="s">
+        <v>819</v>
+      </c>
+      <c r="M112" t="s">
+        <v>824</v>
+      </c>
+      <c r="N112" t="s">
+        <v>824</v>
+      </c>
+      <c r="O112">
+        <v>3</v>
+      </c>
+      <c r="P112" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>825</v>
+      </c>
+      <c r="R112" t="s">
+        <v>826</v>
+      </c>
+      <c r="S112">
+        <v>3</v>
+      </c>
+      <c r="T112" t="s">
+        <v>825</v>
+      </c>
+      <c r="U112" t="s">
+        <v>849</v>
+      </c>
+      <c r="V112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22">
       <c r="A113" s="1" t="s">
         <v>339</v>
       </c>
@@ -10314,8 +10821,50 @@
       <c r="H113" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="114" spans="1:8">
+      <c r="I113" t="s">
+        <v>809</v>
+      </c>
+      <c r="J113" t="s">
+        <v>810</v>
+      </c>
+      <c r="K113" t="s">
+        <v>819</v>
+      </c>
+      <c r="L113" t="s">
+        <v>821</v>
+      </c>
+      <c r="M113" t="s">
+        <v>823</v>
+      </c>
+      <c r="N113" t="s">
+        <v>824</v>
+      </c>
+      <c r="O113">
+        <v>1</v>
+      </c>
+      <c r="P113" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>824</v>
+      </c>
+      <c r="R113" t="s">
+        <v>837</v>
+      </c>
+      <c r="S113">
+        <v>0</v>
+      </c>
+      <c r="T113" t="s">
+        <v>823</v>
+      </c>
+      <c r="U113" t="s">
+        <v>850</v>
+      </c>
+      <c r="V113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22">
       <c r="A114" s="1" t="s">
         <v>342</v>
       </c>
@@ -10340,8 +10889,50 @@
       <c r="H114" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="115" spans="1:8">
+      <c r="I114" t="s">
+        <v>809</v>
+      </c>
+      <c r="J114" t="s">
+        <v>811</v>
+      </c>
+      <c r="K114" t="s">
+        <v>820</v>
+      </c>
+      <c r="L114" t="s">
+        <v>819</v>
+      </c>
+      <c r="M114" t="s">
+        <v>824</v>
+      </c>
+      <c r="N114" t="s">
+        <v>825</v>
+      </c>
+      <c r="O114">
+        <v>1</v>
+      </c>
+      <c r="P114" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>825</v>
+      </c>
+      <c r="R114" t="s">
+        <v>826</v>
+      </c>
+      <c r="S114">
+        <v>0</v>
+      </c>
+      <c r="T114" t="s">
+        <v>823</v>
+      </c>
+      <c r="U114" t="s">
+        <v>850</v>
+      </c>
+      <c r="V114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22">
       <c r="A115" s="1" t="s">
         <v>345</v>
       </c>
@@ -10366,8 +10957,50 @@
       <c r="H115" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="116" spans="1:8">
+      <c r="I115" t="s">
+        <v>809</v>
+      </c>
+      <c r="J115" t="s">
+        <v>815</v>
+      </c>
+      <c r="K115" t="s">
+        <v>820</v>
+      </c>
+      <c r="L115" t="s">
+        <v>819</v>
+      </c>
+      <c r="M115" t="s">
+        <v>823</v>
+      </c>
+      <c r="N115" t="s">
+        <v>825</v>
+      </c>
+      <c r="O115">
+        <v>3</v>
+      </c>
+      <c r="P115" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>825</v>
+      </c>
+      <c r="R115" t="s">
+        <v>837</v>
+      </c>
+      <c r="S115">
+        <v>1</v>
+      </c>
+      <c r="T115" t="s">
+        <v>823</v>
+      </c>
+      <c r="U115" t="s">
+        <v>850</v>
+      </c>
+      <c r="V115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22">
       <c r="A116" s="1" t="s">
         <v>348</v>
       </c>
@@ -10392,8 +11025,50 @@
       <c r="H116" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="117" spans="1:8">
+      <c r="I116" t="s">
+        <v>809</v>
+      </c>
+      <c r="J116" t="s">
+        <v>815</v>
+      </c>
+      <c r="K116" t="s">
+        <v>820</v>
+      </c>
+      <c r="L116" t="s">
+        <v>819</v>
+      </c>
+      <c r="M116" t="s">
+        <v>824</v>
+      </c>
+      <c r="N116" t="s">
+        <v>824</v>
+      </c>
+      <c r="O116">
+        <v>4</v>
+      </c>
+      <c r="P116" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>824</v>
+      </c>
+      <c r="R116" t="s">
+        <v>826</v>
+      </c>
+      <c r="S116">
+        <v>1</v>
+      </c>
+      <c r="T116" t="s">
+        <v>823</v>
+      </c>
+      <c r="U116" t="s">
+        <v>850</v>
+      </c>
+      <c r="V116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22">
       <c r="A117" s="1" t="s">
         <v>351</v>
       </c>
@@ -10418,8 +11093,50 @@
       <c r="H117" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="118" spans="1:8">
+      <c r="I117" t="s">
+        <v>809</v>
+      </c>
+      <c r="J117" t="s">
+        <v>815</v>
+      </c>
+      <c r="K117" t="s">
+        <v>820</v>
+      </c>
+      <c r="L117" t="s">
+        <v>819</v>
+      </c>
+      <c r="M117" t="s">
+        <v>824</v>
+      </c>
+      <c r="N117" t="s">
+        <v>824</v>
+      </c>
+      <c r="O117">
+        <v>4</v>
+      </c>
+      <c r="P117" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>824</v>
+      </c>
+      <c r="R117" t="s">
+        <v>826</v>
+      </c>
+      <c r="S117">
+        <v>1</v>
+      </c>
+      <c r="T117" t="s">
+        <v>823</v>
+      </c>
+      <c r="U117" t="s">
+        <v>850</v>
+      </c>
+      <c r="V117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22">
       <c r="A118" s="1" t="s">
         <v>354</v>
       </c>
@@ -10444,8 +11161,50 @@
       <c r="H118" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="119" spans="1:8">
+      <c r="I118" t="s">
+        <v>809</v>
+      </c>
+      <c r="J118" t="s">
+        <v>811</v>
+      </c>
+      <c r="K118" t="s">
+        <v>820</v>
+      </c>
+      <c r="L118" t="s">
+        <v>821</v>
+      </c>
+      <c r="M118" t="s">
+        <v>824</v>
+      </c>
+      <c r="N118" t="s">
+        <v>825</v>
+      </c>
+      <c r="O118">
+        <v>1</v>
+      </c>
+      <c r="P118" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>825</v>
+      </c>
+      <c r="R118" t="s">
+        <v>826</v>
+      </c>
+      <c r="S118">
+        <v>1</v>
+      </c>
+      <c r="T118" t="s">
+        <v>825</v>
+      </c>
+      <c r="U118" t="s">
+        <v>850</v>
+      </c>
+      <c r="V118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22">
       <c r="A119" s="1" t="s">
         <v>357</v>
       </c>
@@ -10470,8 +11229,50 @@
       <c r="H119" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="120" spans="1:8">
+      <c r="I119" t="s">
+        <v>809</v>
+      </c>
+      <c r="J119" t="s">
+        <v>811</v>
+      </c>
+      <c r="K119" t="s">
+        <v>820</v>
+      </c>
+      <c r="L119" t="s">
+        <v>821</v>
+      </c>
+      <c r="M119" t="s">
+        <v>825</v>
+      </c>
+      <c r="N119" t="s">
+        <v>825</v>
+      </c>
+      <c r="O119">
+        <v>1</v>
+      </c>
+      <c r="P119" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>825</v>
+      </c>
+      <c r="R119" t="s">
+        <v>826</v>
+      </c>
+      <c r="S119">
+        <v>1</v>
+      </c>
+      <c r="T119" t="s">
+        <v>825</v>
+      </c>
+      <c r="U119" t="s">
+        <v>850</v>
+      </c>
+      <c r="V119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22">
       <c r="A120" s="1" t="s">
         <v>360</v>
       </c>
@@ -10496,8 +11297,50 @@
       <c r="H120" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="121" spans="1:8">
+      <c r="I120" t="s">
+        <v>807</v>
+      </c>
+      <c r="J120" t="s">
+        <v>811</v>
+      </c>
+      <c r="K120" t="s">
+        <v>820</v>
+      </c>
+      <c r="L120" t="s">
+        <v>821</v>
+      </c>
+      <c r="M120" t="s">
+        <v>825</v>
+      </c>
+      <c r="N120" t="s">
+        <v>825</v>
+      </c>
+      <c r="O120">
+        <v>1</v>
+      </c>
+      <c r="P120" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>825</v>
+      </c>
+      <c r="R120" t="s">
+        <v>826</v>
+      </c>
+      <c r="S120">
+        <v>0</v>
+      </c>
+      <c r="T120" t="s">
+        <v>819</v>
+      </c>
+      <c r="U120" t="s">
+        <v>850</v>
+      </c>
+      <c r="V120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22">
       <c r="A121" s="1" t="s">
         <v>363</v>
       </c>
@@ -10522,8 +11365,50 @@
       <c r="H121" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="122" spans="1:8">
+      <c r="I121" t="s">
+        <v>807</v>
+      </c>
+      <c r="J121" t="s">
+        <v>817</v>
+      </c>
+      <c r="K121" t="s">
+        <v>820</v>
+      </c>
+      <c r="L121" t="s">
+        <v>821</v>
+      </c>
+      <c r="M121" t="s">
+        <v>824</v>
+      </c>
+      <c r="N121" t="s">
+        <v>823</v>
+      </c>
+      <c r="O121">
+        <v>4</v>
+      </c>
+      <c r="P121" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>824</v>
+      </c>
+      <c r="R121" t="s">
+        <v>826</v>
+      </c>
+      <c r="S121">
+        <v>1</v>
+      </c>
+      <c r="T121" t="s">
+        <v>819</v>
+      </c>
+      <c r="U121" t="s">
+        <v>850</v>
+      </c>
+      <c r="V121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22">
       <c r="A122" s="1" t="s">
         <v>366</v>
       </c>
@@ -10548,8 +11433,50 @@
       <c r="H122" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="123" spans="1:8">
+      <c r="I122" t="s">
+        <v>809</v>
+      </c>
+      <c r="J122" t="s">
+        <v>815</v>
+      </c>
+      <c r="K122" t="s">
+        <v>819</v>
+      </c>
+      <c r="L122" t="s">
+        <v>822</v>
+      </c>
+      <c r="M122" t="s">
+        <v>824</v>
+      </c>
+      <c r="N122" t="s">
+        <v>824</v>
+      </c>
+      <c r="O122">
+        <v>3</v>
+      </c>
+      <c r="P122" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>824</v>
+      </c>
+      <c r="R122" t="s">
+        <v>826</v>
+      </c>
+      <c r="S122">
+        <v>1</v>
+      </c>
+      <c r="T122" t="s">
+        <v>823</v>
+      </c>
+      <c r="U122" t="s">
+        <v>850</v>
+      </c>
+      <c r="V122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22">
       <c r="A123" s="1" t="s">
         <v>369</v>
       </c>
@@ -10574,8 +11501,50 @@
       <c r="H123" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="124" spans="1:8">
+      <c r="I123" t="s">
+        <v>809</v>
+      </c>
+      <c r="J123" t="s">
+        <v>815</v>
+      </c>
+      <c r="K123" t="s">
+        <v>820</v>
+      </c>
+      <c r="L123" t="s">
+        <v>819</v>
+      </c>
+      <c r="M123" t="s">
+        <v>824</v>
+      </c>
+      <c r="N123" t="s">
+        <v>824</v>
+      </c>
+      <c r="O123">
+        <v>2</v>
+      </c>
+      <c r="P123" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>824</v>
+      </c>
+      <c r="R123" t="s">
+        <v>826</v>
+      </c>
+      <c r="S123">
+        <v>1</v>
+      </c>
+      <c r="T123" t="s">
+        <v>823</v>
+      </c>
+      <c r="U123" t="s">
+        <v>850</v>
+      </c>
+      <c r="V123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22">
       <c r="A124" s="1" t="s">
         <v>372</v>
       </c>
@@ -10600,8 +11569,50 @@
       <c r="H124" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="125" spans="1:8">
+      <c r="I124" t="s">
+        <v>809</v>
+      </c>
+      <c r="J124" t="s">
+        <v>815</v>
+      </c>
+      <c r="K124" t="s">
+        <v>819</v>
+      </c>
+      <c r="L124" t="s">
+        <v>819</v>
+      </c>
+      <c r="M124" t="s">
+        <v>824</v>
+      </c>
+      <c r="N124" t="s">
+        <v>824</v>
+      </c>
+      <c r="O124">
+        <v>1</v>
+      </c>
+      <c r="P124" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>823</v>
+      </c>
+      <c r="R124" t="s">
+        <v>826</v>
+      </c>
+      <c r="S124">
+        <v>1</v>
+      </c>
+      <c r="T124" t="s">
+        <v>825</v>
+      </c>
+      <c r="U124" t="s">
+        <v>850</v>
+      </c>
+      <c r="V124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22">
       <c r="A125" s="1" t="s">
         <v>375</v>
       </c>
@@ -10626,8 +11637,50 @@
       <c r="H125" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="126" spans="1:8">
+      <c r="I125" t="s">
+        <v>809</v>
+      </c>
+      <c r="J125" t="s">
+        <v>815</v>
+      </c>
+      <c r="K125" t="s">
+        <v>819</v>
+      </c>
+      <c r="L125" t="s">
+        <v>821</v>
+      </c>
+      <c r="M125" t="s">
+        <v>825</v>
+      </c>
+      <c r="N125" t="s">
+        <v>824</v>
+      </c>
+      <c r="O125">
+        <v>1</v>
+      </c>
+      <c r="P125" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>823</v>
+      </c>
+      <c r="R125" t="s">
+        <v>826</v>
+      </c>
+      <c r="S125">
+        <v>1</v>
+      </c>
+      <c r="T125" t="s">
+        <v>825</v>
+      </c>
+      <c r="U125" t="s">
+        <v>850</v>
+      </c>
+      <c r="V125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22">
       <c r="A126" s="1" t="s">
         <v>378</v>
       </c>
@@ -10652,8 +11705,50 @@
       <c r="H126" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="127" spans="1:8">
+      <c r="I126" t="s">
+        <v>807</v>
+      </c>
+      <c r="J126" t="s">
+        <v>810</v>
+      </c>
+      <c r="K126" t="s">
+        <v>820</v>
+      </c>
+      <c r="L126" t="s">
+        <v>821</v>
+      </c>
+      <c r="M126" t="s">
+        <v>824</v>
+      </c>
+      <c r="N126" t="s">
+        <v>823</v>
+      </c>
+      <c r="O126">
+        <v>1</v>
+      </c>
+      <c r="P126" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>824</v>
+      </c>
+      <c r="R126" t="s">
+        <v>819</v>
+      </c>
+      <c r="S126">
+        <v>0</v>
+      </c>
+      <c r="T126" t="s">
+        <v>823</v>
+      </c>
+      <c r="U126" t="s">
+        <v>850</v>
+      </c>
+      <c r="V126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22">
       <c r="A127" s="1" t="s">
         <v>381</v>
       </c>
@@ -10678,8 +11773,50 @@
       <c r="H127" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="128" spans="1:8">
+      <c r="I127" t="s">
+        <v>807</v>
+      </c>
+      <c r="J127" t="s">
+        <v>810</v>
+      </c>
+      <c r="K127" t="s">
+        <v>820</v>
+      </c>
+      <c r="L127" t="s">
+        <v>821</v>
+      </c>
+      <c r="M127" t="s">
+        <v>824</v>
+      </c>
+      <c r="N127" t="s">
+        <v>823</v>
+      </c>
+      <c r="O127">
+        <v>1</v>
+      </c>
+      <c r="P127" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>824</v>
+      </c>
+      <c r="R127" t="s">
+        <v>819</v>
+      </c>
+      <c r="S127">
+        <v>0</v>
+      </c>
+      <c r="T127" t="s">
+        <v>823</v>
+      </c>
+      <c r="U127" t="s">
+        <v>850</v>
+      </c>
+      <c r="V127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22">
       <c r="A128" s="1" t="s">
         <v>384</v>
       </c>
@@ -10704,8 +11841,50 @@
       <c r="H128" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="129" spans="1:8">
+      <c r="I128" t="s">
+        <v>809</v>
+      </c>
+      <c r="J128" t="s">
+        <v>816</v>
+      </c>
+      <c r="K128" t="s">
+        <v>819</v>
+      </c>
+      <c r="L128" t="s">
+        <v>821</v>
+      </c>
+      <c r="M128" t="s">
+        <v>823</v>
+      </c>
+      <c r="N128" t="s">
+        <v>825</v>
+      </c>
+      <c r="O128">
+        <v>2</v>
+      </c>
+      <c r="P128" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>823</v>
+      </c>
+      <c r="R128" t="s">
+        <v>837</v>
+      </c>
+      <c r="S128">
+        <v>2</v>
+      </c>
+      <c r="T128" t="s">
+        <v>819</v>
+      </c>
+      <c r="U128" t="s">
+        <v>850</v>
+      </c>
+      <c r="V128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22">
       <c r="A129" s="1" t="s">
         <v>387</v>
       </c>
@@ -10730,8 +11909,50 @@
       <c r="H129" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="130" spans="1:8">
+      <c r="I129" t="s">
+        <v>809</v>
+      </c>
+      <c r="J129" t="s">
+        <v>810</v>
+      </c>
+      <c r="K129" t="s">
+        <v>820</v>
+      </c>
+      <c r="L129" t="s">
+        <v>821</v>
+      </c>
+      <c r="M129" t="s">
+        <v>825</v>
+      </c>
+      <c r="N129" t="s">
+        <v>826</v>
+      </c>
+      <c r="O129">
+        <v>3</v>
+      </c>
+      <c r="P129" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>823</v>
+      </c>
+      <c r="R129" t="s">
+        <v>837</v>
+      </c>
+      <c r="S129">
+        <v>1</v>
+      </c>
+      <c r="T129" t="s">
+        <v>826</v>
+      </c>
+      <c r="U129" t="s">
+        <v>850</v>
+      </c>
+      <c r="V129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22">
       <c r="A130" s="1" t="s">
         <v>390</v>
       </c>
@@ -10756,8 +11977,50 @@
       <c r="H130" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="131" spans="1:8">
+      <c r="I130" t="s">
+        <v>809</v>
+      </c>
+      <c r="J130" t="s">
+        <v>816</v>
+      </c>
+      <c r="K130" t="s">
+        <v>818</v>
+      </c>
+      <c r="L130" t="s">
+        <v>821</v>
+      </c>
+      <c r="M130" t="s">
+        <v>824</v>
+      </c>
+      <c r="N130" t="s">
+        <v>825</v>
+      </c>
+      <c r="O130">
+        <v>2</v>
+      </c>
+      <c r="P130" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>823</v>
+      </c>
+      <c r="R130" t="s">
+        <v>826</v>
+      </c>
+      <c r="S130">
+        <v>1</v>
+      </c>
+      <c r="T130" t="s">
+        <v>819</v>
+      </c>
+      <c r="U130" t="s">
+        <v>850</v>
+      </c>
+      <c r="V130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22">
       <c r="A131" s="1" t="s">
         <v>393</v>
       </c>
@@ -10782,8 +12045,50 @@
       <c r="H131" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="132" spans="1:8">
+      <c r="I131" t="s">
+        <v>809</v>
+      </c>
+      <c r="J131" t="s">
+        <v>810</v>
+      </c>
+      <c r="K131" t="s">
+        <v>819</v>
+      </c>
+      <c r="L131" t="s">
+        <v>821</v>
+      </c>
+      <c r="M131" t="s">
+        <v>824</v>
+      </c>
+      <c r="N131" t="s">
+        <v>825</v>
+      </c>
+      <c r="O131">
+        <v>1</v>
+      </c>
+      <c r="P131" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>824</v>
+      </c>
+      <c r="R131" t="s">
+        <v>826</v>
+      </c>
+      <c r="S131">
+        <v>1</v>
+      </c>
+      <c r="T131" t="s">
+        <v>819</v>
+      </c>
+      <c r="U131" t="s">
+        <v>850</v>
+      </c>
+      <c r="V131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22">
       <c r="A132" s="1" t="s">
         <v>396</v>
       </c>
@@ -10808,8 +12113,50 @@
       <c r="H132" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="133" spans="1:8">
+      <c r="I132" t="s">
+        <v>809</v>
+      </c>
+      <c r="J132" t="s">
+        <v>810</v>
+      </c>
+      <c r="K132" t="s">
+        <v>819</v>
+      </c>
+      <c r="L132" t="s">
+        <v>821</v>
+      </c>
+      <c r="M132" t="s">
+        <v>824</v>
+      </c>
+      <c r="N132" t="s">
+        <v>825</v>
+      </c>
+      <c r="O132">
+        <v>1</v>
+      </c>
+      <c r="P132" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>824</v>
+      </c>
+      <c r="R132" t="s">
+        <v>826</v>
+      </c>
+      <c r="S132">
+        <v>1</v>
+      </c>
+      <c r="T132" t="s">
+        <v>825</v>
+      </c>
+      <c r="U132" t="s">
+        <v>850</v>
+      </c>
+      <c r="V132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22">
       <c r="A133" s="1" t="s">
         <v>399</v>
       </c>
@@ -10834,8 +12181,50 @@
       <c r="H133" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="134" spans="1:8">
+      <c r="I133" t="s">
+        <v>809</v>
+      </c>
+      <c r="J133" t="s">
+        <v>810</v>
+      </c>
+      <c r="K133" t="s">
+        <v>820</v>
+      </c>
+      <c r="L133" t="s">
+        <v>822</v>
+      </c>
+      <c r="M133" t="s">
+        <v>825</v>
+      </c>
+      <c r="N133" t="s">
+        <v>825</v>
+      </c>
+      <c r="O133">
+        <v>1</v>
+      </c>
+      <c r="P133" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>825</v>
+      </c>
+      <c r="R133" t="s">
+        <v>826</v>
+      </c>
+      <c r="S133">
+        <v>1</v>
+      </c>
+      <c r="T133" t="s">
+        <v>825</v>
+      </c>
+      <c r="U133" t="s">
+        <v>849</v>
+      </c>
+      <c r="V133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22">
       <c r="A134" s="1" t="s">
         <v>402</v>
       </c>
@@ -10860,8 +12249,50 @@
       <c r="H134" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="135" spans="1:8">
+      <c r="I134" t="s">
+        <v>809</v>
+      </c>
+      <c r="J134" t="s">
+        <v>811</v>
+      </c>
+      <c r="K134" t="s">
+        <v>820</v>
+      </c>
+      <c r="L134" t="s">
+        <v>821</v>
+      </c>
+      <c r="M134" t="s">
+        <v>824</v>
+      </c>
+      <c r="N134" t="s">
+        <v>823</v>
+      </c>
+      <c r="O134">
+        <v>1</v>
+      </c>
+      <c r="P134" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>824</v>
+      </c>
+      <c r="R134" t="s">
+        <v>826</v>
+      </c>
+      <c r="S134">
+        <v>1</v>
+      </c>
+      <c r="T134" t="s">
+        <v>825</v>
+      </c>
+      <c r="U134" t="s">
+        <v>850</v>
+      </c>
+      <c r="V134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22">
       <c r="A135" s="1" t="s">
         <v>405</v>
       </c>
@@ -10886,8 +12317,50 @@
       <c r="H135" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="136" spans="1:8">
+      <c r="I135" t="s">
+        <v>809</v>
+      </c>
+      <c r="J135" t="s">
+        <v>815</v>
+      </c>
+      <c r="K135" t="s">
+        <v>820</v>
+      </c>
+      <c r="L135" t="s">
+        <v>819</v>
+      </c>
+      <c r="M135" t="s">
+        <v>823</v>
+      </c>
+      <c r="N135" t="s">
+        <v>825</v>
+      </c>
+      <c r="O135">
+        <v>3</v>
+      </c>
+      <c r="P135" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>823</v>
+      </c>
+      <c r="R135" t="s">
+        <v>837</v>
+      </c>
+      <c r="S135">
+        <v>1</v>
+      </c>
+      <c r="T135" t="s">
+        <v>823</v>
+      </c>
+      <c r="U135" t="s">
+        <v>850</v>
+      </c>
+      <c r="V135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22">
       <c r="A136" s="1" t="s">
         <v>408</v>
       </c>
@@ -10912,8 +12385,50 @@
       <c r="H136" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="137" spans="1:8">
+      <c r="I136" t="s">
+        <v>809</v>
+      </c>
+      <c r="J136" t="s">
+        <v>816</v>
+      </c>
+      <c r="K136" t="s">
+        <v>819</v>
+      </c>
+      <c r="L136" t="s">
+        <v>822</v>
+      </c>
+      <c r="M136" t="s">
+        <v>824</v>
+      </c>
+      <c r="N136" t="s">
+        <v>825</v>
+      </c>
+      <c r="O136">
+        <v>3</v>
+      </c>
+      <c r="P136" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>823</v>
+      </c>
+      <c r="R136" t="s">
+        <v>826</v>
+      </c>
+      <c r="S136">
+        <v>1</v>
+      </c>
+      <c r="T136" t="s">
+        <v>823</v>
+      </c>
+      <c r="U136" t="s">
+        <v>850</v>
+      </c>
+      <c r="V136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22">
       <c r="A137" s="1" t="s">
         <v>411</v>
       </c>
@@ -10938,8 +12453,50 @@
       <c r="H137" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="138" spans="1:8">
+      <c r="I137" t="s">
+        <v>807</v>
+      </c>
+      <c r="J137" t="s">
+        <v>810</v>
+      </c>
+      <c r="K137" t="s">
+        <v>820</v>
+      </c>
+      <c r="L137" t="s">
+        <v>821</v>
+      </c>
+      <c r="M137" t="s">
+        <v>824</v>
+      </c>
+      <c r="N137" t="s">
+        <v>825</v>
+      </c>
+      <c r="O137">
+        <v>1</v>
+      </c>
+      <c r="P137" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>823</v>
+      </c>
+      <c r="R137" t="s">
+        <v>819</v>
+      </c>
+      <c r="S137">
+        <v>2</v>
+      </c>
+      <c r="T137" t="s">
+        <v>819</v>
+      </c>
+      <c r="U137" t="s">
+        <v>850</v>
+      </c>
+      <c r="V137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22">
       <c r="A138" s="1" t="s">
         <v>414</v>
       </c>
@@ -10964,8 +12521,50 @@
       <c r="H138" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="139" spans="1:8">
+      <c r="I138" t="s">
+        <v>809</v>
+      </c>
+      <c r="J138" t="s">
+        <v>810</v>
+      </c>
+      <c r="K138" t="s">
+        <v>820</v>
+      </c>
+      <c r="L138" t="s">
+        <v>821</v>
+      </c>
+      <c r="M138" t="s">
+        <v>825</v>
+      </c>
+      <c r="N138" t="s">
+        <v>825</v>
+      </c>
+      <c r="O138">
+        <v>1</v>
+      </c>
+      <c r="P138" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>825</v>
+      </c>
+      <c r="R138" t="s">
+        <v>819</v>
+      </c>
+      <c r="S138">
+        <v>1</v>
+      </c>
+      <c r="T138" t="s">
+        <v>819</v>
+      </c>
+      <c r="U138" t="s">
+        <v>850</v>
+      </c>
+      <c r="V138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22">
       <c r="A139" s="1" t="s">
         <v>417</v>
       </c>
@@ -10990,8 +12589,50 @@
       <c r="H139" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="140" spans="1:8">
+      <c r="I139" t="s">
+        <v>809</v>
+      </c>
+      <c r="J139" t="s">
+        <v>811</v>
+      </c>
+      <c r="K139" t="s">
+        <v>819</v>
+      </c>
+      <c r="L139" t="s">
+        <v>822</v>
+      </c>
+      <c r="M139" t="s">
+        <v>824</v>
+      </c>
+      <c r="N139" t="s">
+        <v>824</v>
+      </c>
+      <c r="O139">
+        <v>3</v>
+      </c>
+      <c r="P139" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>824</v>
+      </c>
+      <c r="R139" t="s">
+        <v>826</v>
+      </c>
+      <c r="S139">
+        <v>1</v>
+      </c>
+      <c r="T139" t="s">
+        <v>823</v>
+      </c>
+      <c r="U139" t="s">
+        <v>850</v>
+      </c>
+      <c r="V139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22">
       <c r="A140" s="1" t="s">
         <v>420</v>
       </c>
@@ -11016,8 +12657,50 @@
       <c r="H140" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="141" spans="1:8">
+      <c r="I140" t="s">
+        <v>809</v>
+      </c>
+      <c r="J140" t="s">
+        <v>815</v>
+      </c>
+      <c r="K140" t="s">
+        <v>819</v>
+      </c>
+      <c r="L140" t="s">
+        <v>822</v>
+      </c>
+      <c r="M140" t="s">
+        <v>824</v>
+      </c>
+      <c r="N140" t="s">
+        <v>824</v>
+      </c>
+      <c r="O140">
+        <v>3</v>
+      </c>
+      <c r="P140" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>824</v>
+      </c>
+      <c r="R140" t="s">
+        <v>826</v>
+      </c>
+      <c r="S140">
+        <v>2</v>
+      </c>
+      <c r="T140" t="s">
+        <v>823</v>
+      </c>
+      <c r="U140" t="s">
+        <v>850</v>
+      </c>
+      <c r="V140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22">
       <c r="A141" s="1" t="s">
         <v>423</v>
       </c>
@@ -11042,8 +12725,50 @@
       <c r="H141" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="142" spans="1:8">
+      <c r="I141" t="s">
+        <v>809</v>
+      </c>
+      <c r="J141" t="s">
+        <v>815</v>
+      </c>
+      <c r="K141" t="s">
+        <v>819</v>
+      </c>
+      <c r="L141" t="s">
+        <v>819</v>
+      </c>
+      <c r="M141" t="s">
+        <v>823</v>
+      </c>
+      <c r="N141" t="s">
+        <v>825</v>
+      </c>
+      <c r="O141">
+        <v>3</v>
+      </c>
+      <c r="P141" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>825</v>
+      </c>
+      <c r="R141" t="s">
+        <v>826</v>
+      </c>
+      <c r="S141">
+        <v>2</v>
+      </c>
+      <c r="T141" t="s">
+        <v>823</v>
+      </c>
+      <c r="U141" t="s">
+        <v>850</v>
+      </c>
+      <c r="V141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22">
       <c r="A142" s="1" t="s">
         <v>426</v>
       </c>
@@ -11068,8 +12793,50 @@
       <c r="H142" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="143" spans="1:8">
+      <c r="I142" t="s">
+        <v>809</v>
+      </c>
+      <c r="J142" t="s">
+        <v>810</v>
+      </c>
+      <c r="K142" t="s">
+        <v>819</v>
+      </c>
+      <c r="L142" t="s">
+        <v>821</v>
+      </c>
+      <c r="M142" t="s">
+        <v>824</v>
+      </c>
+      <c r="N142" t="s">
+        <v>824</v>
+      </c>
+      <c r="O142">
+        <v>3</v>
+      </c>
+      <c r="P142" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>824</v>
+      </c>
+      <c r="R142" t="s">
+        <v>826</v>
+      </c>
+      <c r="S142">
+        <v>0</v>
+      </c>
+      <c r="T142" t="s">
+        <v>823</v>
+      </c>
+      <c r="U142" t="s">
+        <v>850</v>
+      </c>
+      <c r="V142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22">
       <c r="A143" s="1" t="s">
         <v>429</v>
       </c>
@@ -11094,8 +12861,50 @@
       <c r="H143" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="144" spans="1:8">
+      <c r="I143" t="s">
+        <v>807</v>
+      </c>
+      <c r="J143" t="s">
+        <v>810</v>
+      </c>
+      <c r="K143" t="s">
+        <v>820</v>
+      </c>
+      <c r="L143" t="s">
+        <v>821</v>
+      </c>
+      <c r="M143" t="s">
+        <v>824</v>
+      </c>
+      <c r="N143" t="s">
+        <v>824</v>
+      </c>
+      <c r="O143">
+        <v>1</v>
+      </c>
+      <c r="P143" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>824</v>
+      </c>
+      <c r="R143" t="s">
+        <v>826</v>
+      </c>
+      <c r="S143">
+        <v>0</v>
+      </c>
+      <c r="T143" t="s">
+        <v>823</v>
+      </c>
+      <c r="U143" t="s">
+        <v>850</v>
+      </c>
+      <c r="V143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22">
       <c r="A144" s="1" t="s">
         <v>432</v>
       </c>
@@ -11120,8 +12929,50 @@
       <c r="H144" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="145" spans="1:8">
+      <c r="I144" t="s">
+        <v>809</v>
+      </c>
+      <c r="J144" t="s">
+        <v>815</v>
+      </c>
+      <c r="K144" t="s">
+        <v>820</v>
+      </c>
+      <c r="L144" t="s">
+        <v>819</v>
+      </c>
+      <c r="M144" t="s">
+        <v>825</v>
+      </c>
+      <c r="N144" t="s">
+        <v>825</v>
+      </c>
+      <c r="O144">
+        <v>4</v>
+      </c>
+      <c r="P144" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>823</v>
+      </c>
+      <c r="R144" t="s">
+        <v>826</v>
+      </c>
+      <c r="S144">
+        <v>1</v>
+      </c>
+      <c r="T144" t="s">
+        <v>823</v>
+      </c>
+      <c r="U144" t="s">
+        <v>850</v>
+      </c>
+      <c r="V144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:22">
       <c r="A145" s="1" t="s">
         <v>435</v>
       </c>
@@ -11146,8 +12997,50 @@
       <c r="H145" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="146" spans="1:8">
+      <c r="I145" t="s">
+        <v>809</v>
+      </c>
+      <c r="J145" t="s">
+        <v>815</v>
+      </c>
+      <c r="K145" t="s">
+        <v>820</v>
+      </c>
+      <c r="L145" t="s">
+        <v>819</v>
+      </c>
+      <c r="M145" t="s">
+        <v>823</v>
+      </c>
+      <c r="N145" t="s">
+        <v>824</v>
+      </c>
+      <c r="O145">
+        <v>4</v>
+      </c>
+      <c r="P145" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>823</v>
+      </c>
+      <c r="R145" t="s">
+        <v>819</v>
+      </c>
+      <c r="S145">
+        <v>1</v>
+      </c>
+      <c r="T145" t="s">
+        <v>823</v>
+      </c>
+      <c r="U145" t="s">
+        <v>850</v>
+      </c>
+      <c r="V145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:22">
       <c r="A146" s="1" t="s">
         <v>438</v>
       </c>
@@ -11172,8 +13065,50 @@
       <c r="H146" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="147" spans="1:8">
+      <c r="I146" t="s">
+        <v>809</v>
+      </c>
+      <c r="J146" t="s">
+        <v>810</v>
+      </c>
+      <c r="K146" t="s">
+        <v>819</v>
+      </c>
+      <c r="L146" t="s">
+        <v>819</v>
+      </c>
+      <c r="M146" t="s">
+        <v>824</v>
+      </c>
+      <c r="N146" t="s">
+        <v>825</v>
+      </c>
+      <c r="O146">
+        <v>1</v>
+      </c>
+      <c r="P146" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>825</v>
+      </c>
+      <c r="R146" t="s">
+        <v>826</v>
+      </c>
+      <c r="S146">
+        <v>1</v>
+      </c>
+      <c r="T146" t="s">
+        <v>825</v>
+      </c>
+      <c r="U146" t="s">
+        <v>850</v>
+      </c>
+      <c r="V146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:22">
       <c r="A147" s="1" t="s">
         <v>441</v>
       </c>
@@ -11198,8 +13133,50 @@
       <c r="H147" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="148" spans="1:8">
+      <c r="I147" t="s">
+        <v>809</v>
+      </c>
+      <c r="J147" t="s">
+        <v>815</v>
+      </c>
+      <c r="K147" t="s">
+        <v>818</v>
+      </c>
+      <c r="L147" t="s">
+        <v>819</v>
+      </c>
+      <c r="M147" t="s">
+        <v>823</v>
+      </c>
+      <c r="N147" t="s">
+        <v>825</v>
+      </c>
+      <c r="O147">
+        <v>2</v>
+      </c>
+      <c r="P147" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>824</v>
+      </c>
+      <c r="R147" t="s">
+        <v>826</v>
+      </c>
+      <c r="S147">
+        <v>3</v>
+      </c>
+      <c r="T147" t="s">
+        <v>825</v>
+      </c>
+      <c r="U147" t="s">
+        <v>849</v>
+      </c>
+      <c r="V147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:22">
       <c r="A148" s="1" t="s">
         <v>444</v>
       </c>
@@ -11224,8 +13201,50 @@
       <c r="H148" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="149" spans="1:8">
+      <c r="I148" t="s">
+        <v>809</v>
+      </c>
+      <c r="J148" t="s">
+        <v>811</v>
+      </c>
+      <c r="K148" t="s">
+        <v>820</v>
+      </c>
+      <c r="L148" t="s">
+        <v>819</v>
+      </c>
+      <c r="M148" t="s">
+        <v>825</v>
+      </c>
+      <c r="N148" t="s">
+        <v>825</v>
+      </c>
+      <c r="O148">
+        <v>1</v>
+      </c>
+      <c r="P148" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>825</v>
+      </c>
+      <c r="R148" t="s">
+        <v>826</v>
+      </c>
+      <c r="S148">
+        <v>1</v>
+      </c>
+      <c r="T148" t="s">
+        <v>825</v>
+      </c>
+      <c r="U148" t="s">
+        <v>850</v>
+      </c>
+      <c r="V148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:22">
       <c r="A149" s="1" t="s">
         <v>447</v>
       </c>
@@ -11250,8 +13269,50 @@
       <c r="H149" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="150" spans="1:8">
+      <c r="I149" t="s">
+        <v>809</v>
+      </c>
+      <c r="J149" t="s">
+        <v>811</v>
+      </c>
+      <c r="K149" t="s">
+        <v>820</v>
+      </c>
+      <c r="L149" t="s">
+        <v>819</v>
+      </c>
+      <c r="M149" t="s">
+        <v>825</v>
+      </c>
+      <c r="N149" t="s">
+        <v>825</v>
+      </c>
+      <c r="O149">
+        <v>1</v>
+      </c>
+      <c r="P149" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>825</v>
+      </c>
+      <c r="R149" t="s">
+        <v>837</v>
+      </c>
+      <c r="S149">
+        <v>1</v>
+      </c>
+      <c r="T149" t="s">
+        <v>825</v>
+      </c>
+      <c r="U149" t="s">
+        <v>850</v>
+      </c>
+      <c r="V149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:22">
       <c r="A150" s="1" t="s">
         <v>450</v>
       </c>
@@ -11276,8 +13337,50 @@
       <c r="H150" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="151" spans="1:8">
+      <c r="I150" t="s">
+        <v>807</v>
+      </c>
+      <c r="J150" t="s">
+        <v>811</v>
+      </c>
+      <c r="K150" t="s">
+        <v>820</v>
+      </c>
+      <c r="L150" t="s">
+        <v>821</v>
+      </c>
+      <c r="M150" t="s">
+        <v>824</v>
+      </c>
+      <c r="N150" t="s">
+        <v>825</v>
+      </c>
+      <c r="O150">
+        <v>1</v>
+      </c>
+      <c r="P150" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>825</v>
+      </c>
+      <c r="R150" t="s">
+        <v>826</v>
+      </c>
+      <c r="S150">
+        <v>1</v>
+      </c>
+      <c r="T150" t="s">
+        <v>825</v>
+      </c>
+      <c r="U150" t="s">
+        <v>850</v>
+      </c>
+      <c r="V150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:22">
       <c r="A151" s="1" t="s">
         <v>453</v>
       </c>
@@ -11302,8 +13405,50 @@
       <c r="H151" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="152" spans="1:8">
+      <c r="I151" t="s">
+        <v>809</v>
+      </c>
+      <c r="J151" t="s">
+        <v>817</v>
+      </c>
+      <c r="K151" t="s">
+        <v>820</v>
+      </c>
+      <c r="L151" t="s">
+        <v>822</v>
+      </c>
+      <c r="M151" t="s">
+        <v>824</v>
+      </c>
+      <c r="N151" t="s">
+        <v>825</v>
+      </c>
+      <c r="O151">
+        <v>3</v>
+      </c>
+      <c r="P151" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>824</v>
+      </c>
+      <c r="R151" t="s">
+        <v>826</v>
+      </c>
+      <c r="S151">
+        <v>1</v>
+      </c>
+      <c r="T151" t="s">
+        <v>823</v>
+      </c>
+      <c r="U151" t="s">
+        <v>850</v>
+      </c>
+      <c r="V151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:22">
       <c r="A152" s="1" t="s">
         <v>456</v>
       </c>
@@ -11328,8 +13473,50 @@
       <c r="H152" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="153" spans="1:8">
+      <c r="I152" t="s">
+        <v>809</v>
+      </c>
+      <c r="J152" t="s">
+        <v>811</v>
+      </c>
+      <c r="K152" t="s">
+        <v>819</v>
+      </c>
+      <c r="L152" t="s">
+        <v>819</v>
+      </c>
+      <c r="M152" t="s">
+        <v>825</v>
+      </c>
+      <c r="N152" t="s">
+        <v>823</v>
+      </c>
+      <c r="O152">
+        <v>1</v>
+      </c>
+      <c r="P152" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>824</v>
+      </c>
+      <c r="R152" t="s">
+        <v>837</v>
+      </c>
+      <c r="S152">
+        <v>1</v>
+      </c>
+      <c r="T152" t="s">
+        <v>825</v>
+      </c>
+      <c r="U152" t="s">
+        <v>850</v>
+      </c>
+      <c r="V152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:22">
       <c r="A153" s="1" t="s">
         <v>459</v>
       </c>
@@ -11354,8 +13541,50 @@
       <c r="H153" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="154" spans="1:8">
+      <c r="I153" t="s">
+        <v>809</v>
+      </c>
+      <c r="J153" t="s">
+        <v>811</v>
+      </c>
+      <c r="K153" t="s">
+        <v>820</v>
+      </c>
+      <c r="L153" t="s">
+        <v>819</v>
+      </c>
+      <c r="M153" t="s">
+        <v>823</v>
+      </c>
+      <c r="N153" t="s">
+        <v>825</v>
+      </c>
+      <c r="O153">
+        <v>1</v>
+      </c>
+      <c r="P153" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>825</v>
+      </c>
+      <c r="R153" t="s">
+        <v>826</v>
+      </c>
+      <c r="S153">
+        <v>1</v>
+      </c>
+      <c r="T153" t="s">
+        <v>825</v>
+      </c>
+      <c r="U153" t="s">
+        <v>850</v>
+      </c>
+      <c r="V153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:22">
       <c r="A154" s="1" t="s">
         <v>462</v>
       </c>
@@ -11380,8 +13609,50 @@
       <c r="H154" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="155" spans="1:8">
+      <c r="I154" t="s">
+        <v>809</v>
+      </c>
+      <c r="J154" t="s">
+        <v>816</v>
+      </c>
+      <c r="K154" t="s">
+        <v>820</v>
+      </c>
+      <c r="L154" t="s">
+        <v>819</v>
+      </c>
+      <c r="M154" t="s">
+        <v>824</v>
+      </c>
+      <c r="N154" t="s">
+        <v>823</v>
+      </c>
+      <c r="O154">
+        <v>3</v>
+      </c>
+      <c r="P154" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>825</v>
+      </c>
+      <c r="R154" t="s">
+        <v>826</v>
+      </c>
+      <c r="S154">
+        <v>1</v>
+      </c>
+      <c r="T154" t="s">
+        <v>823</v>
+      </c>
+      <c r="U154" t="s">
+        <v>850</v>
+      </c>
+      <c r="V154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:22">
       <c r="A155" s="1" t="s">
         <v>465</v>
       </c>
@@ -11406,8 +13677,50 @@
       <c r="H155" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="156" spans="1:8">
+      <c r="I155" t="s">
+        <v>807</v>
+      </c>
+      <c r="J155" t="s">
+        <v>810</v>
+      </c>
+      <c r="K155" t="s">
+        <v>820</v>
+      </c>
+      <c r="L155" t="s">
+        <v>821</v>
+      </c>
+      <c r="M155" t="s">
+        <v>824</v>
+      </c>
+      <c r="N155" t="s">
+        <v>825</v>
+      </c>
+      <c r="O155">
+        <v>1</v>
+      </c>
+      <c r="P155" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q155" t="s">
+        <v>825</v>
+      </c>
+      <c r="R155" t="s">
+        <v>826</v>
+      </c>
+      <c r="S155">
+        <v>1</v>
+      </c>
+      <c r="T155" t="s">
+        <v>823</v>
+      </c>
+      <c r="U155" t="s">
+        <v>850</v>
+      </c>
+      <c r="V155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:22">
       <c r="A156" s="1" t="s">
         <v>468</v>
       </c>
@@ -11432,8 +13745,50 @@
       <c r="H156" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="157" spans="1:8">
+      <c r="I156" t="s">
+        <v>809</v>
+      </c>
+      <c r="J156" t="s">
+        <v>810</v>
+      </c>
+      <c r="K156" t="s">
+        <v>820</v>
+      </c>
+      <c r="L156" t="s">
+        <v>821</v>
+      </c>
+      <c r="M156" t="s">
+        <v>823</v>
+      </c>
+      <c r="N156" t="s">
+        <v>824</v>
+      </c>
+      <c r="O156">
+        <v>1</v>
+      </c>
+      <c r="P156" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q156" t="s">
+        <v>824</v>
+      </c>
+      <c r="R156" t="s">
+        <v>826</v>
+      </c>
+      <c r="S156">
+        <v>1</v>
+      </c>
+      <c r="T156" t="s">
+        <v>823</v>
+      </c>
+      <c r="U156" t="s">
+        <v>850</v>
+      </c>
+      <c r="V156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:22">
       <c r="A157" s="1" t="s">
         <v>471</v>
       </c>
@@ -11458,8 +13813,50 @@
       <c r="H157" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="158" spans="1:8">
+      <c r="I157" t="s">
+        <v>809</v>
+      </c>
+      <c r="J157" t="s">
+        <v>811</v>
+      </c>
+      <c r="K157" t="s">
+        <v>820</v>
+      </c>
+      <c r="L157" t="s">
+        <v>822</v>
+      </c>
+      <c r="M157" t="s">
+        <v>824</v>
+      </c>
+      <c r="N157" t="s">
+        <v>824</v>
+      </c>
+      <c r="O157">
+        <v>1</v>
+      </c>
+      <c r="P157" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>823</v>
+      </c>
+      <c r="R157" t="s">
+        <v>826</v>
+      </c>
+      <c r="S157">
+        <v>1</v>
+      </c>
+      <c r="T157" t="s">
+        <v>825</v>
+      </c>
+      <c r="U157" t="s">
+        <v>850</v>
+      </c>
+      <c r="V157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:22">
       <c r="A158" s="1" t="s">
         <v>474</v>
       </c>
@@ -11484,8 +13881,50 @@
       <c r="H158" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="159" spans="1:8">
+      <c r="I158" t="s">
+        <v>809</v>
+      </c>
+      <c r="J158" t="s">
+        <v>811</v>
+      </c>
+      <c r="K158" t="s">
+        <v>820</v>
+      </c>
+      <c r="L158" t="s">
+        <v>819</v>
+      </c>
+      <c r="M158" t="s">
+        <v>824</v>
+      </c>
+      <c r="N158" t="s">
+        <v>825</v>
+      </c>
+      <c r="O158">
+        <v>1</v>
+      </c>
+      <c r="P158" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>824</v>
+      </c>
+      <c r="R158" t="s">
+        <v>826</v>
+      </c>
+      <c r="S158">
+        <v>1</v>
+      </c>
+      <c r="T158" t="s">
+        <v>825</v>
+      </c>
+      <c r="U158" t="s">
+        <v>850</v>
+      </c>
+      <c r="V158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:22">
       <c r="A159" s="1" t="s">
         <v>477</v>
       </c>
@@ -11510,8 +13949,50 @@
       <c r="H159" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="160" spans="1:8">
+      <c r="I159" t="s">
+        <v>809</v>
+      </c>
+      <c r="J159" t="s">
+        <v>816</v>
+      </c>
+      <c r="K159" t="s">
+        <v>818</v>
+      </c>
+      <c r="L159" t="s">
+        <v>819</v>
+      </c>
+      <c r="M159" t="s">
+        <v>824</v>
+      </c>
+      <c r="N159" t="s">
+        <v>824</v>
+      </c>
+      <c r="O159">
+        <v>3</v>
+      </c>
+      <c r="P159" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>824</v>
+      </c>
+      <c r="R159" t="s">
+        <v>826</v>
+      </c>
+      <c r="S159">
+        <v>3</v>
+      </c>
+      <c r="T159" t="s">
+        <v>823</v>
+      </c>
+      <c r="U159" t="s">
+        <v>850</v>
+      </c>
+      <c r="V159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:22">
       <c r="A160" s="1" t="s">
         <v>480</v>
       </c>
@@ -11536,8 +14017,50 @@
       <c r="H160" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="161" spans="1:8">
+      <c r="I160" t="s">
+        <v>809</v>
+      </c>
+      <c r="J160" t="s">
+        <v>815</v>
+      </c>
+      <c r="K160" t="s">
+        <v>818</v>
+      </c>
+      <c r="L160" t="s">
+        <v>822</v>
+      </c>
+      <c r="M160" t="s">
+        <v>824</v>
+      </c>
+      <c r="N160" t="s">
+        <v>826</v>
+      </c>
+      <c r="O160">
+        <v>2</v>
+      </c>
+      <c r="P160" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>823</v>
+      </c>
+      <c r="R160" t="s">
+        <v>826</v>
+      </c>
+      <c r="S160">
+        <v>1</v>
+      </c>
+      <c r="T160" t="s">
+        <v>823</v>
+      </c>
+      <c r="U160" t="s">
+        <v>850</v>
+      </c>
+      <c r="V160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:22">
       <c r="A161" s="1" t="s">
         <v>483</v>
       </c>
@@ -11562,8 +14085,50 @@
       <c r="H161" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="162" spans="1:8">
+      <c r="I161" t="s">
+        <v>809</v>
+      </c>
+      <c r="J161" t="s">
+        <v>816</v>
+      </c>
+      <c r="K161" t="s">
+        <v>819</v>
+      </c>
+      <c r="L161" t="s">
+        <v>822</v>
+      </c>
+      <c r="M161" t="s">
+        <v>824</v>
+      </c>
+      <c r="N161" t="s">
+        <v>825</v>
+      </c>
+      <c r="O161">
+        <v>2</v>
+      </c>
+      <c r="P161" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q161" t="s">
+        <v>824</v>
+      </c>
+      <c r="R161" t="s">
+        <v>826</v>
+      </c>
+      <c r="S161">
+        <v>3</v>
+      </c>
+      <c r="T161" t="s">
+        <v>823</v>
+      </c>
+      <c r="U161" t="s">
+        <v>850</v>
+      </c>
+      <c r="V161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:22">
       <c r="A162" s="1" t="s">
         <v>486</v>
       </c>
@@ -11588,8 +14153,50 @@
       <c r="H162" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="163" spans="1:8">
+      <c r="I162" t="s">
+        <v>809</v>
+      </c>
+      <c r="J162" t="s">
+        <v>816</v>
+      </c>
+      <c r="K162" t="s">
+        <v>820</v>
+      </c>
+      <c r="L162" t="s">
+        <v>819</v>
+      </c>
+      <c r="M162" t="s">
+        <v>824</v>
+      </c>
+      <c r="N162" t="s">
+        <v>825</v>
+      </c>
+      <c r="O162">
+        <v>2</v>
+      </c>
+      <c r="P162" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q162" t="s">
+        <v>824</v>
+      </c>
+      <c r="R162" t="s">
+        <v>826</v>
+      </c>
+      <c r="S162">
+        <v>4</v>
+      </c>
+      <c r="T162" t="s">
+        <v>823</v>
+      </c>
+      <c r="U162" t="s">
+        <v>850</v>
+      </c>
+      <c r="V162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:22">
       <c r="A163" s="1" t="s">
         <v>489</v>
       </c>
@@ -11614,8 +14221,50 @@
       <c r="H163" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="164" spans="1:8">
+      <c r="I163" t="s">
+        <v>809</v>
+      </c>
+      <c r="J163" t="s">
+        <v>816</v>
+      </c>
+      <c r="K163" t="s">
+        <v>819</v>
+      </c>
+      <c r="L163" t="s">
+        <v>822</v>
+      </c>
+      <c r="M163" t="s">
+        <v>823</v>
+      </c>
+      <c r="N163" t="s">
+        <v>824</v>
+      </c>
+      <c r="O163">
+        <v>3</v>
+      </c>
+      <c r="P163" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>824</v>
+      </c>
+      <c r="R163" t="s">
+        <v>826</v>
+      </c>
+      <c r="S163">
+        <v>1</v>
+      </c>
+      <c r="T163" t="s">
+        <v>823</v>
+      </c>
+      <c r="U163" t="s">
+        <v>850</v>
+      </c>
+      <c r="V163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:22">
       <c r="A164" s="1" t="s">
         <v>492</v>
       </c>
@@ -11640,8 +14289,50 @@
       <c r="H164" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="165" spans="1:8">
+      <c r="I164" t="s">
+        <v>809</v>
+      </c>
+      <c r="J164" t="s">
+        <v>815</v>
+      </c>
+      <c r="K164" t="s">
+        <v>819</v>
+      </c>
+      <c r="L164" t="s">
+        <v>819</v>
+      </c>
+      <c r="M164" t="s">
+        <v>824</v>
+      </c>
+      <c r="N164" t="s">
+        <v>824</v>
+      </c>
+      <c r="O164">
+        <v>3</v>
+      </c>
+      <c r="P164" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>823</v>
+      </c>
+      <c r="R164" t="s">
+        <v>826</v>
+      </c>
+      <c r="S164">
+        <v>1</v>
+      </c>
+      <c r="T164" t="s">
+        <v>823</v>
+      </c>
+      <c r="U164" t="s">
+        <v>850</v>
+      </c>
+      <c r="V164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:22">
       <c r="A165" s="1" t="s">
         <v>495</v>
       </c>
@@ -11666,8 +14357,50 @@
       <c r="H165" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="166" spans="1:8">
+      <c r="I165" t="s">
+        <v>809</v>
+      </c>
+      <c r="J165" t="s">
+        <v>810</v>
+      </c>
+      <c r="K165" t="s">
+        <v>819</v>
+      </c>
+      <c r="L165" t="s">
+        <v>821</v>
+      </c>
+      <c r="M165" t="s">
+        <v>824</v>
+      </c>
+      <c r="N165" t="s">
+        <v>824</v>
+      </c>
+      <c r="O165">
+        <v>2</v>
+      </c>
+      <c r="P165" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>824</v>
+      </c>
+      <c r="R165" t="s">
+        <v>826</v>
+      </c>
+      <c r="S165">
+        <v>0</v>
+      </c>
+      <c r="T165" t="s">
+        <v>823</v>
+      </c>
+      <c r="U165" t="s">
+        <v>850</v>
+      </c>
+      <c r="V165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:22">
       <c r="A166" s="1" t="s">
         <v>498</v>
       </c>
@@ -11692,8 +14425,50 @@
       <c r="H166" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="167" spans="1:8">
+      <c r="I166" t="s">
+        <v>807</v>
+      </c>
+      <c r="J166" t="s">
+        <v>811</v>
+      </c>
+      <c r="K166" t="s">
+        <v>820</v>
+      </c>
+      <c r="L166" t="s">
+        <v>821</v>
+      </c>
+      <c r="M166" t="s">
+        <v>823</v>
+      </c>
+      <c r="N166" t="s">
+        <v>825</v>
+      </c>
+      <c r="O166">
+        <v>1</v>
+      </c>
+      <c r="P166" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q166" t="s">
+        <v>825</v>
+      </c>
+      <c r="R166" t="s">
+        <v>826</v>
+      </c>
+      <c r="S166">
+        <v>0</v>
+      </c>
+      <c r="T166" t="s">
+        <v>819</v>
+      </c>
+      <c r="U166" t="s">
+        <v>850</v>
+      </c>
+      <c r="V166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:22">
       <c r="A167" s="1" t="s">
         <v>501</v>
       </c>
@@ -11718,8 +14493,50 @@
       <c r="H167" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="168" spans="1:8">
+      <c r="I167" t="s">
+        <v>809</v>
+      </c>
+      <c r="J167" t="s">
+        <v>811</v>
+      </c>
+      <c r="K167" t="s">
+        <v>819</v>
+      </c>
+      <c r="L167" t="s">
+        <v>822</v>
+      </c>
+      <c r="M167" t="s">
+        <v>824</v>
+      </c>
+      <c r="N167" t="s">
+        <v>824</v>
+      </c>
+      <c r="O167">
+        <v>1</v>
+      </c>
+      <c r="P167" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q167" t="s">
+        <v>823</v>
+      </c>
+      <c r="R167" t="s">
+        <v>826</v>
+      </c>
+      <c r="S167">
+        <v>1</v>
+      </c>
+      <c r="T167" t="s">
+        <v>819</v>
+      </c>
+      <c r="U167" t="s">
+        <v>850</v>
+      </c>
+      <c r="V167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:22">
       <c r="A168" s="1" t="s">
         <v>504</v>
       </c>
@@ -11744,8 +14561,50 @@
       <c r="H168" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="169" spans="1:8">
+      <c r="I168" t="s">
+        <v>809</v>
+      </c>
+      <c r="J168" t="s">
+        <v>811</v>
+      </c>
+      <c r="K168" t="s">
+        <v>819</v>
+      </c>
+      <c r="L168" t="s">
+        <v>819</v>
+      </c>
+      <c r="M168" t="s">
+        <v>823</v>
+      </c>
+      <c r="N168" t="s">
+        <v>824</v>
+      </c>
+      <c r="O168">
+        <v>1</v>
+      </c>
+      <c r="P168" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q168" t="s">
+        <v>823</v>
+      </c>
+      <c r="R168" t="s">
+        <v>826</v>
+      </c>
+      <c r="S168">
+        <v>1</v>
+      </c>
+      <c r="T168" t="s">
+        <v>825</v>
+      </c>
+      <c r="U168" t="s">
+        <v>850</v>
+      </c>
+      <c r="V168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:22">
       <c r="A169" s="1" t="s">
         <v>507</v>
       </c>
@@ -11770,8 +14629,50 @@
       <c r="H169" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="170" spans="1:8">
+      <c r="I169" t="s">
+        <v>809</v>
+      </c>
+      <c r="J169" t="s">
+        <v>811</v>
+      </c>
+      <c r="K169" t="s">
+        <v>819</v>
+      </c>
+      <c r="L169" t="s">
+        <v>819</v>
+      </c>
+      <c r="M169" t="s">
+        <v>824</v>
+      </c>
+      <c r="N169" t="s">
+        <v>824</v>
+      </c>
+      <c r="O169">
+        <v>1</v>
+      </c>
+      <c r="P169" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>824</v>
+      </c>
+      <c r="R169" t="s">
+        <v>826</v>
+      </c>
+      <c r="S169">
+        <v>1</v>
+      </c>
+      <c r="T169" t="s">
+        <v>819</v>
+      </c>
+      <c r="U169" t="s">
+        <v>850</v>
+      </c>
+      <c r="V169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:22">
       <c r="A170" s="1" t="s">
         <v>510</v>
       </c>
@@ -11796,8 +14697,50 @@
       <c r="H170" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="171" spans="1:8">
+      <c r="I170" t="s">
+        <v>809</v>
+      </c>
+      <c r="J170" t="s">
+        <v>816</v>
+      </c>
+      <c r="K170" t="s">
+        <v>820</v>
+      </c>
+      <c r="L170" t="s">
+        <v>819</v>
+      </c>
+      <c r="M170" t="s">
+        <v>824</v>
+      </c>
+      <c r="N170" t="s">
+        <v>823</v>
+      </c>
+      <c r="O170">
+        <v>3</v>
+      </c>
+      <c r="P170" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>824</v>
+      </c>
+      <c r="R170" t="s">
+        <v>826</v>
+      </c>
+      <c r="S170">
+        <v>1</v>
+      </c>
+      <c r="T170" t="s">
+        <v>826</v>
+      </c>
+      <c r="U170" t="s">
+        <v>850</v>
+      </c>
+      <c r="V170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:22">
       <c r="A171" s="1" t="s">
         <v>513</v>
       </c>
@@ -11822,8 +14765,50 @@
       <c r="H171" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="172" spans="1:8">
+      <c r="I171" t="s">
+        <v>807</v>
+      </c>
+      <c r="J171" t="s">
+        <v>811</v>
+      </c>
+      <c r="K171" t="s">
+        <v>820</v>
+      </c>
+      <c r="L171" t="s">
+        <v>821</v>
+      </c>
+      <c r="M171" t="s">
+        <v>823</v>
+      </c>
+      <c r="N171" t="s">
+        <v>824</v>
+      </c>
+      <c r="O171">
+        <v>1</v>
+      </c>
+      <c r="P171" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q171" t="s">
+        <v>825</v>
+      </c>
+      <c r="R171" t="s">
+        <v>826</v>
+      </c>
+      <c r="S171">
+        <v>1</v>
+      </c>
+      <c r="T171" t="s">
+        <v>826</v>
+      </c>
+      <c r="U171" t="s">
+        <v>850</v>
+      </c>
+      <c r="V171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:22">
       <c r="A172" s="1" t="s">
         <v>516</v>
       </c>
@@ -11848,8 +14833,50 @@
       <c r="H172" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="173" spans="1:8">
+      <c r="I172" t="s">
+        <v>809</v>
+      </c>
+      <c r="J172" t="s">
+        <v>816</v>
+      </c>
+      <c r="K172" t="s">
+        <v>820</v>
+      </c>
+      <c r="L172" t="s">
+        <v>819</v>
+      </c>
+      <c r="M172" t="s">
+        <v>824</v>
+      </c>
+      <c r="N172" t="s">
+        <v>824</v>
+      </c>
+      <c r="O172">
+        <v>4</v>
+      </c>
+      <c r="P172" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q172" t="s">
+        <v>824</v>
+      </c>
+      <c r="R172" t="s">
+        <v>826</v>
+      </c>
+      <c r="S172">
+        <v>1</v>
+      </c>
+      <c r="T172" t="s">
+        <v>819</v>
+      </c>
+      <c r="U172" t="s">
+        <v>850</v>
+      </c>
+      <c r="V172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:22">
       <c r="A173" s="1" t="s">
         <v>519</v>
       </c>
@@ -11874,8 +14901,50 @@
       <c r="H173" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="174" spans="1:8">
+      <c r="I173" t="s">
+        <v>809</v>
+      </c>
+      <c r="J173" t="s">
+        <v>810</v>
+      </c>
+      <c r="K173" t="s">
+        <v>820</v>
+      </c>
+      <c r="L173" t="s">
+        <v>821</v>
+      </c>
+      <c r="M173" t="s">
+        <v>824</v>
+      </c>
+      <c r="N173" t="s">
+        <v>824</v>
+      </c>
+      <c r="O173">
+        <v>2</v>
+      </c>
+      <c r="P173" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q173" t="s">
+        <v>824</v>
+      </c>
+      <c r="R173" t="s">
+        <v>826</v>
+      </c>
+      <c r="S173">
+        <v>1</v>
+      </c>
+      <c r="T173" t="s">
+        <v>826</v>
+      </c>
+      <c r="U173" t="s">
+        <v>850</v>
+      </c>
+      <c r="V173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:22">
       <c r="A174" s="1" t="s">
         <v>522</v>
       </c>
@@ -11900,8 +14969,50 @@
       <c r="H174" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="175" spans="1:8">
+      <c r="I174" t="s">
+        <v>809</v>
+      </c>
+      <c r="J174" t="s">
+        <v>810</v>
+      </c>
+      <c r="K174" t="s">
+        <v>819</v>
+      </c>
+      <c r="L174" t="s">
+        <v>819</v>
+      </c>
+      <c r="M174" t="s">
+        <v>824</v>
+      </c>
+      <c r="N174" t="s">
+        <v>825</v>
+      </c>
+      <c r="O174">
+        <v>3</v>
+      </c>
+      <c r="P174" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q174" t="s">
+        <v>825</v>
+      </c>
+      <c r="R174" t="s">
+        <v>826</v>
+      </c>
+      <c r="S174">
+        <v>1</v>
+      </c>
+      <c r="T174" t="s">
+        <v>819</v>
+      </c>
+      <c r="U174" t="s">
+        <v>850</v>
+      </c>
+      <c r="V174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:22">
       <c r="A175" s="1" t="s">
         <v>525</v>
       </c>
@@ -11926,8 +15037,50 @@
       <c r="H175" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="176" spans="1:8">
+      <c r="I175" t="s">
+        <v>809</v>
+      </c>
+      <c r="J175" t="s">
+        <v>815</v>
+      </c>
+      <c r="K175" t="s">
+        <v>819</v>
+      </c>
+      <c r="L175" t="s">
+        <v>822</v>
+      </c>
+      <c r="M175" t="s">
+        <v>824</v>
+      </c>
+      <c r="N175" t="s">
+        <v>824</v>
+      </c>
+      <c r="O175">
+        <v>3</v>
+      </c>
+      <c r="P175" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q175" t="s">
+        <v>825</v>
+      </c>
+      <c r="R175" t="s">
+        <v>826</v>
+      </c>
+      <c r="S175">
+        <v>1</v>
+      </c>
+      <c r="T175" t="s">
+        <v>823</v>
+      </c>
+      <c r="U175" t="s">
+        <v>850</v>
+      </c>
+      <c r="V175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:22">
       <c r="A176" s="1" t="s">
         <v>528</v>
       </c>
@@ -11952,8 +15105,50 @@
       <c r="H176" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="177" spans="1:8">
+      <c r="I176" t="s">
+        <v>809</v>
+      </c>
+      <c r="J176" t="s">
+        <v>811</v>
+      </c>
+      <c r="K176" t="s">
+        <v>820</v>
+      </c>
+      <c r="L176" t="s">
+        <v>819</v>
+      </c>
+      <c r="M176" t="s">
+        <v>823</v>
+      </c>
+      <c r="N176" t="s">
+        <v>825</v>
+      </c>
+      <c r="O176">
+        <v>1</v>
+      </c>
+      <c r="P176" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q176" t="s">
+        <v>823</v>
+      </c>
+      <c r="R176" t="s">
+        <v>826</v>
+      </c>
+      <c r="S176">
+        <v>1</v>
+      </c>
+      <c r="T176" t="s">
+        <v>825</v>
+      </c>
+      <c r="U176" t="s">
+        <v>850</v>
+      </c>
+      <c r="V176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:22">
       <c r="A177" s="1" t="s">
         <v>531</v>
       </c>
@@ -11978,8 +15173,50 @@
       <c r="H177" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="178" spans="1:8">
+      <c r="I177" t="s">
+        <v>809</v>
+      </c>
+      <c r="J177" t="s">
+        <v>815</v>
+      </c>
+      <c r="K177" t="s">
+        <v>819</v>
+      </c>
+      <c r="L177" t="s">
+        <v>822</v>
+      </c>
+      <c r="M177" t="s">
+        <v>824</v>
+      </c>
+      <c r="N177" t="s">
+        <v>825</v>
+      </c>
+      <c r="O177">
+        <v>3</v>
+      </c>
+      <c r="P177" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q177" t="s">
+        <v>824</v>
+      </c>
+      <c r="R177" t="s">
+        <v>826</v>
+      </c>
+      <c r="S177">
+        <v>2</v>
+      </c>
+      <c r="T177" t="s">
+        <v>823</v>
+      </c>
+      <c r="U177" t="s">
+        <v>849</v>
+      </c>
+      <c r="V177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:22">
       <c r="A178" s="1" t="s">
         <v>534</v>
       </c>
@@ -12004,8 +15241,50 @@
       <c r="H178" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="179" spans="1:8">
+      <c r="I178" t="s">
+        <v>809</v>
+      </c>
+      <c r="J178" t="s">
+        <v>815</v>
+      </c>
+      <c r="K178" t="s">
+        <v>820</v>
+      </c>
+      <c r="L178" t="s">
+        <v>819</v>
+      </c>
+      <c r="M178" t="s">
+        <v>825</v>
+      </c>
+      <c r="N178" t="s">
+        <v>825</v>
+      </c>
+      <c r="O178">
+        <v>3</v>
+      </c>
+      <c r="P178" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q178" t="s">
+        <v>824</v>
+      </c>
+      <c r="R178" t="s">
+        <v>826</v>
+      </c>
+      <c r="S178">
+        <v>1</v>
+      </c>
+      <c r="T178" t="s">
+        <v>823</v>
+      </c>
+      <c r="U178" t="s">
+        <v>850</v>
+      </c>
+      <c r="V178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:22">
       <c r="A179" s="1" t="s">
         <v>537</v>
       </c>
@@ -12030,8 +15309,50 @@
       <c r="H179" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="180" spans="1:8">
+      <c r="I179" t="s">
+        <v>809</v>
+      </c>
+      <c r="J179" t="s">
+        <v>816</v>
+      </c>
+      <c r="K179" t="s">
+        <v>819</v>
+      </c>
+      <c r="L179" t="s">
+        <v>822</v>
+      </c>
+      <c r="M179" t="s">
+        <v>824</v>
+      </c>
+      <c r="N179" t="s">
+        <v>824</v>
+      </c>
+      <c r="O179">
+        <v>3</v>
+      </c>
+      <c r="P179" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q179" t="s">
+        <v>823</v>
+      </c>
+      <c r="R179" t="s">
+        <v>838</v>
+      </c>
+      <c r="S179">
+        <v>1</v>
+      </c>
+      <c r="T179" t="s">
+        <v>823</v>
+      </c>
+      <c r="U179" t="s">
+        <v>850</v>
+      </c>
+      <c r="V179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:22">
       <c r="A180" s="1" t="s">
         <v>540</v>
       </c>
@@ -12056,8 +15377,50 @@
       <c r="H180" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="181" spans="1:8">
+      <c r="I180" t="s">
+        <v>809</v>
+      </c>
+      <c r="J180" t="s">
+        <v>810</v>
+      </c>
+      <c r="K180" t="s">
+        <v>820</v>
+      </c>
+      <c r="L180" t="s">
+        <v>821</v>
+      </c>
+      <c r="M180" t="s">
+        <v>824</v>
+      </c>
+      <c r="N180" t="s">
+        <v>824</v>
+      </c>
+      <c r="O180">
+        <v>1</v>
+      </c>
+      <c r="P180" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q180" t="s">
+        <v>825</v>
+      </c>
+      <c r="R180" t="s">
+        <v>819</v>
+      </c>
+      <c r="S180">
+        <v>1</v>
+      </c>
+      <c r="T180" t="s">
+        <v>819</v>
+      </c>
+      <c r="U180" t="s">
+        <v>850</v>
+      </c>
+      <c r="V180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:22">
       <c r="A181" s="1" t="s">
         <v>543</v>
       </c>
@@ -12082,8 +15445,50 @@
       <c r="H181" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="182" spans="1:8">
+      <c r="I181" t="s">
+        <v>809</v>
+      </c>
+      <c r="J181" t="s">
+        <v>810</v>
+      </c>
+      <c r="K181" t="s">
+        <v>819</v>
+      </c>
+      <c r="L181" t="s">
+        <v>821</v>
+      </c>
+      <c r="M181" t="s">
+        <v>824</v>
+      </c>
+      <c r="N181" t="s">
+        <v>825</v>
+      </c>
+      <c r="O181">
+        <v>1</v>
+      </c>
+      <c r="P181" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q181" t="s">
+        <v>824</v>
+      </c>
+      <c r="R181" t="s">
+        <v>826</v>
+      </c>
+      <c r="S181">
+        <v>1</v>
+      </c>
+      <c r="T181" t="s">
+        <v>826</v>
+      </c>
+      <c r="U181" t="s">
+        <v>850</v>
+      </c>
+      <c r="V181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:22">
       <c r="A182" s="1" t="s">
         <v>546</v>
       </c>
@@ -12108,8 +15513,50 @@
       <c r="H182" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="183" spans="1:8">
+      <c r="I182" t="s">
+        <v>809</v>
+      </c>
+      <c r="J182" t="s">
+        <v>810</v>
+      </c>
+      <c r="K182" t="s">
+        <v>819</v>
+      </c>
+      <c r="L182" t="s">
+        <v>819</v>
+      </c>
+      <c r="M182" t="s">
+        <v>824</v>
+      </c>
+      <c r="N182" t="s">
+        <v>825</v>
+      </c>
+      <c r="O182">
+        <v>3</v>
+      </c>
+      <c r="P182" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q182" t="s">
+        <v>824</v>
+      </c>
+      <c r="R182" t="s">
+        <v>826</v>
+      </c>
+      <c r="S182">
+        <v>1</v>
+      </c>
+      <c r="T182" t="s">
+        <v>823</v>
+      </c>
+      <c r="U182" t="s">
+        <v>850</v>
+      </c>
+      <c r="V182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:22">
       <c r="A183" s="1" t="s">
         <v>549</v>
       </c>
@@ -12134,8 +15581,50 @@
       <c r="H183" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="184" spans="1:8">
+      <c r="I183" t="s">
+        <v>809</v>
+      </c>
+      <c r="J183" t="s">
+        <v>815</v>
+      </c>
+      <c r="K183" t="s">
+        <v>819</v>
+      </c>
+      <c r="L183" t="s">
+        <v>822</v>
+      </c>
+      <c r="M183" t="s">
+        <v>824</v>
+      </c>
+      <c r="N183" t="s">
+        <v>825</v>
+      </c>
+      <c r="O183">
+        <v>2</v>
+      </c>
+      <c r="P183" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>824</v>
+      </c>
+      <c r="R183" t="s">
+        <v>826</v>
+      </c>
+      <c r="S183">
+        <v>1</v>
+      </c>
+      <c r="T183" t="s">
+        <v>823</v>
+      </c>
+      <c r="U183" t="s">
+        <v>850</v>
+      </c>
+      <c r="V183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:22">
       <c r="A184" s="1" t="s">
         <v>552</v>
       </c>
@@ -12160,8 +15649,50 @@
       <c r="H184" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="185" spans="1:8">
+      <c r="I184" t="s">
+        <v>809</v>
+      </c>
+      <c r="J184" t="s">
+        <v>817</v>
+      </c>
+      <c r="K184" t="s">
+        <v>820</v>
+      </c>
+      <c r="L184" t="s">
+        <v>821</v>
+      </c>
+      <c r="M184" t="s">
+        <v>824</v>
+      </c>
+      <c r="N184" t="s">
+        <v>825</v>
+      </c>
+      <c r="O184">
+        <v>3</v>
+      </c>
+      <c r="P184" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q184" t="s">
+        <v>824</v>
+      </c>
+      <c r="R184" t="s">
+        <v>826</v>
+      </c>
+      <c r="S184">
+        <v>0</v>
+      </c>
+      <c r="T184" t="s">
+        <v>825</v>
+      </c>
+      <c r="U184" t="s">
+        <v>849</v>
+      </c>
+      <c r="V184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:22">
       <c r="A185" s="1" t="s">
         <v>555</v>
       </c>
@@ -12186,8 +15717,50 @@
       <c r="H185" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="186" spans="1:8">
+      <c r="I185" t="s">
+        <v>809</v>
+      </c>
+      <c r="J185" t="s">
+        <v>816</v>
+      </c>
+      <c r="K185" t="s">
+        <v>820</v>
+      </c>
+      <c r="L185" t="s">
+        <v>819</v>
+      </c>
+      <c r="M185" t="s">
+        <v>824</v>
+      </c>
+      <c r="N185" t="s">
+        <v>824</v>
+      </c>
+      <c r="O185">
+        <v>3</v>
+      </c>
+      <c r="P185" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q185" t="s">
+        <v>823</v>
+      </c>
+      <c r="R185" t="s">
+        <v>826</v>
+      </c>
+      <c r="S185">
+        <v>1</v>
+      </c>
+      <c r="T185" t="s">
+        <v>819</v>
+      </c>
+      <c r="U185" t="s">
+        <v>850</v>
+      </c>
+      <c r="V185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:22">
       <c r="A186" s="1" t="s">
         <v>558</v>
       </c>
@@ -12212,8 +15785,50 @@
       <c r="H186" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="187" spans="1:8">
+      <c r="I186" t="s">
+        <v>809</v>
+      </c>
+      <c r="J186" t="s">
+        <v>816</v>
+      </c>
+      <c r="K186" t="s">
+        <v>820</v>
+      </c>
+      <c r="L186" t="s">
+        <v>822</v>
+      </c>
+      <c r="M186" t="s">
+        <v>823</v>
+      </c>
+      <c r="N186" t="s">
+        <v>825</v>
+      </c>
+      <c r="O186">
+        <v>3</v>
+      </c>
+      <c r="P186" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q186" t="s">
+        <v>825</v>
+      </c>
+      <c r="R186" t="s">
+        <v>826</v>
+      </c>
+      <c r="S186">
+        <v>1</v>
+      </c>
+      <c r="T186" t="s">
+        <v>825</v>
+      </c>
+      <c r="U186" t="s">
+        <v>850</v>
+      </c>
+      <c r="V186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:22">
       <c r="A187" s="1" t="s">
         <v>561</v>
       </c>
@@ -12238,8 +15853,50 @@
       <c r="H187" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="188" spans="1:8">
+      <c r="I187" t="s">
+        <v>809</v>
+      </c>
+      <c r="J187" t="s">
+        <v>816</v>
+      </c>
+      <c r="K187" t="s">
+        <v>820</v>
+      </c>
+      <c r="L187" t="s">
+        <v>821</v>
+      </c>
+      <c r="M187" t="s">
+        <v>824</v>
+      </c>
+      <c r="N187" t="s">
+        <v>825</v>
+      </c>
+      <c r="O187">
+        <v>3</v>
+      </c>
+      <c r="P187" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q187" t="s">
+        <v>823</v>
+      </c>
+      <c r="R187" t="s">
+        <v>826</v>
+      </c>
+      <c r="S187">
+        <v>2</v>
+      </c>
+      <c r="T187" t="s">
+        <v>823</v>
+      </c>
+      <c r="U187" t="s">
+        <v>850</v>
+      </c>
+      <c r="V187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:22">
       <c r="A188" s="1" t="s">
         <v>564</v>
       </c>
@@ -12264,8 +15921,50 @@
       <c r="H188" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="189" spans="1:8">
+      <c r="I188" t="s">
+        <v>809</v>
+      </c>
+      <c r="J188" t="s">
+        <v>810</v>
+      </c>
+      <c r="K188" t="s">
+        <v>819</v>
+      </c>
+      <c r="L188" t="s">
+        <v>819</v>
+      </c>
+      <c r="M188" t="s">
+        <v>824</v>
+      </c>
+      <c r="N188" t="s">
+        <v>825</v>
+      </c>
+      <c r="O188">
+        <v>2</v>
+      </c>
+      <c r="P188" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q188" t="s">
+        <v>823</v>
+      </c>
+      <c r="R188" t="s">
+        <v>837</v>
+      </c>
+      <c r="S188">
+        <v>1</v>
+      </c>
+      <c r="T188" t="s">
+        <v>823</v>
+      </c>
+      <c r="U188" t="s">
+        <v>850</v>
+      </c>
+      <c r="V188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:22">
       <c r="A189" s="1" t="s">
         <v>567</v>
       </c>
@@ -12290,8 +15989,50 @@
       <c r="H189" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="190" spans="1:8">
+      <c r="I189" t="s">
+        <v>809</v>
+      </c>
+      <c r="J189" t="s">
+        <v>811</v>
+      </c>
+      <c r="K189" t="s">
+        <v>820</v>
+      </c>
+      <c r="L189" t="s">
+        <v>819</v>
+      </c>
+      <c r="M189" t="s">
+        <v>824</v>
+      </c>
+      <c r="N189" t="s">
+        <v>825</v>
+      </c>
+      <c r="O189">
+        <v>1</v>
+      </c>
+      <c r="P189" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q189" t="s">
+        <v>825</v>
+      </c>
+      <c r="R189" t="s">
+        <v>837</v>
+      </c>
+      <c r="S189">
+        <v>0</v>
+      </c>
+      <c r="T189" t="s">
+        <v>819</v>
+      </c>
+      <c r="U189" t="s">
+        <v>850</v>
+      </c>
+      <c r="V189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:22">
       <c r="A190" s="1" t="s">
         <v>570</v>
       </c>
@@ -12316,8 +16057,50 @@
       <c r="H190" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="191" spans="1:8">
+      <c r="I190" t="s">
+        <v>809</v>
+      </c>
+      <c r="J190" t="s">
+        <v>811</v>
+      </c>
+      <c r="K190" t="s">
+        <v>819</v>
+      </c>
+      <c r="L190" t="s">
+        <v>821</v>
+      </c>
+      <c r="M190" t="s">
+        <v>825</v>
+      </c>
+      <c r="N190" t="s">
+        <v>825</v>
+      </c>
+      <c r="O190">
+        <v>1</v>
+      </c>
+      <c r="P190" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q190" t="s">
+        <v>825</v>
+      </c>
+      <c r="R190" t="s">
+        <v>826</v>
+      </c>
+      <c r="S190">
+        <v>1</v>
+      </c>
+      <c r="T190" t="s">
+        <v>819</v>
+      </c>
+      <c r="U190" t="s">
+        <v>850</v>
+      </c>
+      <c r="V190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:22">
       <c r="A191" s="1" t="s">
         <v>573</v>
       </c>
@@ -12342,8 +16125,50 @@
       <c r="H191" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="192" spans="1:8">
+      <c r="I191" t="s">
+        <v>809</v>
+      </c>
+      <c r="J191" t="s">
+        <v>815</v>
+      </c>
+      <c r="K191" t="s">
+        <v>819</v>
+      </c>
+      <c r="L191" t="s">
+        <v>819</v>
+      </c>
+      <c r="M191" t="s">
+        <v>823</v>
+      </c>
+      <c r="N191" t="s">
+        <v>825</v>
+      </c>
+      <c r="O191">
+        <v>3</v>
+      </c>
+      <c r="P191" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q191" t="s">
+        <v>824</v>
+      </c>
+      <c r="R191" t="s">
+        <v>826</v>
+      </c>
+      <c r="S191">
+        <v>1</v>
+      </c>
+      <c r="T191" t="s">
+        <v>823</v>
+      </c>
+      <c r="U191" t="s">
+        <v>850</v>
+      </c>
+      <c r="V191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:22">
       <c r="A192" s="1" t="s">
         <v>576</v>
       </c>
@@ -12368,8 +16193,50 @@
       <c r="H192" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="193" spans="1:8">
+      <c r="I192" t="s">
+        <v>807</v>
+      </c>
+      <c r="J192" t="s">
+        <v>811</v>
+      </c>
+      <c r="K192" t="s">
+        <v>820</v>
+      </c>
+      <c r="L192" t="s">
+        <v>821</v>
+      </c>
+      <c r="M192" t="s">
+        <v>824</v>
+      </c>
+      <c r="N192" t="s">
+        <v>825</v>
+      </c>
+      <c r="O192">
+        <v>1</v>
+      </c>
+      <c r="P192" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q192" t="s">
+        <v>824</v>
+      </c>
+      <c r="R192" t="s">
+        <v>826</v>
+      </c>
+      <c r="S192">
+        <v>1</v>
+      </c>
+      <c r="T192" t="s">
+        <v>825</v>
+      </c>
+      <c r="U192" t="s">
+        <v>849</v>
+      </c>
+      <c r="V192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:22">
       <c r="A193" s="1" t="s">
         <v>579</v>
       </c>
@@ -12394,8 +16261,50 @@
       <c r="H193" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="194" spans="1:8">
+      <c r="I193" t="s">
+        <v>809</v>
+      </c>
+      <c r="J193" t="s">
+        <v>810</v>
+      </c>
+      <c r="K193" t="s">
+        <v>819</v>
+      </c>
+      <c r="L193" t="s">
+        <v>822</v>
+      </c>
+      <c r="M193" t="s">
+        <v>824</v>
+      </c>
+      <c r="N193" t="s">
+        <v>824</v>
+      </c>
+      <c r="O193">
+        <v>2</v>
+      </c>
+      <c r="P193" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q193" t="s">
+        <v>823</v>
+      </c>
+      <c r="R193" t="s">
+        <v>826</v>
+      </c>
+      <c r="S193">
+        <v>1</v>
+      </c>
+      <c r="T193" t="s">
+        <v>825</v>
+      </c>
+      <c r="U193" t="s">
+        <v>850</v>
+      </c>
+      <c r="V193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:22">
       <c r="A194" s="1" t="s">
         <v>582</v>
       </c>
@@ -12420,8 +16329,50 @@
       <c r="H194" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="195" spans="1:8">
+      <c r="I194" t="s">
+        <v>808</v>
+      </c>
+      <c r="J194" t="s">
+        <v>810</v>
+      </c>
+      <c r="K194" t="s">
+        <v>820</v>
+      </c>
+      <c r="L194" t="s">
+        <v>821</v>
+      </c>
+      <c r="M194" t="s">
+        <v>824</v>
+      </c>
+      <c r="N194" t="s">
+        <v>825</v>
+      </c>
+      <c r="O194">
+        <v>1</v>
+      </c>
+      <c r="P194" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q194" t="s">
+        <v>825</v>
+      </c>
+      <c r="R194" t="s">
+        <v>837</v>
+      </c>
+      <c r="S194">
+        <v>0</v>
+      </c>
+      <c r="T194" t="s">
+        <v>826</v>
+      </c>
+      <c r="U194" t="s">
+        <v>850</v>
+      </c>
+      <c r="V194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:22">
       <c r="A195" s="1" t="s">
         <v>585</v>
       </c>
@@ -12446,8 +16397,50 @@
       <c r="H195" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="196" spans="1:8">
+      <c r="I195" t="s">
+        <v>807</v>
+      </c>
+      <c r="J195" t="s">
+        <v>811</v>
+      </c>
+      <c r="K195" t="s">
+        <v>820</v>
+      </c>
+      <c r="L195" t="s">
+        <v>821</v>
+      </c>
+      <c r="M195" t="s">
+        <v>823</v>
+      </c>
+      <c r="N195" t="s">
+        <v>825</v>
+      </c>
+      <c r="O195">
+        <v>1</v>
+      </c>
+      <c r="P195" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q195" t="s">
+        <v>825</v>
+      </c>
+      <c r="R195" t="s">
+        <v>826</v>
+      </c>
+      <c r="S195">
+        <v>1</v>
+      </c>
+      <c r="T195" t="s">
+        <v>819</v>
+      </c>
+      <c r="U195" t="s">
+        <v>850</v>
+      </c>
+      <c r="V195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:22">
       <c r="A196" s="1" t="s">
         <v>588</v>
       </c>
@@ -12472,8 +16465,50 @@
       <c r="H196" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="197" spans="1:8">
+      <c r="I196" t="s">
+        <v>807</v>
+      </c>
+      <c r="J196" t="s">
+        <v>811</v>
+      </c>
+      <c r="K196" t="s">
+        <v>820</v>
+      </c>
+      <c r="L196" t="s">
+        <v>821</v>
+      </c>
+      <c r="M196" t="s">
+        <v>823</v>
+      </c>
+      <c r="N196" t="s">
+        <v>825</v>
+      </c>
+      <c r="O196">
+        <v>1</v>
+      </c>
+      <c r="P196" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q196" t="s">
+        <v>825</v>
+      </c>
+      <c r="R196" t="s">
+        <v>826</v>
+      </c>
+      <c r="S196">
+        <v>1</v>
+      </c>
+      <c r="T196" t="s">
+        <v>819</v>
+      </c>
+      <c r="U196" t="s">
+        <v>850</v>
+      </c>
+      <c r="V196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:22">
       <c r="A197" s="1" t="s">
         <v>591</v>
       </c>
@@ -12498,8 +16533,50 @@
       <c r="H197" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="198" spans="1:8">
+      <c r="I197" t="s">
+        <v>809</v>
+      </c>
+      <c r="J197" t="s">
+        <v>810</v>
+      </c>
+      <c r="K197" t="s">
+        <v>820</v>
+      </c>
+      <c r="L197" t="s">
+        <v>821</v>
+      </c>
+      <c r="M197" t="s">
+        <v>825</v>
+      </c>
+      <c r="N197" t="s">
+        <v>823</v>
+      </c>
+      <c r="O197">
+        <v>3</v>
+      </c>
+      <c r="P197" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q197" t="s">
+        <v>823</v>
+      </c>
+      <c r="R197" t="s">
+        <v>837</v>
+      </c>
+      <c r="S197">
+        <v>1</v>
+      </c>
+      <c r="T197" t="s">
+        <v>826</v>
+      </c>
+      <c r="U197" t="s">
+        <v>850</v>
+      </c>
+      <c r="V197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:22">
       <c r="A198" s="1" t="s">
         <v>594</v>
       </c>
@@ -12524,8 +16601,50 @@
       <c r="H198" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="199" spans="1:8">
+      <c r="I198" t="s">
+        <v>809</v>
+      </c>
+      <c r="J198" t="s">
+        <v>815</v>
+      </c>
+      <c r="K198" t="s">
+        <v>820</v>
+      </c>
+      <c r="L198" t="s">
+        <v>819</v>
+      </c>
+      <c r="M198" t="s">
+        <v>824</v>
+      </c>
+      <c r="N198" t="s">
+        <v>825</v>
+      </c>
+      <c r="O198">
+        <v>4</v>
+      </c>
+      <c r="P198" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q198" t="s">
+        <v>824</v>
+      </c>
+      <c r="R198" t="s">
+        <v>826</v>
+      </c>
+      <c r="S198">
+        <v>1</v>
+      </c>
+      <c r="T198" t="s">
+        <v>826</v>
+      </c>
+      <c r="U198" t="s">
+        <v>850</v>
+      </c>
+      <c r="V198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:22">
       <c r="A199" s="1" t="s">
         <v>597</v>
       </c>
@@ -12550,8 +16669,50 @@
       <c r="H199" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="200" spans="1:8">
+      <c r="I199" t="s">
+        <v>807</v>
+      </c>
+      <c r="J199" t="s">
+        <v>811</v>
+      </c>
+      <c r="K199" t="s">
+        <v>820</v>
+      </c>
+      <c r="L199" t="s">
+        <v>821</v>
+      </c>
+      <c r="M199" t="s">
+        <v>825</v>
+      </c>
+      <c r="N199" t="s">
+        <v>825</v>
+      </c>
+      <c r="O199">
+        <v>1</v>
+      </c>
+      <c r="P199" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q199" t="s">
+        <v>825</v>
+      </c>
+      <c r="R199" t="s">
+        <v>819</v>
+      </c>
+      <c r="S199">
+        <v>1</v>
+      </c>
+      <c r="T199" t="s">
+        <v>825</v>
+      </c>
+      <c r="U199" t="s">
+        <v>849</v>
+      </c>
+      <c r="V199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:22">
       <c r="A200" s="1" t="s">
         <v>600</v>
       </c>
@@ -12576,8 +16737,50 @@
       <c r="H200" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="201" spans="1:8">
+      <c r="I200" t="s">
+        <v>809</v>
+      </c>
+      <c r="J200" t="s">
+        <v>811</v>
+      </c>
+      <c r="K200" t="s">
+        <v>820</v>
+      </c>
+      <c r="L200" t="s">
+        <v>822</v>
+      </c>
+      <c r="M200" t="s">
+        <v>824</v>
+      </c>
+      <c r="N200" t="s">
+        <v>825</v>
+      </c>
+      <c r="O200">
+        <v>2</v>
+      </c>
+      <c r="P200" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q200" t="s">
+        <v>825</v>
+      </c>
+      <c r="R200" t="s">
+        <v>837</v>
+      </c>
+      <c r="S200">
+        <v>1</v>
+      </c>
+      <c r="T200" t="s">
+        <v>825</v>
+      </c>
+      <c r="U200" t="s">
+        <v>850</v>
+      </c>
+      <c r="V200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:22">
       <c r="A201" s="1" t="s">
         <v>603</v>
       </c>
@@ -12602,8 +16805,50 @@
       <c r="H201" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="202" spans="1:8">
+      <c r="I201" t="s">
+        <v>807</v>
+      </c>
+      <c r="J201" t="s">
+        <v>811</v>
+      </c>
+      <c r="K201" t="s">
+        <v>820</v>
+      </c>
+      <c r="L201" t="s">
+        <v>821</v>
+      </c>
+      <c r="M201" t="s">
+        <v>825</v>
+      </c>
+      <c r="N201" t="s">
+        <v>825</v>
+      </c>
+      <c r="O201">
+        <v>1</v>
+      </c>
+      <c r="P201" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q201" t="s">
+        <v>823</v>
+      </c>
+      <c r="R201" t="s">
+        <v>837</v>
+      </c>
+      <c r="S201">
+        <v>1</v>
+      </c>
+      <c r="T201" t="s">
+        <v>825</v>
+      </c>
+      <c r="U201" t="s">
+        <v>849</v>
+      </c>
+      <c r="V201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:22">
       <c r="A202" s="1" t="s">
         <v>606</v>
       </c>
@@ -12628,8 +16873,50 @@
       <c r="H202" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="203" spans="1:8">
+      <c r="I202" t="s">
+        <v>809</v>
+      </c>
+      <c r="J202" t="s">
+        <v>815</v>
+      </c>
+      <c r="K202" t="s">
+        <v>819</v>
+      </c>
+      <c r="L202" t="s">
+        <v>819</v>
+      </c>
+      <c r="M202" t="s">
+        <v>824</v>
+      </c>
+      <c r="N202" t="s">
+        <v>826</v>
+      </c>
+      <c r="O202">
+        <v>3</v>
+      </c>
+      <c r="P202" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q202" t="s">
+        <v>823</v>
+      </c>
+      <c r="R202" t="s">
+        <v>826</v>
+      </c>
+      <c r="S202">
+        <v>1</v>
+      </c>
+      <c r="T202" t="s">
+        <v>823</v>
+      </c>
+      <c r="U202" t="s">
+        <v>850</v>
+      </c>
+      <c r="V202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:22">
       <c r="A203" s="1" t="s">
         <v>609</v>
       </c>
@@ -12654,8 +16941,50 @@
       <c r="H203" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="204" spans="1:8">
+      <c r="I203" t="s">
+        <v>809</v>
+      </c>
+      <c r="J203" t="s">
+        <v>815</v>
+      </c>
+      <c r="K203" t="s">
+        <v>819</v>
+      </c>
+      <c r="L203" t="s">
+        <v>819</v>
+      </c>
+      <c r="M203" t="s">
+        <v>824</v>
+      </c>
+      <c r="N203" t="s">
+        <v>824</v>
+      </c>
+      <c r="O203">
+        <v>3</v>
+      </c>
+      <c r="P203" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q203" t="s">
+        <v>824</v>
+      </c>
+      <c r="R203" t="s">
+        <v>826</v>
+      </c>
+      <c r="S203">
+        <v>1</v>
+      </c>
+      <c r="T203" t="s">
+        <v>823</v>
+      </c>
+      <c r="U203" t="s">
+        <v>850</v>
+      </c>
+      <c r="V203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:22">
       <c r="A204" s="1" t="s">
         <v>612</v>
       </c>
@@ -12680,8 +17009,50 @@
       <c r="H204" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="205" spans="1:8">
+      <c r="I204" t="s">
+        <v>809</v>
+      </c>
+      <c r="J204" t="s">
+        <v>816</v>
+      </c>
+      <c r="K204" t="s">
+        <v>820</v>
+      </c>
+      <c r="L204" t="s">
+        <v>822</v>
+      </c>
+      <c r="M204" t="s">
+        <v>824</v>
+      </c>
+      <c r="N204" t="s">
+        <v>824</v>
+      </c>
+      <c r="O204">
+        <v>1</v>
+      </c>
+      <c r="P204" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q204" t="s">
+        <v>824</v>
+      </c>
+      <c r="R204" t="s">
+        <v>826</v>
+      </c>
+      <c r="S204">
+        <v>1</v>
+      </c>
+      <c r="T204" t="s">
+        <v>823</v>
+      </c>
+      <c r="U204" t="s">
+        <v>850</v>
+      </c>
+      <c r="V204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:22">
       <c r="A205" s="1" t="s">
         <v>615</v>
       </c>
@@ -12706,8 +17077,50 @@
       <c r="H205" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="206" spans="1:8">
+      <c r="I205" t="s">
+        <v>809</v>
+      </c>
+      <c r="J205" t="s">
+        <v>816</v>
+      </c>
+      <c r="K205" t="s">
+        <v>819</v>
+      </c>
+      <c r="L205" t="s">
+        <v>819</v>
+      </c>
+      <c r="M205" t="s">
+        <v>824</v>
+      </c>
+      <c r="N205" t="s">
+        <v>825</v>
+      </c>
+      <c r="O205">
+        <v>2</v>
+      </c>
+      <c r="P205" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q205" t="s">
+        <v>823</v>
+      </c>
+      <c r="R205" t="s">
+        <v>837</v>
+      </c>
+      <c r="S205">
+        <v>3</v>
+      </c>
+      <c r="T205" t="s">
+        <v>825</v>
+      </c>
+      <c r="U205" t="s">
+        <v>849</v>
+      </c>
+      <c r="V205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:22">
       <c r="A206" s="1" t="s">
         <v>618</v>
       </c>
@@ -12732,8 +17145,50 @@
       <c r="H206" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="207" spans="1:8">
+      <c r="I206" t="s">
+        <v>809</v>
+      </c>
+      <c r="J206" t="s">
+        <v>815</v>
+      </c>
+      <c r="K206" t="s">
+        <v>819</v>
+      </c>
+      <c r="L206" t="s">
+        <v>822</v>
+      </c>
+      <c r="M206" t="s">
+        <v>824</v>
+      </c>
+      <c r="N206" t="s">
+        <v>824</v>
+      </c>
+      <c r="O206">
+        <v>3</v>
+      </c>
+      <c r="P206" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q206" t="s">
+        <v>824</v>
+      </c>
+      <c r="R206" t="s">
+        <v>826</v>
+      </c>
+      <c r="S206">
+        <v>1</v>
+      </c>
+      <c r="T206" t="s">
+        <v>826</v>
+      </c>
+      <c r="U206" t="s">
+        <v>849</v>
+      </c>
+      <c r="V206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:22">
       <c r="A207" s="1" t="s">
         <v>621</v>
       </c>
@@ -12758,34 +17213,118 @@
       <c r="H207" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="208" spans="1:8">
-      <c r="A208" s="1" t="s">
+      <c r="I207" t="s">
+        <v>809</v>
+      </c>
+      <c r="J207" t="s">
+        <v>815</v>
+      </c>
+      <c r="K207" t="s">
+        <v>820</v>
+      </c>
+      <c r="L207" t="s">
+        <v>822</v>
+      </c>
+      <c r="M207" t="s">
+        <v>824</v>
+      </c>
+      <c r="N207" t="s">
+        <v>824</v>
+      </c>
+      <c r="O207">
+        <v>2</v>
+      </c>
+      <c r="P207" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q207" t="s">
+        <v>824</v>
+      </c>
+      <c r="R207" t="s">
+        <v>826</v>
+      </c>
+      <c r="S207">
+        <v>1</v>
+      </c>
+      <c r="T207" t="s">
+        <v>823</v>
+      </c>
+      <c r="U207" t="s">
+        <v>850</v>
+      </c>
+      <c r="V207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:22" s="12" customFormat="1">
+      <c r="A208" s="13" t="s">
         <v>624</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="B208" s="13" t="s">
         <v>625</v>
       </c>
-      <c r="C208" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="E208" s="1" t="s">
+      <c r="C208" s="13" t="s">
+        <v>723</v>
+      </c>
+      <c r="D208" s="13" t="s">
+        <v>724</v>
+      </c>
+      <c r="E208" s="13" t="s">
         <v>731</v>
       </c>
-      <c r="F208" s="1" t="s">
+      <c r="F208" s="13" t="s">
         <v>732</v>
       </c>
-      <c r="G208" s="1" t="s">
+      <c r="G208" s="13" t="s">
         <v>626</v>
       </c>
-      <c r="H208" s="1" t="s">
+      <c r="H208" s="13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="209" spans="1:8">
+      <c r="I208" s="12" t="s">
+        <v>809</v>
+      </c>
+      <c r="J208" s="12" t="s">
+        <v>811</v>
+      </c>
+      <c r="K208" s="12" t="s">
+        <v>820</v>
+      </c>
+      <c r="L208" s="12" t="s">
+        <v>819</v>
+      </c>
+      <c r="M208" s="12" t="s">
+        <v>824</v>
+      </c>
+      <c r="N208" s="12" t="s">
+        <v>825</v>
+      </c>
+      <c r="O208" s="12">
+        <v>1</v>
+      </c>
+      <c r="P208" s="12" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q208" s="12" t="s">
+        <v>825</v>
+      </c>
+      <c r="R208" s="12" t="s">
+        <v>826</v>
+      </c>
+      <c r="S208" s="12">
+        <v>1</v>
+      </c>
+      <c r="T208" s="12" t="s">
+        <v>825</v>
+      </c>
+      <c r="U208" s="12" t="s">
+        <v>850</v>
+      </c>
+      <c r="V208" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:22">
       <c r="A209" s="1" t="s">
         <v>627</v>
       </c>
@@ -12810,8 +17349,50 @@
       <c r="H209" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="210" spans="1:8">
+      <c r="I209" t="s">
+        <v>809</v>
+      </c>
+      <c r="J209" t="s">
+        <v>817</v>
+      </c>
+      <c r="K209" t="s">
+        <v>820</v>
+      </c>
+      <c r="L209" t="s">
+        <v>822</v>
+      </c>
+      <c r="M209" t="s">
+        <v>824</v>
+      </c>
+      <c r="N209" t="s">
+        <v>826</v>
+      </c>
+      <c r="O209">
+        <v>3</v>
+      </c>
+      <c r="P209" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q209" t="s">
+        <v>823</v>
+      </c>
+      <c r="R209" t="s">
+        <v>826</v>
+      </c>
+      <c r="S209">
+        <v>1</v>
+      </c>
+      <c r="T209" t="s">
+        <v>823</v>
+      </c>
+      <c r="U209" t="s">
+        <v>850</v>
+      </c>
+      <c r="V209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:22">
       <c r="A210" s="1" t="s">
         <v>630</v>
       </c>
@@ -12836,8 +17417,50 @@
       <c r="H210" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="211" spans="1:8">
+      <c r="I210" t="s">
+        <v>807</v>
+      </c>
+      <c r="J210" t="s">
+        <v>810</v>
+      </c>
+      <c r="K210" t="s">
+        <v>820</v>
+      </c>
+      <c r="L210" t="s">
+        <v>821</v>
+      </c>
+      <c r="M210" t="s">
+        <v>823</v>
+      </c>
+      <c r="N210" t="s">
+        <v>825</v>
+      </c>
+      <c r="O210">
+        <v>1</v>
+      </c>
+      <c r="P210" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q210" t="s">
+        <v>825</v>
+      </c>
+      <c r="R210" t="s">
+        <v>826</v>
+      </c>
+      <c r="S210">
+        <v>0</v>
+      </c>
+      <c r="T210" t="s">
+        <v>823</v>
+      </c>
+      <c r="U210" t="s">
+        <v>850</v>
+      </c>
+      <c r="V210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:22">
       <c r="A211" s="1" t="s">
         <v>633</v>
       </c>
@@ -12862,34 +17485,118 @@
       <c r="H211" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="212" spans="1:8">
-      <c r="A212" s="1" t="s">
+      <c r="I211" t="s">
+        <v>808</v>
+      </c>
+      <c r="J211" t="s">
+        <v>810</v>
+      </c>
+      <c r="K211" t="s">
+        <v>820</v>
+      </c>
+      <c r="L211" t="s">
+        <v>821</v>
+      </c>
+      <c r="M211" t="s">
+        <v>824</v>
+      </c>
+      <c r="N211" t="s">
+        <v>825</v>
+      </c>
+      <c r="O211">
+        <v>1</v>
+      </c>
+      <c r="P211" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q211" t="s">
+        <v>825</v>
+      </c>
+      <c r="R211" t="s">
+        <v>826</v>
+      </c>
+      <c r="S211">
+        <v>0</v>
+      </c>
+      <c r="T211" t="s">
+        <v>826</v>
+      </c>
+      <c r="U211" t="s">
+        <v>849</v>
+      </c>
+      <c r="V211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:22" s="12" customFormat="1">
+      <c r="A212" s="13" t="s">
         <v>636</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="B212" s="13" t="s">
         <v>637</v>
       </c>
-      <c r="C212" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="E212" s="1" t="s">
+      <c r="C212" s="13" t="s">
+        <v>723</v>
+      </c>
+      <c r="D212" s="13" t="s">
+        <v>724</v>
+      </c>
+      <c r="E212" s="13" t="s">
         <v>725</v>
       </c>
-      <c r="F212" s="1" t="s">
+      <c r="F212" s="13" t="s">
         <v>726</v>
       </c>
-      <c r="G212" s="1" t="s">
+      <c r="G212" s="13" t="s">
         <v>638</v>
       </c>
-      <c r="H212" s="1" t="s">
+      <c r="H212" s="13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="213" spans="1:8">
+      <c r="I212" s="12" t="s">
+        <v>807</v>
+      </c>
+      <c r="J212" s="12" t="s">
+        <v>810</v>
+      </c>
+      <c r="K212" s="12" t="s">
+        <v>820</v>
+      </c>
+      <c r="L212" s="12" t="s">
+        <v>821</v>
+      </c>
+      <c r="M212" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="N212" s="12" t="s">
+        <v>825</v>
+      </c>
+      <c r="O212" s="12">
+        <v>1</v>
+      </c>
+      <c r="P212" s="12" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q212" s="12" t="s">
+        <v>825</v>
+      </c>
+      <c r="R212" s="12" t="s">
+        <v>826</v>
+      </c>
+      <c r="S212" s="12">
+        <v>1</v>
+      </c>
+      <c r="T212" s="12" t="s">
+        <v>825</v>
+      </c>
+      <c r="U212" s="12" t="s">
+        <v>850</v>
+      </c>
+      <c r="V212" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:22">
       <c r="A213" s="1" t="s">
         <v>639</v>
       </c>
@@ -12914,8 +17621,50 @@
       <c r="H213" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="214" spans="1:8">
+      <c r="I213" t="s">
+        <v>809</v>
+      </c>
+      <c r="J213" t="s">
+        <v>810</v>
+      </c>
+      <c r="K213" t="s">
+        <v>820</v>
+      </c>
+      <c r="L213" t="s">
+        <v>821</v>
+      </c>
+      <c r="M213" t="s">
+        <v>824</v>
+      </c>
+      <c r="N213" t="s">
+        <v>825</v>
+      </c>
+      <c r="O213">
+        <v>1</v>
+      </c>
+      <c r="P213" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q213" t="s">
+        <v>824</v>
+      </c>
+      <c r="R213" t="s">
+        <v>837</v>
+      </c>
+      <c r="S213">
+        <v>1</v>
+      </c>
+      <c r="T213" t="s">
+        <v>825</v>
+      </c>
+      <c r="U213" t="s">
+        <v>850</v>
+      </c>
+      <c r="V213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:22">
       <c r="A214" s="1" t="s">
         <v>642</v>
       </c>
@@ -12940,34 +17689,118 @@
       <c r="H214" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="215" spans="1:8">
-      <c r="A215" s="1" t="s">
+      <c r="I214" t="s">
+        <v>807</v>
+      </c>
+      <c r="J214" t="s">
+        <v>810</v>
+      </c>
+      <c r="K214" t="s">
+        <v>820</v>
+      </c>
+      <c r="L214" t="s">
+        <v>821</v>
+      </c>
+      <c r="M214" t="s">
+        <v>825</v>
+      </c>
+      <c r="N214" t="s">
+        <v>825</v>
+      </c>
+      <c r="O214">
+        <v>1</v>
+      </c>
+      <c r="P214" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q214" t="s">
+        <v>825</v>
+      </c>
+      <c r="R214" t="s">
+        <v>826</v>
+      </c>
+      <c r="S214">
+        <v>1</v>
+      </c>
+      <c r="T214" t="s">
+        <v>825</v>
+      </c>
+      <c r="U214" t="s">
+        <v>850</v>
+      </c>
+      <c r="V214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:22" s="12" customFormat="1">
+      <c r="A215" s="13" t="s">
         <v>645</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="B215" s="13" t="s">
         <v>646</v>
       </c>
-      <c r="C215" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="D215" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="E215" s="1" t="s">
+      <c r="C215" s="13" t="s">
+        <v>723</v>
+      </c>
+      <c r="D215" s="13" t="s">
+        <v>724</v>
+      </c>
+      <c r="E215" s="13" t="s">
         <v>725</v>
       </c>
-      <c r="F215" s="1" t="s">
+      <c r="F215" s="13" t="s">
         <v>726</v>
       </c>
-      <c r="G215" s="1" t="s">
+      <c r="G215" s="13" t="s">
         <v>647</v>
       </c>
-      <c r="H215" s="1" t="s">
+      <c r="H215" s="13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="216" spans="1:8">
+      <c r="I215" s="12" t="s">
+        <v>809</v>
+      </c>
+      <c r="J215" s="12" t="s">
+        <v>810</v>
+      </c>
+      <c r="K215" s="12" t="s">
+        <v>820</v>
+      </c>
+      <c r="L215" s="12" t="s">
+        <v>821</v>
+      </c>
+      <c r="M215" s="12" t="s">
+        <v>824</v>
+      </c>
+      <c r="N215" s="12" t="s">
+        <v>825</v>
+      </c>
+      <c r="O215" s="12">
+        <v>1</v>
+      </c>
+      <c r="P215" s="12" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q215" s="12" t="s">
+        <v>825</v>
+      </c>
+      <c r="R215" s="12" t="s">
+        <v>837</v>
+      </c>
+      <c r="S215" s="12">
+        <v>1</v>
+      </c>
+      <c r="T215" s="12" t="s">
+        <v>825</v>
+      </c>
+      <c r="U215" s="12" t="s">
+        <v>850</v>
+      </c>
+      <c r="V215" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:22">
       <c r="A216" s="1" t="s">
         <v>648</v>
       </c>
@@ -12992,8 +17825,50 @@
       <c r="H216" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="217" spans="1:8">
+      <c r="I216" t="s">
+        <v>809</v>
+      </c>
+      <c r="J216" t="s">
+        <v>810</v>
+      </c>
+      <c r="K216" t="s">
+        <v>819</v>
+      </c>
+      <c r="L216" t="s">
+        <v>819</v>
+      </c>
+      <c r="M216" t="s">
+        <v>825</v>
+      </c>
+      <c r="N216" t="s">
+        <v>825</v>
+      </c>
+      <c r="O216">
+        <v>1</v>
+      </c>
+      <c r="P216" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q216" t="s">
+        <v>823</v>
+      </c>
+      <c r="R216" t="s">
+        <v>837</v>
+      </c>
+      <c r="S216">
+        <v>1</v>
+      </c>
+      <c r="T216" t="s">
+        <v>825</v>
+      </c>
+      <c r="U216" t="s">
+        <v>850</v>
+      </c>
+      <c r="V216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:22">
       <c r="A217" s="1" t="s">
         <v>651</v>
       </c>
@@ -13018,8 +17893,50 @@
       <c r="H217" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="218" spans="1:8">
+      <c r="I217" t="s">
+        <v>807</v>
+      </c>
+      <c r="J217" t="s">
+        <v>810</v>
+      </c>
+      <c r="K217" t="s">
+        <v>820</v>
+      </c>
+      <c r="L217" t="s">
+        <v>821</v>
+      </c>
+      <c r="M217" t="s">
+        <v>824</v>
+      </c>
+      <c r="N217" t="s">
+        <v>824</v>
+      </c>
+      <c r="O217">
+        <v>1</v>
+      </c>
+      <c r="P217" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q217" t="s">
+        <v>824</v>
+      </c>
+      <c r="R217" t="s">
+        <v>826</v>
+      </c>
+      <c r="S217">
+        <v>1</v>
+      </c>
+      <c r="T217" t="s">
+        <v>825</v>
+      </c>
+      <c r="U217" t="s">
+        <v>850</v>
+      </c>
+      <c r="V217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:22">
       <c r="A218" s="1" t="s">
         <v>654</v>
       </c>
@@ -13044,8 +17961,50 @@
       <c r="H218" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="219" spans="1:8">
+      <c r="I218" t="s">
+        <v>807</v>
+      </c>
+      <c r="J218" t="s">
+        <v>811</v>
+      </c>
+      <c r="K218" t="s">
+        <v>820</v>
+      </c>
+      <c r="L218" t="s">
+        <v>821</v>
+      </c>
+      <c r="M218" t="s">
+        <v>824</v>
+      </c>
+      <c r="N218" t="s">
+        <v>825</v>
+      </c>
+      <c r="O218">
+        <v>1</v>
+      </c>
+      <c r="P218" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q218" t="s">
+        <v>825</v>
+      </c>
+      <c r="R218" t="s">
+        <v>826</v>
+      </c>
+      <c r="S218">
+        <v>1</v>
+      </c>
+      <c r="T218" t="s">
+        <v>825</v>
+      </c>
+      <c r="U218" t="s">
+        <v>849</v>
+      </c>
+      <c r="V218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:22">
       <c r="A219" s="1" t="s">
         <v>657</v>
       </c>
@@ -13070,8 +18029,50 @@
       <c r="H219" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="220" spans="1:8">
+      <c r="I219" t="s">
+        <v>809</v>
+      </c>
+      <c r="J219" t="s">
+        <v>815</v>
+      </c>
+      <c r="K219" t="s">
+        <v>820</v>
+      </c>
+      <c r="L219" t="s">
+        <v>821</v>
+      </c>
+      <c r="M219" t="s">
+        <v>824</v>
+      </c>
+      <c r="N219" t="s">
+        <v>825</v>
+      </c>
+      <c r="O219">
+        <v>2</v>
+      </c>
+      <c r="P219" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q219" t="s">
+        <v>825</v>
+      </c>
+      <c r="R219" t="s">
+        <v>826</v>
+      </c>
+      <c r="S219">
+        <v>2</v>
+      </c>
+      <c r="T219" t="s">
+        <v>823</v>
+      </c>
+      <c r="U219" t="s">
+        <v>850</v>
+      </c>
+      <c r="V219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:22">
       <c r="A220" s="1" t="s">
         <v>660</v>
       </c>
@@ -13096,8 +18097,50 @@
       <c r="H220" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="221" spans="1:8">
+      <c r="I220" t="s">
+        <v>809</v>
+      </c>
+      <c r="J220" t="s">
+        <v>811</v>
+      </c>
+      <c r="K220" t="s">
+        <v>820</v>
+      </c>
+      <c r="L220" t="s">
+        <v>822</v>
+      </c>
+      <c r="M220" t="s">
+        <v>824</v>
+      </c>
+      <c r="N220" t="s">
+        <v>823</v>
+      </c>
+      <c r="O220">
+        <v>3</v>
+      </c>
+      <c r="P220" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q220" t="s">
+        <v>824</v>
+      </c>
+      <c r="R220" t="s">
+        <v>826</v>
+      </c>
+      <c r="S220">
+        <v>2</v>
+      </c>
+      <c r="T220" t="s">
+        <v>825</v>
+      </c>
+      <c r="U220" t="s">
+        <v>850</v>
+      </c>
+      <c r="V220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:22">
       <c r="A221" s="1" t="s">
         <v>663</v>
       </c>
@@ -13122,8 +18165,50 @@
       <c r="H221" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="222" spans="1:8">
+      <c r="I221" t="s">
+        <v>809</v>
+      </c>
+      <c r="J221" t="s">
+        <v>810</v>
+      </c>
+      <c r="K221" t="s">
+        <v>819</v>
+      </c>
+      <c r="L221" t="s">
+        <v>819</v>
+      </c>
+      <c r="M221" t="s">
+        <v>823</v>
+      </c>
+      <c r="N221" t="s">
+        <v>823</v>
+      </c>
+      <c r="O221">
+        <v>1</v>
+      </c>
+      <c r="P221" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q221" t="s">
+        <v>823</v>
+      </c>
+      <c r="R221" t="s">
+        <v>826</v>
+      </c>
+      <c r="S221">
+        <v>1</v>
+      </c>
+      <c r="T221" t="s">
+        <v>825</v>
+      </c>
+      <c r="U221" t="s">
+        <v>850</v>
+      </c>
+      <c r="V221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:22">
       <c r="A222" s="1" t="s">
         <v>666</v>
       </c>
@@ -13148,8 +18233,50 @@
       <c r="H222" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="223" spans="1:8">
+      <c r="I222" t="s">
+        <v>807</v>
+      </c>
+      <c r="J222" t="s">
+        <v>810</v>
+      </c>
+      <c r="K222" t="s">
+        <v>820</v>
+      </c>
+      <c r="L222" t="s">
+        <v>821</v>
+      </c>
+      <c r="M222" t="s">
+        <v>824</v>
+      </c>
+      <c r="N222" t="s">
+        <v>825</v>
+      </c>
+      <c r="O222">
+        <v>1</v>
+      </c>
+      <c r="P222" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q222" t="s">
+        <v>825</v>
+      </c>
+      <c r="R222" t="s">
+        <v>837</v>
+      </c>
+      <c r="S222">
+        <v>1</v>
+      </c>
+      <c r="T222" t="s">
+        <v>819</v>
+      </c>
+      <c r="U222" t="s">
+        <v>849</v>
+      </c>
+      <c r="V222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:22">
       <c r="A223" s="1" t="s">
         <v>669</v>
       </c>
@@ -13174,8 +18301,50 @@
       <c r="H223" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="224" spans="1:8">
+      <c r="I223" t="s">
+        <v>809</v>
+      </c>
+      <c r="J223" t="s">
+        <v>810</v>
+      </c>
+      <c r="K223" t="s">
+        <v>820</v>
+      </c>
+      <c r="L223" t="s">
+        <v>821</v>
+      </c>
+      <c r="M223" t="s">
+        <v>824</v>
+      </c>
+      <c r="N223" t="s">
+        <v>825</v>
+      </c>
+      <c r="O223">
+        <v>1</v>
+      </c>
+      <c r="P223" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q223" t="s">
+        <v>825</v>
+      </c>
+      <c r="R223" t="s">
+        <v>837</v>
+      </c>
+      <c r="S223">
+        <v>1</v>
+      </c>
+      <c r="T223" t="s">
+        <v>825</v>
+      </c>
+      <c r="U223" t="s">
+        <v>850</v>
+      </c>
+      <c r="V223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:22">
       <c r="A224" s="1" t="s">
         <v>672</v>
       </c>
@@ -13199,6 +18368,48 @@
       </c>
       <c r="H224" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I224" t="s">
+        <v>809</v>
+      </c>
+      <c r="J224" t="s">
+        <v>810</v>
+      </c>
+      <c r="K224" t="s">
+        <v>819</v>
+      </c>
+      <c r="L224" t="s">
+        <v>822</v>
+      </c>
+      <c r="M224" t="s">
+        <v>824</v>
+      </c>
+      <c r="N224" t="s">
+        <v>826</v>
+      </c>
+      <c r="O224">
+        <v>1</v>
+      </c>
+      <c r="P224" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q224" t="s">
+        <v>823</v>
+      </c>
+      <c r="R224" t="s">
+        <v>819</v>
+      </c>
+      <c r="S224">
+        <v>1</v>
+      </c>
+      <c r="T224" t="s">
+        <v>823</v>
+      </c>
+      <c r="U224" t="s">
+        <v>850</v>
+      </c>
+      <c r="V224">
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:22">
@@ -13226,6 +18437,48 @@
       <c r="H225" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="I225" t="s">
+        <v>807</v>
+      </c>
+      <c r="J225" t="s">
+        <v>811</v>
+      </c>
+      <c r="K225" t="s">
+        <v>820</v>
+      </c>
+      <c r="L225" t="s">
+        <v>821</v>
+      </c>
+      <c r="M225" t="s">
+        <v>823</v>
+      </c>
+      <c r="N225" t="s">
+        <v>825</v>
+      </c>
+      <c r="O225">
+        <v>1</v>
+      </c>
+      <c r="P225" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q225" t="s">
+        <v>825</v>
+      </c>
+      <c r="R225" t="s">
+        <v>826</v>
+      </c>
+      <c r="S225">
+        <v>0</v>
+      </c>
+      <c r="T225" t="s">
+        <v>819</v>
+      </c>
+      <c r="U225" t="s">
+        <v>850</v>
+      </c>
+      <c r="V225">
+        <v>1</v>
+      </c>
     </row>
     <row r="226" spans="1:22">
       <c r="A226" s="1" t="s">
@@ -13251,6 +18504,48 @@
       </c>
       <c r="H226" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="I226" t="s">
+        <v>809</v>
+      </c>
+      <c r="J226" t="s">
+        <v>811</v>
+      </c>
+      <c r="K226" t="s">
+        <v>819</v>
+      </c>
+      <c r="L226" t="s">
+        <v>819</v>
+      </c>
+      <c r="M226" t="s">
+        <v>823</v>
+      </c>
+      <c r="N226" t="s">
+        <v>826</v>
+      </c>
+      <c r="O226">
+        <v>2</v>
+      </c>
+      <c r="P226" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q226" t="s">
+        <v>823</v>
+      </c>
+      <c r="R226" t="s">
+        <v>826</v>
+      </c>
+      <c r="S226">
+        <v>0</v>
+      </c>
+      <c r="T226" t="s">
+        <v>826</v>
+      </c>
+      <c r="U226" t="s">
+        <v>850</v>
+      </c>
+      <c r="V226">
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:22">

--- a/src/Input/plant.xlsx
+++ b/src/Input/plant.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\2023HiMCM\src\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61416249-FBF1-4E8F-B2FD-B0799F10CD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B0F156-0BE9-4ED6-BF9B-FCDBFD4FF2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Plants" sheetId="1" r:id="rId1"/>
-    <sheet name="AHP" sheetId="2" r:id="rId2"/>
-    <sheet name="Help" sheetId="3" r:id="rId3"/>
+    <sheet name="Plant At Location" sheetId="4" r:id="rId2"/>
+    <sheet name="AHP" sheetId="2" r:id="rId3"/>
+    <sheet name="Help" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Plants'!$A$1:$W$227</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4723" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5038" uniqueCount="874">
   <si>
     <t>scientificName</t>
   </si>
@@ -2686,6 +2687,22 @@
   </si>
   <si>
     <t>Impact factor</t>
+  </si>
+  <si>
+    <t>Location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>State</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2728,7 +2745,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2777,8 +2794,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2801,12 +2824,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2841,6 +2875,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3214,9 +3251,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W227"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A227" sqref="A227:XFD227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -19474,11 +19511,1273 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB99CE73-EB40-4BA3-BA00-617790B0D471}">
+  <dimension ref="A1:AC16"/>
+  <sheetViews>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.625" customWidth="1"/>
+    <col min="29" max="29" width="9.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="14.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>853</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="AB1" s="14" t="s">
+        <v>870</v>
+      </c>
+      <c r="AC1" s="14" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>808</v>
+      </c>
+      <c r="J2" t="s">
+        <v>809</v>
+      </c>
+      <c r="K2" t="s">
+        <v>819</v>
+      </c>
+      <c r="L2" t="s">
+        <v>820</v>
+      </c>
+      <c r="M2" t="s">
+        <v>824</v>
+      </c>
+      <c r="N2" t="s">
+        <v>824</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>824</v>
+      </c>
+      <c r="R2" t="s">
+        <v>818</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s">
+        <v>818</v>
+      </c>
+      <c r="U2" t="s">
+        <v>849</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>808</v>
+      </c>
+      <c r="J3" t="s">
+        <v>809</v>
+      </c>
+      <c r="K3" t="s">
+        <v>819</v>
+      </c>
+      <c r="L3" t="s">
+        <v>820</v>
+      </c>
+      <c r="M3" t="s">
+        <v>824</v>
+      </c>
+      <c r="N3" t="s">
+        <v>824</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>824</v>
+      </c>
+      <c r="R3" t="s">
+        <v>818</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s">
+        <v>818</v>
+      </c>
+      <c r="U3" t="s">
+        <v>849</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>808</v>
+      </c>
+      <c r="J4" t="s">
+        <v>809</v>
+      </c>
+      <c r="K4" t="s">
+        <v>819</v>
+      </c>
+      <c r="L4" t="s">
+        <v>820</v>
+      </c>
+      <c r="M4" t="s">
+        <v>824</v>
+      </c>
+      <c r="N4" t="s">
+        <v>824</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>824</v>
+      </c>
+      <c r="R4" t="s">
+        <v>818</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s">
+        <v>818</v>
+      </c>
+      <c r="U4" t="s">
+        <v>849</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="J5" t="s">
+        <v>815</v>
+      </c>
+      <c r="K5" t="s">
+        <v>819</v>
+      </c>
+      <c r="L5" t="s">
+        <v>820</v>
+      </c>
+      <c r="M5" t="s">
+        <v>822</v>
+      </c>
+      <c r="N5" t="s">
+        <v>824</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="P5" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>824</v>
+      </c>
+      <c r="R5" t="s">
+        <v>818</v>
+      </c>
+      <c r="S5">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s">
+        <v>822</v>
+      </c>
+      <c r="U5" t="s">
+        <v>849</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5" s="1"/>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="J6" t="s">
+        <v>815</v>
+      </c>
+      <c r="K6" t="s">
+        <v>819</v>
+      </c>
+      <c r="L6" t="s">
+        <v>820</v>
+      </c>
+      <c r="M6" t="s">
+        <v>822</v>
+      </c>
+      <c r="N6" t="s">
+        <v>824</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>824</v>
+      </c>
+      <c r="R6" t="s">
+        <v>818</v>
+      </c>
+      <c r="S6">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s">
+        <v>822</v>
+      </c>
+      <c r="U6" t="s">
+        <v>849</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6" s="1"/>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="J7" t="s">
+        <v>815</v>
+      </c>
+      <c r="K7" t="s">
+        <v>819</v>
+      </c>
+      <c r="L7" t="s">
+        <v>820</v>
+      </c>
+      <c r="M7" t="s">
+        <v>822</v>
+      </c>
+      <c r="N7" t="s">
+        <v>824</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>824</v>
+      </c>
+      <c r="R7" t="s">
+        <v>818</v>
+      </c>
+      <c r="S7">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s">
+        <v>822</v>
+      </c>
+      <c r="U7" t="s">
+        <v>849</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>806</v>
+      </c>
+      <c r="J8" t="s">
+        <v>809</v>
+      </c>
+      <c r="K8" t="s">
+        <v>819</v>
+      </c>
+      <c r="L8" t="s">
+        <v>820</v>
+      </c>
+      <c r="M8" t="s">
+        <v>822</v>
+      </c>
+      <c r="N8" t="s">
+        <v>824</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>824</v>
+      </c>
+      <c r="R8" t="s">
+        <v>825</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8" t="s">
+        <v>822</v>
+      </c>
+      <c r="U8" t="s">
+        <v>849</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1"/>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
+        <v>806</v>
+      </c>
+      <c r="J9" t="s">
+        <v>809</v>
+      </c>
+      <c r="K9" t="s">
+        <v>819</v>
+      </c>
+      <c r="L9" t="s">
+        <v>820</v>
+      </c>
+      <c r="M9" t="s">
+        <v>822</v>
+      </c>
+      <c r="N9" t="s">
+        <v>824</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>824</v>
+      </c>
+      <c r="R9" t="s">
+        <v>825</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9" t="s">
+        <v>822</v>
+      </c>
+      <c r="U9" t="s">
+        <v>849</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1"/>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>806</v>
+      </c>
+      <c r="J10" t="s">
+        <v>809</v>
+      </c>
+      <c r="K10" t="s">
+        <v>819</v>
+      </c>
+      <c r="L10" t="s">
+        <v>820</v>
+      </c>
+      <c r="M10" t="s">
+        <v>822</v>
+      </c>
+      <c r="N10" t="s">
+        <v>824</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>824</v>
+      </c>
+      <c r="R10" t="s">
+        <v>825</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10" t="s">
+        <v>822</v>
+      </c>
+      <c r="U10" t="s">
+        <v>849</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1"/>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="A11" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>808</v>
+      </c>
+      <c r="J11" t="s">
+        <v>809</v>
+      </c>
+      <c r="K11" t="s">
+        <v>819</v>
+      </c>
+      <c r="L11" t="s">
+        <v>820</v>
+      </c>
+      <c r="M11" t="s">
+        <v>822</v>
+      </c>
+      <c r="N11" t="s">
+        <v>824</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>824</v>
+      </c>
+      <c r="R11" t="s">
+        <v>825</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11" t="s">
+        <v>822</v>
+      </c>
+      <c r="U11" t="s">
+        <v>848</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11" s="1"/>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>808</v>
+      </c>
+      <c r="J12" t="s">
+        <v>809</v>
+      </c>
+      <c r="K12" t="s">
+        <v>819</v>
+      </c>
+      <c r="L12" t="s">
+        <v>820</v>
+      </c>
+      <c r="M12" t="s">
+        <v>822</v>
+      </c>
+      <c r="N12" t="s">
+        <v>824</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>824</v>
+      </c>
+      <c r="R12" t="s">
+        <v>825</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12" t="s">
+        <v>822</v>
+      </c>
+      <c r="U12" t="s">
+        <v>848</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="A13" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>808</v>
+      </c>
+      <c r="J13" t="s">
+        <v>809</v>
+      </c>
+      <c r="K13" t="s">
+        <v>819</v>
+      </c>
+      <c r="L13" t="s">
+        <v>820</v>
+      </c>
+      <c r="M13" t="s">
+        <v>822</v>
+      </c>
+      <c r="N13" t="s">
+        <v>824</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>824</v>
+      </c>
+      <c r="R13" t="s">
+        <v>825</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13" t="s">
+        <v>822</v>
+      </c>
+      <c r="U13" t="s">
+        <v>848</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13" s="1"/>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="A14" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" t="s">
+        <v>808</v>
+      </c>
+      <c r="J14" t="s">
+        <v>814</v>
+      </c>
+      <c r="K14" t="s">
+        <v>817</v>
+      </c>
+      <c r="L14" t="s">
+        <v>821</v>
+      </c>
+      <c r="M14" t="s">
+        <v>823</v>
+      </c>
+      <c r="N14" t="s">
+        <v>825</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="P14" t="s">
+        <v>825</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>822</v>
+      </c>
+      <c r="R14" t="s">
+        <v>825</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s">
+        <v>822</v>
+      </c>
+      <c r="U14" t="s">
+        <v>849</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14" s="1"/>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="A15" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" t="s">
+        <v>808</v>
+      </c>
+      <c r="J15" t="s">
+        <v>814</v>
+      </c>
+      <c r="K15" t="s">
+        <v>817</v>
+      </c>
+      <c r="L15" t="s">
+        <v>821</v>
+      </c>
+      <c r="M15" t="s">
+        <v>823</v>
+      </c>
+      <c r="N15" t="s">
+        <v>825</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15" t="s">
+        <v>825</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>822</v>
+      </c>
+      <c r="R15" t="s">
+        <v>825</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s">
+        <v>822</v>
+      </c>
+      <c r="U15" t="s">
+        <v>849</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15" s="1"/>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" t="s">
+        <v>808</v>
+      </c>
+      <c r="J16" t="s">
+        <v>814</v>
+      </c>
+      <c r="K16" t="s">
+        <v>817</v>
+      </c>
+      <c r="L16" t="s">
+        <v>821</v>
+      </c>
+      <c r="M16" t="s">
+        <v>823</v>
+      </c>
+      <c r="N16" t="s">
+        <v>825</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16" t="s">
+        <v>825</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>822</v>
+      </c>
+      <c r="R16" t="s">
+        <v>825</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s">
+        <v>822</v>
+      </c>
+      <c r="U16" t="s">
+        <v>849</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G5" r:id="rId1" xr:uid="{6AE5B140-7AC6-4B32-871A-93E7303764DE}"/>
+    <hyperlink ref="G6" r:id="rId2" xr:uid="{D1A2EC6C-2D03-4F24-9E8C-B4FB1840A20E}"/>
+    <hyperlink ref="G7" r:id="rId3" xr:uid="{412FEADF-B0A7-4476-8B48-DF764964D6C4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="14">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{86F1F46C-89A2-4087-9176-9DE9E8603EAE}">
+          <x14:formula1>
+            <xm:f>Help!$L$2:$L$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>T2:T16</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{794B0967-4489-4EE6-8BF8-73471F8D3948}">
+          <x14:formula1>
+            <xm:f>Help!$N$4:$N$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>V2:V16</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{846F87BD-B583-4816-A9C2-E519F7299FDE}">
+          <x14:formula1>
+            <xm:f>Help!$M$2:$M$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>U2:U16</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0A461822-AF32-4D0E-98F7-FA3CDBA5D0AD}">
+          <x14:formula1>
+            <xm:f>Help!$G$12:$G$21</xm:f>
+          </x14:formula1>
+          <xm:sqref>O2:O16</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{406419F7-7080-4208-8575-11F128F6E78E}">
+          <x14:formula1>
+            <xm:f>Help!$K$12:$K$21</xm:f>
+          </x14:formula1>
+          <xm:sqref>S2:S16</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BBC654D1-503E-4563-B603-C5D9FC994937}">
+          <x14:formula1>
+            <xm:f>Help!$J$2:$J$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>R2:R16</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{73188403-1363-4C54-ACB8-5AA1B487F9B4}">
+          <x14:formula1>
+            <xm:f>Help!$I$2:$I$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>Q2:Q16</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{11701906-BA14-4F06-824F-EC5736A8346C}">
+          <x14:formula1>
+            <xm:f>Help!$H$2:$H$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>P2:P16</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{39C659EA-AF88-433B-8188-CB4252D4046E}">
+          <x14:formula1>
+            <xm:f>Help!$F$2:$F$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>N2:N16</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{12FEA3B4-CD6B-4F99-9D9D-025E7ACF8FA4}">
+          <x14:formula1>
+            <xm:f>Help!$E$2:$E$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>M2:M16</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E84BE79B-1FC4-4555-9986-920D38D34DDD}">
+          <x14:formula1>
+            <xm:f>Help!$D$2:$D$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>L2:L16</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C3BF7B39-931F-4DAB-8706-72D4452FA33E}">
+          <x14:formula1>
+            <xm:f>Help!$C$2:$C$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>K2:K16</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{91AE7160-217A-4574-897C-CCB517CDCBDF}">
+          <x14:formula1>
+            <xm:f>Help!$B$2:$B$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>J2:J16</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C06F8FD9-6EED-469D-8819-1102B3F7331D}">
+          <x14:formula1>
+            <xm:f>Help!$A$2:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2:I16</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BCF5F2-BA30-41A7-974D-D595D0CE2C81}">
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A19"/>
+      <selection activeCell="P1" sqref="P1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="38.25" customHeight="1"/>
@@ -20630,12 +21929,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332839ED-56B9-4FA1-9A11-3B9815BDFF4B}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.625" defaultRowHeight="13.5"/>
@@ -20949,7 +22248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="7:11">
+    <row r="17" spans="6:11">
       <c r="G17">
         <v>5</v>
       </c>
@@ -20957,7 +22256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="7:11">
+    <row r="18" spans="6:11">
       <c r="G18">
         <v>6</v>
       </c>
@@ -20965,7 +22264,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="7:11">
+    <row r="19" spans="6:11">
       <c r="G19">
         <v>7</v>
       </c>
@@ -20973,7 +22272,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="7:11">
+    <row r="20" spans="6:11">
       <c r="G20">
         <v>8</v>
       </c>
@@ -20981,12 +22280,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="7:11">
+    <row r="21" spans="6:11">
       <c r="G21">
         <v>9</v>
       </c>
       <c r="K21">
         <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="6:11">
+      <c r="F29" t="s">
+        <v>872</v>
+      </c>
+      <c r="G29" t="s">
+        <v>873</v>
       </c>
     </row>
   </sheetData>

--- a/src/Input/plant.xlsx
+++ b/src/Input/plant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\2023HiMCM\src\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B0F156-0BE9-4ED6-BF9B-FCDBFD4FF2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA17EFF-0C60-4611-BA94-B57C76DD9A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5038" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5060" uniqueCount="878">
   <si>
     <t>scientificName</t>
   </si>
@@ -2702,6 +2702,20 @@
   </si>
   <si>
     <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temperature, Minimum</t>
+  </si>
+  <si>
+    <t>Drought Tolerance</t>
+  </si>
+  <si>
+    <t>Soil Adaption</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fine, Medium</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2709,7 +2723,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2743,6 +2757,12 @@
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -2840,7 +2860,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2880,6 +2900,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2909,7 +2930,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:colOff>895350</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -3251,7 +3272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W227"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A227" sqref="A227:XFD227"/>
     </sheetView>
@@ -19512,10 +19533,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB99CE73-EB40-4BA3-BA00-617790B0D471}">
-  <dimension ref="A1:AC16"/>
+  <dimension ref="A1:AE16"/>
   <sheetViews>
     <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+      <selection activeCell="W1" sqref="W1:Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -19546,11 +19567,12 @@
     <col min="24" max="24" width="19.875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="14.375" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.625" customWidth="1"/>
-    <col min="29" max="29" width="9.375" customWidth="1"/>
+    <col min="27" max="29" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.625" customWidth="1"/>
+    <col min="31" max="31" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.25">
+    <row r="1" spans="1:31" ht="14.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -19629,14 +19651,23 @@
       <c r="Z1" s="6" t="s">
         <v>699</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AA1" s="15" t="s">
+        <v>874</v>
+      </c>
+      <c r="AB1" s="15" t="s">
+        <v>875</v>
+      </c>
+      <c r="AC1" s="15" t="s">
+        <v>876</v>
+      </c>
+      <c r="AD1" s="14" t="s">
         <v>870</v>
       </c>
-      <c r="AC1" s="14" t="s">
+      <c r="AE1" s="14" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:31">
       <c r="A2" s="1" t="s">
         <v>413</v>
       </c>
@@ -19704,8 +19735,17 @@
         <v>1</v>
       </c>
       <c r="W2" s="1"/>
-    </row>
-    <row r="3" spans="1:29">
+      <c r="AA2">
+        <v>-39</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>852</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
       <c r="A3" s="1" t="s">
         <v>413</v>
       </c>
@@ -19773,8 +19813,17 @@
         <v>1</v>
       </c>
       <c r="W3" s="1"/>
-    </row>
-    <row r="4" spans="1:29">
+      <c r="AA3">
+        <v>-39</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>852</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
       <c r="A4" s="1" t="s">
         <v>413</v>
       </c>
@@ -19842,8 +19891,17 @@
         <v>1</v>
       </c>
       <c r="W4" s="1"/>
-    </row>
-    <row r="5" spans="1:29">
+      <c r="AA4">
+        <v>-39</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>852</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
@@ -19912,7 +19970,7 @@
       </c>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:31">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -19981,7 +20039,7 @@
       </c>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:31">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -20050,7 +20108,7 @@
       </c>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:31">
       <c r="A8" s="1" t="s">
         <v>629</v>
       </c>
@@ -20119,7 +20177,7 @@
       </c>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:31">
       <c r="A9" s="1" t="s">
         <v>629</v>
       </c>
@@ -20188,7 +20246,7 @@
       </c>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:31">
       <c r="A10" s="1" t="s">
         <v>629</v>
       </c>
@@ -20257,7 +20315,7 @@
       </c>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:31">
       <c r="A11" s="1" t="s">
         <v>680</v>
       </c>
@@ -20326,7 +20384,7 @@
       </c>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:31">
       <c r="A12" s="1" t="s">
         <v>680</v>
       </c>
@@ -20395,7 +20453,7 @@
       </c>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:31">
       <c r="A13" s="1" t="s">
         <v>680</v>
       </c>
@@ -20464,7 +20522,7 @@
       </c>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:31">
       <c r="A14" s="1" t="s">
         <v>479</v>
       </c>
@@ -20533,7 +20591,7 @@
       </c>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:31">
       <c r="A15" s="1" t="s">
         <v>479</v>
       </c>
@@ -20602,7 +20660,7 @@
       </c>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:31">
       <c r="A16" s="1" t="s">
         <v>479</v>
       </c>
@@ -21931,25 +21989,35 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332839ED-56B9-4FA1-9A11-3B9815BDFF4B}">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.625" customWidth="1"/>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.125" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="21.375" customWidth="1"/>
-    <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="14" max="14" width="30" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.25">
+    <row r="1" spans="1:18" ht="14.25">
       <c r="A1" s="4" t="s">
         <v>682</v>
       </c>
@@ -21992,8 +22060,20 @@
       <c r="N1" s="5" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>806</v>
       </c>
@@ -22036,8 +22116,17 @@
       <c r="N2" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" t="s">
+        <v>822</v>
+      </c>
+      <c r="P2" t="s">
+        <v>822</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>807</v>
       </c>
@@ -22080,8 +22169,17 @@
       <c r="N3" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" t="s">
+        <v>823</v>
+      </c>
+      <c r="P3" t="s">
+        <v>823</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>808</v>
       </c>
@@ -22121,8 +22219,17 @@
       <c r="N4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" t="s">
+        <v>824</v>
+      </c>
+      <c r="P4" t="s">
+        <v>824</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="B5" t="s">
         <v>812</v>
       </c>
@@ -22148,7 +22255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:18">
       <c r="B6" t="s">
         <v>813</v>
       </c>
@@ -22159,7 +22266,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:18">
       <c r="B7" t="s">
         <v>814</v>
       </c>
@@ -22170,7 +22277,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:18">
       <c r="B8" t="s">
         <v>815</v>
       </c>
@@ -22181,7 +22288,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:18">
       <c r="B9" t="s">
         <v>816</v>
       </c>
@@ -22192,7 +22299,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:18">
       <c r="G10" s="10" t="s">
         <v>834</v>
       </c>
@@ -22200,7 +22307,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:18">
       <c r="G11" s="10" t="s">
         <v>835</v>
       </c>
@@ -22208,7 +22315,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:18">
       <c r="G12">
         <v>0</v>
       </c>
@@ -22216,7 +22323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:18">
       <c r="G13">
         <v>1</v>
       </c>
@@ -22224,7 +22331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:18">
       <c r="G14">
         <v>2</v>
       </c>
@@ -22232,7 +22339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:18">
       <c r="G15">
         <v>3</v>
       </c>
@@ -22240,7 +22347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:18">
       <c r="G16">
         <v>4</v>
       </c>
@@ -22294,6 +22401,24 @@
       </c>
       <c r="G29" t="s">
         <v>873</v>
+      </c>
+    </row>
+    <row r="30" spans="6:11">
+      <c r="F30">
+        <v>-38</v>
+      </c>
+      <c r="G30">
+        <f>(F30-32)*5/9</f>
+        <v>-38.888888888888886</v>
+      </c>
+    </row>
+    <row r="31" spans="6:11">
+      <c r="F31">
+        <v>97</v>
+      </c>
+      <c r="G31">
+        <f>(F31-32)*5/9</f>
+        <v>36.111111111111114</v>
       </c>
     </row>
   </sheetData>

--- a/src/Input/plant.xlsx
+++ b/src/Input/plant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\2023HiMCM\src\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA17EFF-0C60-4611-BA94-B57C76DD9A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE349B2-D102-4304-A6F7-56A5F7D6EC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Plants" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5060" uniqueCount="878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5173" uniqueCount="887">
   <si>
     <t>scientificName</t>
   </si>
@@ -2689,10 +2689,6 @@
     <t>Impact factor</t>
   </si>
   <si>
-    <t>Location</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>State</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2716,6 +2712,46 @@
   </si>
   <si>
     <t>Fine, Medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coarse, Fine, Medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coarse, Medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temperature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15-26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-23</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2860,7 +2896,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2901,6 +2937,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3272,9 +3309,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W227"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A227" sqref="A227:XFD227"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -19440,7 +19477,7 @@
   <pageSetup orientation="portrait" r:id="rId7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="14">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="14">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{42764FDD-458C-4BC7-BEC5-7A129C4BD67A}">
           <x14:formula1>
             <xm:f>Help!$A$2:$A$4</xm:f>
@@ -19533,10 +19570,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB99CE73-EB40-4BA3-BA00-617790B0D471}">
-  <dimension ref="A1:AE16"/>
+  <dimension ref="A1:AF16"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:Z1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD28" sqref="AD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -19568,11 +19606,12 @@
     <col min="25" max="25" width="14.375" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="17.875" bestFit="1" customWidth="1"/>
     <col min="27" max="29" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.625" customWidth="1"/>
-    <col min="31" max="31" width="9.375" customWidth="1"/>
+    <col min="30" max="30" width="9.375" customWidth="1"/>
+    <col min="31" max="31" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="14.25">
+    <row r="1" spans="1:32" ht="14.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -19652,22 +19691,25 @@
         <v>699</v>
       </c>
       <c r="AA1" s="15" t="s">
+        <v>873</v>
+      </c>
+      <c r="AB1" s="15" t="s">
         <v>874</v>
       </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AC1" s="15" t="s">
         <v>875</v>
-      </c>
-      <c r="AC1" s="15" t="s">
-        <v>876</v>
       </c>
       <c r="AD1" s="14" t="s">
         <v>870</v>
       </c>
       <c r="AE1" s="14" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31">
+        <v>884</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
       <c r="A2" s="1" t="s">
         <v>413</v>
       </c>
@@ -19734,7 +19776,18 @@
       <c r="V2">
         <v>1</v>
       </c>
-      <c r="W2" s="1"/>
+      <c r="W2" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="X2" t="s">
+        <v>822</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>823</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>822</v>
+      </c>
       <c r="AA2">
         <v>-39</v>
       </c>
@@ -19742,10 +19795,19 @@
         <v>852</v>
       </c>
       <c r="AC2" t="s">
+        <v>876</v>
+      </c>
+      <c r="AD2" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="3" spans="1:31">
+      <c r="AE2" s="16">
+        <v>-34</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>77.105587104977502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32">
       <c r="A3" s="1" t="s">
         <v>413</v>
       </c>
@@ -19812,7 +19874,18 @@
       <c r="V3">
         <v>1</v>
       </c>
-      <c r="W3" s="1"/>
+      <c r="W3" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="X3" t="s">
+        <v>823</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>824</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>824</v>
+      </c>
       <c r="AA3">
         <v>-39</v>
       </c>
@@ -19820,10 +19893,19 @@
         <v>852</v>
       </c>
       <c r="AC3" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31">
+        <v>876</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>878</v>
+      </c>
+      <c r="AE3" s="16" t="s">
+        <v>885</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>80.246105406143798</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32">
       <c r="A4" s="1" t="s">
         <v>413</v>
       </c>
@@ -19890,7 +19972,18 @@
       <c r="V4">
         <v>1</v>
       </c>
-      <c r="W4" s="1"/>
+      <c r="W4" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="X4" t="s">
+        <v>824</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>822</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>822</v>
+      </c>
       <c r="AA4">
         <v>-39</v>
       </c>
@@ -19898,10 +19991,19 @@
         <v>852</v>
       </c>
       <c r="AC4" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31">
+        <v>876</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>879</v>
+      </c>
+      <c r="AE4" s="16" t="s">
+        <v>886</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>77.105587104977502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
@@ -19968,9 +20070,38 @@
       <c r="V5">
         <v>1</v>
       </c>
-      <c r="W5" s="1"/>
-    </row>
-    <row r="6" spans="1:31">
+      <c r="W5" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="X5" t="s">
+        <v>822</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>823</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>822</v>
+      </c>
+      <c r="AA5">
+        <v>-27</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>881</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>880</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>877</v>
+      </c>
+      <c r="AE5" s="16">
+        <v>-34</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>72.316669714999307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -20037,9 +20168,38 @@
       <c r="V6">
         <v>1</v>
       </c>
-      <c r="W6" s="1"/>
-    </row>
-    <row r="7" spans="1:31">
+      <c r="W6" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="X6" t="s">
+        <v>823</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>824</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>824</v>
+      </c>
+      <c r="AA6">
+        <v>-27</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>881</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>880</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>878</v>
+      </c>
+      <c r="AE6" s="16" t="s">
+        <v>885</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>80.687109031491502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -20106,9 +20266,38 @@
       <c r="V7">
         <v>1</v>
       </c>
-      <c r="W7" s="1"/>
-    </row>
-    <row r="8" spans="1:31">
+      <c r="W7" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="X7" t="s">
+        <v>824</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>822</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>822</v>
+      </c>
+      <c r="AA7">
+        <v>-27</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>881</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>880</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>879</v>
+      </c>
+      <c r="AE7" s="16" t="s">
+        <v>886</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>74.931630222662307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32">
       <c r="A8" s="1" t="s">
         <v>629</v>
       </c>
@@ -20175,9 +20364,38 @@
       <c r="V8">
         <v>0</v>
       </c>
-      <c r="W8" s="1"/>
-    </row>
-    <row r="9" spans="1:31">
+      <c r="W8" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="X8" t="s">
+        <v>822</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>823</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>822</v>
+      </c>
+      <c r="AA8">
+        <v>-33</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>852</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>880</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>877</v>
+      </c>
+      <c r="AE8" s="16">
+        <v>-34</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>64.627601085086994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32">
       <c r="A9" s="1" t="s">
         <v>629</v>
       </c>
@@ -20244,9 +20462,38 @@
       <c r="V9">
         <v>0</v>
       </c>
-      <c r="W9" s="1"/>
-    </row>
-    <row r="10" spans="1:31">
+      <c r="W9" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="X9" t="s">
+        <v>824</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>824</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>824</v>
+      </c>
+      <c r="AA9">
+        <v>-33</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>852</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>880</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>878</v>
+      </c>
+      <c r="AE9" s="16" t="s">
+        <v>885</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>70.383079893916204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32">
       <c r="A10" s="1" t="s">
         <v>629</v>
       </c>
@@ -20313,9 +20560,38 @@
       <c r="V10">
         <v>0</v>
       </c>
-      <c r="W10" s="1"/>
-    </row>
-    <row r="11" spans="1:31">
+      <c r="W10" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="X10" t="s">
+        <v>823</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>822</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>822</v>
+      </c>
+      <c r="AA10">
+        <v>-33</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>852</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>880</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>879</v>
+      </c>
+      <c r="AE10" s="16" t="s">
+        <v>886</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>64.627601085086994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32">
       <c r="A11" s="1" t="s">
         <v>680</v>
       </c>
@@ -20382,9 +20658,38 @@
       <c r="V11">
         <v>1</v>
       </c>
-      <c r="W11" s="1"/>
-    </row>
-    <row r="12" spans="1:31">
+      <c r="W11" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="X11" t="s">
+        <v>822</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>823</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>822</v>
+      </c>
+      <c r="AA11">
+        <v>-39</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>881</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>880</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>877</v>
+      </c>
+      <c r="AE11" s="16">
+        <v>-34</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>62.295397366888501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32">
       <c r="A12" s="1" t="s">
         <v>680</v>
       </c>
@@ -20451,9 +20756,38 @@
       <c r="V12">
         <v>1</v>
       </c>
-      <c r="W12" s="1"/>
-    </row>
-    <row r="13" spans="1:31">
+      <c r="W12" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="X12" t="s">
+        <v>823</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>824</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>824</v>
+      </c>
+      <c r="AA12">
+        <v>-39</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>881</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>880</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>878</v>
+      </c>
+      <c r="AE12" s="16" t="s">
+        <v>885</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>65.435915668054704</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32">
       <c r="A13" s="1" t="s">
         <v>680</v>
       </c>
@@ -20520,9 +20854,38 @@
       <c r="V13">
         <v>1</v>
       </c>
-      <c r="W13" s="1"/>
-    </row>
-    <row r="14" spans="1:31">
+      <c r="W13" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="X13" t="s">
+        <v>823</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>822</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>822</v>
+      </c>
+      <c r="AA13">
+        <v>-39</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>881</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>880</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>879</v>
+      </c>
+      <c r="AE13" s="16" t="s">
+        <v>886</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>62.295397366888402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32">
       <c r="A14" s="1" t="s">
         <v>479</v>
       </c>
@@ -20589,9 +20952,38 @@
       <c r="V14">
         <v>1</v>
       </c>
-      <c r="W14" s="1"/>
-    </row>
-    <row r="15" spans="1:31">
+      <c r="W14" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="X14" t="s">
+        <v>822</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>823</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>822</v>
+      </c>
+      <c r="AA14">
+        <v>-39</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>883</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>882</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>877</v>
+      </c>
+      <c r="AE14" s="16">
+        <v>-34</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>34.197284057404403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32">
       <c r="A15" s="1" t="s">
         <v>479</v>
       </c>
@@ -20658,9 +21050,38 @@
       <c r="V15">
         <v>1</v>
       </c>
-      <c r="W15" s="1"/>
-    </row>
-    <row r="16" spans="1:31">
+      <c r="W15" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="X15" t="s">
+        <v>824</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>823</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>824</v>
+      </c>
+      <c r="AA15">
+        <v>-39</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>883</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>882</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>878</v>
+      </c>
+      <c r="AE15" s="16" t="s">
+        <v>885</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>39.377214985350797</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32">
       <c r="A16" s="1" t="s">
         <v>479</v>
       </c>
@@ -20727,9 +21148,39 @@
       <c r="V16">
         <v>1</v>
       </c>
-      <c r="W16" s="1"/>
+      <c r="W16" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="X16" t="s">
+        <v>823</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>823</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>822</v>
+      </c>
+      <c r="AA16">
+        <v>-39</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>883</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>882</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>879</v>
+      </c>
+      <c r="AE16" s="16" t="s">
+        <v>886</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>34.197284057404403</v>
+      </c>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1" xr:uid="{6AE5B140-7AC6-4B32-871A-93E7303764DE}"/>
@@ -20739,7 +21190,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="14">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="18">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{86F1F46C-89A2-4087-9176-9DE9E8603EAE}">
           <x14:formula1>
             <xm:f>Help!$L$2:$L$5</xm:f>
@@ -20824,6 +21275,30 @@
           </x14:formula1>
           <xm:sqref>I2:I16</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{50F2DA9D-BBCD-479E-8D09-550DE61A9BD9}">
+          <x14:formula1>
+            <xm:f>Help!$O$2:$O$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>W2:W16</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{20F51137-79AE-44E7-9F50-256EBAF005B0}">
+          <x14:formula1>
+            <xm:f>Help!$P$2:$P$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>X2:X16</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AFB1D707-7517-45EB-AD00-0D091273F1A0}">
+          <x14:formula1>
+            <xm:f>Help!$Q$2:$Q$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>Y2:Y16</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A5A376C3-A2CF-4761-B652-1492A607B1C9}">
+          <x14:formula1>
+            <xm:f>Help!$R$2:$R$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>Z2:Z16</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -21991,8 +22466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332839ED-56B9-4FA1-9A11-3B9815BDFF4B}">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.625" defaultRowHeight="13.5"/>
@@ -22125,6 +22600,9 @@
       <c r="Q2" t="s">
         <v>822</v>
       </c>
+      <c r="R2" t="s">
+        <v>822</v>
+      </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
@@ -22178,6 +22656,9 @@
       <c r="Q3" t="s">
         <v>823</v>
       </c>
+      <c r="R3" t="s">
+        <v>823</v>
+      </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
@@ -22228,6 +22709,9 @@
       <c r="Q4" t="s">
         <v>824</v>
       </c>
+      <c r="R4" t="s">
+        <v>824</v>
+      </c>
     </row>
     <row r="5" spans="1:18">
       <c r="B5" t="s">
@@ -22397,28 +22881,28 @@
     </row>
     <row r="29" spans="6:11">
       <c r="F29" t="s">
+        <v>871</v>
+      </c>
+      <c r="G29" t="s">
         <v>872</v>
-      </c>
-      <c r="G29" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="30" spans="6:11">
       <c r="F30">
-        <v>-38</v>
+        <v>45</v>
       </c>
       <c r="G30">
         <f>(F30-32)*5/9</f>
-        <v>-38.888888888888886</v>
+        <v>7.2222222222222223</v>
       </c>
     </row>
     <row r="31" spans="6:11">
       <c r="F31">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="G31">
         <f>(F31-32)*5/9</f>
-        <v>36.111111111111114</v>
+        <v>23.888888888888889</v>
       </c>
     </row>
   </sheetData>

--- a/src/Input/plant.xlsx
+++ b/src/Input/plant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\2023HiMCM\src\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE349B2-D102-4304-A6F7-56A5F7D6EC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB5C0A9-8ADA-4545-A1AF-513B3B6017D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Plants" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5173" uniqueCount="887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5040" uniqueCount="885">
   <si>
     <t>scientificName</t>
   </si>
@@ -2732,14 +2732,6 @@
   </si>
   <si>
     <t>Medium</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coarse, Medium</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Low</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -19570,11 +19562,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB99CE73-EB40-4BA3-BA00-617790B0D471}">
-  <dimension ref="A1:AF16"/>
+  <dimension ref="A1:AF11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD28" sqref="AD28"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -19703,7 +19697,7 @@
         <v>870</v>
       </c>
       <c r="AE1" s="14" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>869</v>
@@ -19899,7 +19893,7 @@
         <v>878</v>
       </c>
       <c r="AE3" s="16" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="AF3" s="1">
         <v>80.246105406143798</v>
@@ -19997,7 +19991,7 @@
         <v>879</v>
       </c>
       <c r="AE4" s="16" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="AF4" s="1">
         <v>77.105587104977502</v>
@@ -20071,16 +20065,16 @@
         <v>1</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="X5" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="Y5" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="Z5" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="AA5">
         <v>-27</v>
@@ -20092,13 +20086,13 @@
         <v>880</v>
       </c>
       <c r="AD5" t="s">
-        <v>877</v>
-      </c>
-      <c r="AE5" s="16">
-        <v>-34</v>
+        <v>878</v>
+      </c>
+      <c r="AE5" s="16" t="s">
+        <v>883</v>
       </c>
       <c r="AF5" s="1">
-        <v>72.316669714999307</v>
+        <v>80.687109031491502</v>
       </c>
     </row>
     <row r="6" spans="1:32">
@@ -20169,16 +20163,16 @@
         <v>1</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="X6" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="Y6" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="Z6" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="AA6">
         <v>-27</v>
@@ -20190,21 +20184,21 @@
         <v>880</v>
       </c>
       <c r="AD6" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="AE6" s="16" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="AF6" s="1">
-        <v>80.687109031491502</v>
+        <v>74.931630222662307</v>
       </c>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>629</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>39</v>
+        <v>630</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>722</v>
@@ -20213,22 +20207,22 @@
         <v>723</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>726</v>
+        <v>751</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>40</v>
+        <v>752</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>631</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>808</v>
+      <c r="I7" t="s">
+        <v>806</v>
       </c>
       <c r="J7" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="K7" t="s">
         <v>819</v>
@@ -20243,7 +20237,7 @@
         <v>824</v>
       </c>
       <c r="O7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P7" t="s">
         <v>819</v>
@@ -20252,10 +20246,10 @@
         <v>824</v>
       </c>
       <c r="R7" t="s">
-        <v>818</v>
+        <v>825</v>
       </c>
       <c r="S7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T7" t="s">
         <v>822</v>
@@ -20264,37 +20258,37 @@
         <v>849</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="X7" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="Y7" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="Z7" t="s">
         <v>822</v>
       </c>
       <c r="AA7">
-        <v>-27</v>
+        <v>-33</v>
       </c>
       <c r="AB7" t="s">
-        <v>881</v>
+        <v>852</v>
       </c>
       <c r="AC7" t="s">
         <v>880</v>
       </c>
       <c r="AD7" t="s">
-        <v>879</v>
-      </c>
-      <c r="AE7" s="16" t="s">
-        <v>886</v>
+        <v>877</v>
+      </c>
+      <c r="AE7" s="16">
+        <v>-34</v>
       </c>
       <c r="AF7" s="1">
-        <v>74.931630222662307</v>
+        <v>64.627601085086994</v>
       </c>
     </row>
     <row r="8" spans="1:32">
@@ -20368,10 +20362,10 @@
         <v>823</v>
       </c>
       <c r="X8" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="Y8" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="Z8" t="s">
         <v>822</v>
@@ -20386,10 +20380,10 @@
         <v>880</v>
       </c>
       <c r="AD8" t="s">
-        <v>877</v>
-      </c>
-      <c r="AE8" s="16">
-        <v>-34</v>
+        <v>879</v>
+      </c>
+      <c r="AE8" s="16" t="s">
+        <v>884</v>
       </c>
       <c r="AF8" s="1">
         <v>64.627601085086994</v>
@@ -20397,10 +20391,10 @@
     </row>
     <row r="9" spans="1:32">
       <c r="A9" s="1" t="s">
-        <v>629</v>
+        <v>680</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>630</v>
+        <v>681</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>722</v>
@@ -20415,13 +20409,13 @@
         <v>752</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>631</v>
+        <v>805</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="J9" t="s">
         <v>809</v>
@@ -20457,48 +20451,48 @@
         <v>822</v>
       </c>
       <c r="U9" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" s="1" t="s">
         <v>823</v>
       </c>
       <c r="X9" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="Y9" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="Z9" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="AA9">
-        <v>-33</v>
+        <v>-39</v>
       </c>
       <c r="AB9" t="s">
-        <v>852</v>
+        <v>881</v>
       </c>
       <c r="AC9" t="s">
         <v>880</v>
       </c>
       <c r="AD9" t="s">
-        <v>878</v>
-      </c>
-      <c r="AE9" s="16" t="s">
-        <v>885</v>
+        <v>877</v>
+      </c>
+      <c r="AE9" s="16">
+        <v>-34</v>
       </c>
       <c r="AF9" s="1">
-        <v>70.383079893916204</v>
+        <v>62.295397366888501</v>
       </c>
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="1" t="s">
-        <v>629</v>
+        <v>680</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>630</v>
+        <v>681</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>722</v>
@@ -20513,13 +20507,13 @@
         <v>752</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>631</v>
+        <v>805</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="J10" t="s">
         <v>809</v>
@@ -20555,10 +20549,10 @@
         <v>822</v>
       </c>
       <c r="U10" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10" s="1" t="s">
         <v>823</v>
@@ -20567,28 +20561,28 @@
         <v>823</v>
       </c>
       <c r="Y10" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="Z10" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="AA10">
-        <v>-33</v>
+        <v>-39</v>
       </c>
       <c r="AB10" t="s">
-        <v>852</v>
+        <v>881</v>
       </c>
       <c r="AC10" t="s">
         <v>880</v>
       </c>
       <c r="AD10" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="AE10" s="16" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="AF10" s="1">
-        <v>64.627601085086994</v>
+        <v>65.435915668054704</v>
       </c>
     </row>
     <row r="11" spans="1:32">
@@ -20662,10 +20656,10 @@
         <v>823</v>
       </c>
       <c r="X11" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="Y11" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="Z11" t="s">
         <v>822</v>
@@ -20680,512 +20674,21 @@
         <v>880</v>
       </c>
       <c r="AD11" t="s">
-        <v>877</v>
-      </c>
-      <c r="AE11" s="16">
-        <v>-34</v>
+        <v>879</v>
+      </c>
+      <c r="AE11" s="16" t="s">
+        <v>884</v>
       </c>
       <c r="AF11" s="1">
-        <v>62.295397366888501</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32">
-      <c r="A12" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" t="s">
-        <v>808</v>
-      </c>
-      <c r="J12" t="s">
-        <v>809</v>
-      </c>
-      <c r="K12" t="s">
-        <v>819</v>
-      </c>
-      <c r="L12" t="s">
-        <v>820</v>
-      </c>
-      <c r="M12" t="s">
-        <v>822</v>
-      </c>
-      <c r="N12" t="s">
-        <v>824</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12" t="s">
-        <v>819</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>824</v>
-      </c>
-      <c r="R12" t="s">
-        <v>825</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12" t="s">
-        <v>822</v>
-      </c>
-      <c r="U12" t="s">
-        <v>848</v>
-      </c>
-      <c r="V12">
-        <v>1</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="X12" t="s">
-        <v>823</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>824</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>824</v>
-      </c>
-      <c r="AA12">
-        <v>-39</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>881</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>880</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>878</v>
-      </c>
-      <c r="AE12" s="16" t="s">
-        <v>885</v>
-      </c>
-      <c r="AF12" s="1">
-        <v>65.435915668054704</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32">
-      <c r="A13" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" t="s">
-        <v>808</v>
-      </c>
-      <c r="J13" t="s">
-        <v>809</v>
-      </c>
-      <c r="K13" t="s">
-        <v>819</v>
-      </c>
-      <c r="L13" t="s">
-        <v>820</v>
-      </c>
-      <c r="M13" t="s">
-        <v>822</v>
-      </c>
-      <c r="N13" t="s">
-        <v>824</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13" t="s">
-        <v>819</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>824</v>
-      </c>
-      <c r="R13" t="s">
-        <v>825</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13" t="s">
-        <v>822</v>
-      </c>
-      <c r="U13" t="s">
-        <v>848</v>
-      </c>
-      <c r="V13">
-        <v>1</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="X13" t="s">
-        <v>823</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>822</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>822</v>
-      </c>
-      <c r="AA13">
-        <v>-39</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>881</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>880</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>879</v>
-      </c>
-      <c r="AE13" s="16" t="s">
-        <v>886</v>
-      </c>
-      <c r="AF13" s="1">
         <v>62.295397366888402</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32">
-      <c r="A14" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" t="s">
-        <v>808</v>
-      </c>
-      <c r="J14" t="s">
-        <v>814</v>
-      </c>
-      <c r="K14" t="s">
-        <v>817</v>
-      </c>
-      <c r="L14" t="s">
-        <v>821</v>
-      </c>
-      <c r="M14" t="s">
-        <v>823</v>
-      </c>
-      <c r="N14" t="s">
-        <v>825</v>
-      </c>
-      <c r="O14">
-        <v>2</v>
-      </c>
-      <c r="P14" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>822</v>
-      </c>
-      <c r="R14" t="s">
-        <v>825</v>
-      </c>
-      <c r="S14">
-        <v>1</v>
-      </c>
-      <c r="T14" t="s">
-        <v>822</v>
-      </c>
-      <c r="U14" t="s">
-        <v>849</v>
-      </c>
-      <c r="V14">
-        <v>1</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="X14" t="s">
-        <v>822</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>823</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>822</v>
-      </c>
-      <c r="AA14">
-        <v>-39</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>883</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>882</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>877</v>
-      </c>
-      <c r="AE14" s="16">
-        <v>-34</v>
-      </c>
-      <c r="AF14" s="1">
-        <v>34.197284057404403</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32">
-      <c r="A15" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" t="s">
-        <v>808</v>
-      </c>
-      <c r="J15" t="s">
-        <v>814</v>
-      </c>
-      <c r="K15" t="s">
-        <v>817</v>
-      </c>
-      <c r="L15" t="s">
-        <v>821</v>
-      </c>
-      <c r="M15" t="s">
-        <v>823</v>
-      </c>
-      <c r="N15" t="s">
-        <v>825</v>
-      </c>
-      <c r="O15">
-        <v>2</v>
-      </c>
-      <c r="P15" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>822</v>
-      </c>
-      <c r="R15" t="s">
-        <v>825</v>
-      </c>
-      <c r="S15">
-        <v>1</v>
-      </c>
-      <c r="T15" t="s">
-        <v>822</v>
-      </c>
-      <c r="U15" t="s">
-        <v>849</v>
-      </c>
-      <c r="V15">
-        <v>1</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="X15" t="s">
-        <v>824</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>823</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>824</v>
-      </c>
-      <c r="AA15">
-        <v>-39</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>883</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>882</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>878</v>
-      </c>
-      <c r="AE15" s="16" t="s">
-        <v>885</v>
-      </c>
-      <c r="AF15" s="1">
-        <v>39.377214985350797</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32">
-      <c r="A16" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I16" t="s">
-        <v>808</v>
-      </c>
-      <c r="J16" t="s">
-        <v>814</v>
-      </c>
-      <c r="K16" t="s">
-        <v>817</v>
-      </c>
-      <c r="L16" t="s">
-        <v>821</v>
-      </c>
-      <c r="M16" t="s">
-        <v>823</v>
-      </c>
-      <c r="N16" t="s">
-        <v>825</v>
-      </c>
-      <c r="O16">
-        <v>2</v>
-      </c>
-      <c r="P16" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>822</v>
-      </c>
-      <c r="R16" t="s">
-        <v>825</v>
-      </c>
-      <c r="S16">
-        <v>1</v>
-      </c>
-      <c r="T16" t="s">
-        <v>822</v>
-      </c>
-      <c r="U16" t="s">
-        <v>849</v>
-      </c>
-      <c r="V16">
-        <v>1</v>
-      </c>
-      <c r="W16" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="X16" t="s">
-        <v>823</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>823</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>822</v>
-      </c>
-      <c r="AA16">
-        <v>-39</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>883</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>882</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>879</v>
-      </c>
-      <c r="AE16" s="16" t="s">
-        <v>886</v>
-      </c>
-      <c r="AF16" s="1">
-        <v>34.197284057404403</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G5" r:id="rId1" xr:uid="{6AE5B140-7AC6-4B32-871A-93E7303764DE}"/>
-    <hyperlink ref="G6" r:id="rId2" xr:uid="{D1A2EC6C-2D03-4F24-9E8C-B4FB1840A20E}"/>
-    <hyperlink ref="G7" r:id="rId3" xr:uid="{412FEADF-B0A7-4476-8B48-DF764964D6C4}"/>
+    <hyperlink ref="G5" r:id="rId1" xr:uid="{D1A2EC6C-2D03-4F24-9E8C-B4FB1840A20E}"/>
+    <hyperlink ref="G6" r:id="rId2" xr:uid="{412FEADF-B0A7-4476-8B48-DF764964D6C4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -21195,109 +20698,109 @@
           <x14:formula1>
             <xm:f>Help!$L$2:$L$5</xm:f>
           </x14:formula1>
-          <xm:sqref>T2:T16</xm:sqref>
+          <xm:sqref>T2:T11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{794B0967-4489-4EE6-8BF8-73471F8D3948}">
           <x14:formula1>
             <xm:f>Help!$N$4:$N$5</xm:f>
           </x14:formula1>
-          <xm:sqref>V2:V16</xm:sqref>
+          <xm:sqref>V2:V11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{846F87BD-B583-4816-A9C2-E519F7299FDE}">
           <x14:formula1>
             <xm:f>Help!$M$2:$M$3</xm:f>
           </x14:formula1>
-          <xm:sqref>U2:U16</xm:sqref>
+          <xm:sqref>U2:U11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0A461822-AF32-4D0E-98F7-FA3CDBA5D0AD}">
           <x14:formula1>
             <xm:f>Help!$G$12:$G$21</xm:f>
           </x14:formula1>
-          <xm:sqref>O2:O16</xm:sqref>
+          <xm:sqref>O2:O11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{406419F7-7080-4208-8575-11F128F6E78E}">
           <x14:formula1>
             <xm:f>Help!$K$12:$K$21</xm:f>
           </x14:formula1>
-          <xm:sqref>S2:S16</xm:sqref>
+          <xm:sqref>S2:S11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BBC654D1-503E-4563-B603-C5D9FC994937}">
           <x14:formula1>
             <xm:f>Help!$J$2:$J$5</xm:f>
           </x14:formula1>
-          <xm:sqref>R2:R16</xm:sqref>
+          <xm:sqref>R2:R11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{73188403-1363-4C54-ACB8-5AA1B487F9B4}">
           <x14:formula1>
             <xm:f>Help!$I$2:$I$4</xm:f>
           </x14:formula1>
-          <xm:sqref>Q2:Q16</xm:sqref>
+          <xm:sqref>Q2:Q11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{11701906-BA14-4F06-824F-EC5736A8346C}">
           <x14:formula1>
             <xm:f>Help!$H$2:$H$5</xm:f>
           </x14:formula1>
-          <xm:sqref>P2:P16</xm:sqref>
+          <xm:sqref>P2:P11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{39C659EA-AF88-433B-8188-CB4252D4046E}">
           <x14:formula1>
             <xm:f>Help!$F$2:$F$5</xm:f>
           </x14:formula1>
-          <xm:sqref>N2:N16</xm:sqref>
+          <xm:sqref>N2:N11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{12FEA3B4-CD6B-4F99-9D9D-025E7ACF8FA4}">
           <x14:formula1>
             <xm:f>Help!$E$2:$E$4</xm:f>
           </x14:formula1>
-          <xm:sqref>M2:M16</xm:sqref>
+          <xm:sqref>M2:M11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E84BE79B-1FC4-4555-9986-920D38D34DDD}">
           <x14:formula1>
             <xm:f>Help!$D$2:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>L2:L16</xm:sqref>
+          <xm:sqref>L2:L11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C3BF7B39-931F-4DAB-8706-72D4452FA33E}">
           <x14:formula1>
             <xm:f>Help!$C$2:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K16</xm:sqref>
+          <xm:sqref>K2:K11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{91AE7160-217A-4574-897C-CCB517CDCBDF}">
           <x14:formula1>
             <xm:f>Help!$B$2:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:J16</xm:sqref>
+          <xm:sqref>J2:J11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C06F8FD9-6EED-469D-8819-1102B3F7331D}">
           <x14:formula1>
             <xm:f>Help!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I16</xm:sqref>
+          <xm:sqref>I2:I11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{50F2DA9D-BBCD-479E-8D09-550DE61A9BD9}">
           <x14:formula1>
             <xm:f>Help!$O$2:$O$4</xm:f>
           </x14:formula1>
-          <xm:sqref>W2:W16</xm:sqref>
+          <xm:sqref>W2:W11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{20F51137-79AE-44E7-9F50-256EBAF005B0}">
           <x14:formula1>
             <xm:f>Help!$P$2:$P$4</xm:f>
           </x14:formula1>
-          <xm:sqref>X2:X16</xm:sqref>
+          <xm:sqref>X2:X11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AFB1D707-7517-45EB-AD00-0D091273F1A0}">
           <x14:formula1>
             <xm:f>Help!$Q$2:$Q$4</xm:f>
           </x14:formula1>
-          <xm:sqref>Y2:Y16</xm:sqref>
+          <xm:sqref>Y2:Y11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A5A376C3-A2CF-4761-B652-1492A607B1C9}">
           <x14:formula1>
             <xm:f>Help!$R$2:$R$4</xm:f>
           </x14:formula1>
-          <xm:sqref>Z2:Z16</xm:sqref>
+          <xm:sqref>Z2:Z11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
